--- a/deals.xlsx
+++ b/deals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:O125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2026-02-13T16:07:51+00:00</t>
+          <t>2026-02-14T09:49:59+00:00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -621,7 +621,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2026-02-13T16:07:59+00:00</t>
+          <t>2026-02-14T09:50:05+00:00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -682,7 +682,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2026-02-13T16:07:59+00:00</t>
+          <t>2026-02-14T09:50:05+00:00</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -710,17 +710,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
+          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>29.75</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2026-02-13T16:07:59+00:00</t>
+          <t>2026-02-14T09:50:05+00:00</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -771,17 +771,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>29.75</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2026-02-13T16:07:59+00:00</t>
+          <t>2026-02-14T09:50:05+00:00</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2026-02-13T16:08:41+00:00</t>
+          <t>2026-02-14T09:50:41+00:00</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -926,7 +926,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2026-02-13T16:08:47+00:00</t>
+          <t>2026-02-14T09:50:47+00:00</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -949,12 +949,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10779</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, Standard King</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -987,7 +987,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2026-02-13T16:08:49+00:00</t>
+          <t>2026-02-14T09:50:49+00:00</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1010,22 +1010,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="G10" t="n">
-        <v>25.5</v>
+        <v>127</v>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2026-02-13T16:08:49+00:00</t>
+          <t>2026-02-14T09:50:51+00:00</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1071,22 +1071,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, Standard King</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="G11" t="n">
-        <v>29.75</v>
+        <v>127</v>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2026-02-13T16:08:49+00:00</t>
+          <t>2026-02-14T09:50:53+00:00</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1132,22 +1132,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>25.5</v>
       </c>
       <c r="H12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2026-02-13T16:08:49+00:00</t>
+          <t>2026-02-14T09:50:53+00:00</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1193,19 +1193,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10779</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
         <v>20</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2026-02-13T16:08:51+00:00</t>
+          <t>2026-02-14T09:50:53+00:00</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1254,22 +1254,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="G14" t="n">
-        <v>127</v>
+        <v>29.75</v>
       </c>
       <c r="H14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2026-02-13T16:08:52+00:00</t>
+          <t>2026-02-14T09:50:53+00:00</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1315,12 +1315,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>NORDBERGET Mattress pad, Standard King</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2026-02-13T16:08:55+00:00</t>
+          <t>2026-02-14T09:50:54+00:00</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1376,17 +1376,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Re-shop and Re-use</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>25</v>
+      </c>
+      <c r="G16" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>15</v>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -1408,7 +1414,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2026-02-13T16:08:57+00:00</t>
+          <t>2026-02-14T09:50:54+00:00</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1431,19 +1437,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, Standard King</t>
+          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="H17" t="n">
         <v>20</v>
@@ -1469,7 +1475,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2026-02-13T16:08:59+00:00</t>
+          <t>2026-02-14T09:50:54+00:00</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1492,19 +1498,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>25.5</v>
+        <v>29.75</v>
       </c>
       <c r="H18" t="n">
         <v>15</v>
@@ -1530,7 +1536,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2026-02-13T16:08:59+00:00</t>
+          <t>2026-02-14T09:50:54+00:00</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1553,22 +1559,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="G19" t="n">
-        <v>29.75</v>
+        <v>127</v>
       </c>
       <c r="H19" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1591,7 +1597,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2026-02-13T16:08:59+00:00</t>
+          <t>2026-02-14T09:50:55+00:00</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1614,19 +1620,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="H20" t="n">
         <v>20</v>
@@ -1652,7 +1658,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2026-02-13T16:08:59+00:00</t>
+          <t>2026-02-14T09:50:57+00:00</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1675,23 +1681,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
+          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>127</v>
-      </c>
-      <c r="G21" t="n">
-        <v>127</v>
-      </c>
-      <c r="H21" t="n">
-        <v>20</v>
-      </c>
+          <t>Re-shop and Re-use</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:01+00:00</t>
+          <t>2026-02-14T09:50:59+00:00</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1736,20 +1736,18 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>€ 998</t>
+          <t>€ 649</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G22" t="n">
-        <v>998</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
@@ -1772,7 +1770,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:03+00:00</t>
+          <t>2026-02-14T09:51:02+00:00</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1795,7 +1793,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1804,11 +1802,9 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G23" t="n">
-        <v>998</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
@@ -1831,7 +1827,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:03+00:00</t>
+          <t>2026-02-14T09:51:02+00:00</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1859,13 +1855,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>€ 1,119</t>
+          <t>€ 998</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+        <v>1.04</v>
+      </c>
+      <c r="G24" t="n">
+        <v>998</v>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
@@ -1888,7 +1886,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:03+00:00</t>
+          <t>2026-02-14T09:51:05+00:00</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1920,9 +1918,11 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
+        <v>1.04</v>
+      </c>
+      <c r="G25" t="n">
+        <v>998</v>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:03+00:00</t>
+          <t>2026-02-14T09:51:05+00:00</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1968,16 +1968,16 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>€ 649</t>
+          <t>€ 1,119</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>649</v>
+        <v>1.11</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:06+00:00</t>
+          <t>2026-02-14T09:51:05+00:00</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>649</v>
+        <v>1.11</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:06+00:00</t>
+          <t>2026-02-14T09:51:05+00:00</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -2082,24 +2082,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>€ 499</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>499</v>
-      </c>
-      <c r="G28" t="n">
-        <v>549</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -2118,7 +2116,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:09+00:00</t>
+          <t>2026-02-14T09:51:07+00:00</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2141,19 +2139,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 1,299</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>499</v>
+        <v>1.29</v>
       </c>
       <c r="G29" t="n">
-        <v>549</v>
+        <v>100</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
@@ -2177,7 +2175,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:09+00:00</t>
+          <t>2026-02-14T09:51:10+00:00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2200,16 +2198,16 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>€ 449</t>
+          <t>LG 55" OLED Evo AI C5 4K Smart TV | OLED55C54LA.AEK</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>449</v>
+        <v>100</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -2234,7 +2232,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:09+00:00</t>
+          <t>2026-02-14T09:51:10+00:00</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2257,16 +2255,16 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>449</v>
+        <v>100</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -2291,7 +2289,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:09+00:00</t>
+          <t>2026-02-14T09:51:10+00:00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2314,22 +2312,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions.html</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Current sales and promotions</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -2348,7 +2346,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:11+00:00</t>
+          <t>2026-02-14T09:51:10+00:00</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2376,14 +2374,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>€ 1,299</t>
+          <t>€ 1,799</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.29</v>
+        <v>1.79</v>
       </c>
       <c r="G33" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
@@ -2407,7 +2405,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:14+00:00</t>
+          <t>2026-02-14T09:51:10+00:00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2435,11 +2433,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>LG 55" OLED Evo AI C5 4K Smart TV | OLED55C54LA.AEK</t>
+          <t>LG 65" OLED Evo AI C5 4K Smart TV | OLED65C54LA.AEK</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -2464,7 +2462,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:14+00:00</t>
+          <t>2026-02-14T09:51:10+00:00</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2496,7 +2494,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -2521,7 +2519,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:14+00:00</t>
+          <t>2026-02-14T09:51:10+00:00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2553,7 +2551,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.29</v>
+        <v>1.79</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -2578,7 +2576,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:14+00:00</t>
+          <t>2026-02-14T09:51:10+00:00</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2606,14 +2604,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>€ 1,799</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.79</v>
+        <v>50</v>
       </c>
       <c r="G37" t="n">
-        <v>150</v>
+        <v>599</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
@@ -2637,7 +2635,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:14+00:00</t>
+          <t>2026-02-14T09:51:10+00:00</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2665,11 +2663,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>LG 65" OLED Evo AI C5 4K Smart TV | OLED65C54LA.AEK</t>
+          <t>LG 55" QNED70 AI 4K Smart TV (2025) | 55QNED70A6A.AEK</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
@@ -2694,7 +2692,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:14+00:00</t>
+          <t>2026-02-14T09:51:10+00:00</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2726,7 +2724,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -2751,7 +2749,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:14+00:00</t>
+          <t>2026-02-14T09:51:10+00:00</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2783,7 +2781,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.79</v>
+        <v>599</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -2808,7 +2806,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:14+00:00</t>
+          <t>2026-02-14T09:51:10+00:00</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2831,7 +2829,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2840,7 +2838,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G41" t="n">
         <v>599</v>
@@ -2867,7 +2865,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:14+00:00</t>
+          <t>2026-02-14T09:51:12+00:00</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2890,16 +2888,16 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>LG 55" QNED70 AI 4K Smart TV (2025) | 55QNED70A6A.AEK</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>599</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
@@ -2924,7 +2922,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:14+00:00</t>
+          <t>2026-02-14T09:51:12+00:00</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2947,16 +2945,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>50</v>
+        <v>599</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -2981,7 +2979,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:14+00:00</t>
+          <t>2026-02-14T09:51:12+00:00</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3004,16 +3002,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 449</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>599</v>
+        <v>449</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
@@ -3038,7 +3036,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:14+00:00</t>
+          <t>2026-02-14T09:51:12+00:00</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -3061,22 +3059,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -3095,7 +3093,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:16+00:00</t>
+          <t>2026-02-14T09:51:12+00:00</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3154,7 +3152,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:19+00:00</t>
+          <t>2026-02-14T09:51:15+00:00</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3211,7 +3209,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:19+00:00</t>
+          <t>2026-02-14T09:51:15+00:00</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3268,7 +3266,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:19+00:00</t>
+          <t>2026-02-14T09:51:15+00:00</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3325,7 +3323,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:19+00:00</t>
+          <t>2026-02-14T09:51:15+00:00</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3382,7 +3380,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:19+00:00</t>
+          <t>2026-02-14T09:51:15+00:00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3439,7 +3437,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:19+00:00</t>
+          <t>2026-02-14T09:51:15+00:00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3496,7 +3494,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:19+00:00</t>
+          <t>2026-02-14T09:51:15+00:00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3553,7 +3551,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2026-02-13T16:09:19+00:00</t>
+          <t>2026-02-14T09:51:15+00:00</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3561,35 +3559,33 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Weavers of Ireland</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>weaversofireland.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/outlet</t>
+          <t>https://www.harveynorman.ie/promotions.html</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Ladies Wool Peaky Blinders Hat</t>
+          <t>Current sales and promotions</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>49.95</v>
-      </c>
-      <c r="G54" t="n">
-        <v>49.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
@@ -3601,18 +3597,18 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>9, Westmoreland Street, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>53.3459126</v>
+        <v>53.2523369</v>
       </c>
       <c r="M54" t="n">
-        <v>-6.2594181</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2026-02-13T16:12:36+00:00</t>
+          <t>2026-02-14T09:51:17+00:00</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3620,7 +3616,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ASHA</t>
+          <t>Weavers of Ireland</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3630,25 +3626,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>www.stephensgreen.com</t>
+          <t>weaversofireland.com</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.stephensgreen.com/dublin-shops/asha/offer</t>
+          <t>https://weaversofireland.com/outlet</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>OFFERS</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+          <t>Ladies Wool Peaky Blinders Hat</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="G55" t="n">
+        <v>49.95</v>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -3656,18 +3656,18 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>St. Stephen's Green, Dublin</t>
+          <t>9, Westmoreland Street, Dublin</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>53.3399449</v>
+        <v>53.3459126</v>
       </c>
       <c r="M55" t="n">
-        <v>-6.2614642</v>
+        <v>-6.2594181</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2026-02-13T16:15:13+00:00</t>
+          <t>2026-02-14T09:55:00+00:00</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3675,27 +3675,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>ASHA</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>www.stephensgreen.com</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/catalog</t>
+          <t>https://www.stephensgreen.com/dublin-shops/asha/offer</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Products</t>
+          <t>OFFERS</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3703,7 +3703,7 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -3711,18 +3711,18 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>St. Stephen's Green, Dublin</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>53.4071706</v>
+        <v>53.3399449</v>
       </c>
       <c r="M56" t="n">
-        <v>-6.2763987</v>
+        <v>-6.2614642</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2026-02-13T16:15:46+00:00</t>
+          <t>2026-02-14T09:57:38+00:00</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3730,7 +3730,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3740,28 +3740,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance</t>
+          <t>https://www.ikea.com/ie/en/catalog</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>€ 289</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>289</v>
-      </c>
-      <c r="G57" t="n">
-        <v>459</v>
-      </c>
-      <c r="H57" t="n">
-        <v>10</v>
-      </c>
+          <t>Products</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -3772,18 +3766,18 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M57" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2026-02-13T16:16:13+00:00</t>
+          <t>2026-02-14T09:58:09+00:00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3817,8 +3811,12 @@
       <c r="F58" t="n">
         <v>289</v>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>459</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -3840,7 +3838,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2026-02-13T16:16:13+00:00</t>
+          <t>2026-02-14T09:58:34+00:00</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3868,7 +3866,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 289</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3897,7 +3895,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2026-02-13T16:16:13+00:00</t>
+          <t>2026-02-14T09:58:34+00:00</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3925,11 +3923,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>€ 459</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>459</v>
+        <v>289</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
@@ -3954,7 +3952,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2026-02-13T16:16:13+00:00</t>
+          <t>2026-02-14T09:58:34+00:00</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3982,13 +3980,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 459</t>
         </is>
       </c>
       <c r="F61" t="n">
         <v>459</v>
       </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>479</v>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2026-02-13T16:16:13+00:00</t>
+          <t>2026-02-14T09:58:34+00:00</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -4039,14 +4039,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>€ 99</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>99</v>
+        <v>459</v>
       </c>
       <c r="G62" t="n">
-        <v>149</v>
+        <v>479</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2026-02-13T16:16:14+00:00</t>
+          <t>2026-02-14T09:58:34+00:00</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 99</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2026-02-13T16:16:14+00:00</t>
+          <t>2026-02-14T09:58:34+00:00</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4157,14 +4157,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>€ 34.95</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>34.95</v>
+        <v>99</v>
       </c>
       <c r="G64" t="n">
-        <v>39.95</v>
+        <v>149</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2026-02-13T16:16:14+00:00</t>
+          <t>2026-02-14T09:58:34+00:00</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4196,41 +4196,39 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>R&amp;C McCormack</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>celticdublin.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://celticdublin.com/offer</t>
+          <t>https://www.harveynorman.ie/clearance</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Offers</t>
+          <t>€ 34.95</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>34.95</v>
       </c>
       <c r="G65" t="n">
-        <v>100</v>
-      </c>
-      <c r="H65" t="n">
-        <v>15</v>
-      </c>
+        <v>39.95</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -4238,18 +4236,18 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Grafton Street, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>53.3400972</v>
+        <v>53.2523369</v>
       </c>
       <c r="M65" t="n">
-        <v>-6.2605276</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2026-02-13T16:17:51+00:00</t>
+          <t>2026-02-14T09:58:34+00:00</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4257,36 +4255,38 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Weavers of Ireland</t>
+          <t>R&amp;C McCormack</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>weaversofireland.com</t>
+          <t>celticdublin.com</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
+          <t>https://celticdublin.com/offer</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Baby Shepley Aran Headband</t>
+          <t>Offers</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>24.95</v>
+        <v>100</v>
       </c>
       <c r="G66" t="n">
-        <v>24.95</v>
-      </c>
-      <c r="H66" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="H66" t="n">
+        <v>15</v>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -4297,18 +4297,18 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>9, Westmoreland Street, Dublin</t>
+          <t>Grafton Street, Dublin</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>53.3459126</v>
+        <v>53.3400972</v>
       </c>
       <c r="M66" t="n">
-        <v>-6.2594181</v>
+        <v>-6.2605276</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:09+00:00</t>
+          <t>2026-02-14T10:00:01+00:00</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:11+00:00</t>
+          <t>2026-02-14T10:00:20+00:00</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:13+00:00</t>
+          <t>2026-02-14T10:00:21+00:00</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4449,22 +4449,18 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-him</t>
+          <t>https://weaversofireland.com/blogs/blog/irish-wool-what-makes-it-special-and-why-it-s-perfect-for-march-weather</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Alpaca Scarf - Grey Herringbone</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>69.95</v>
-      </c>
-      <c r="G69" t="n">
-        <v>69.95</v>
-      </c>
+          <t>Irish Wool: What Makes it Special and Why it’s Perfect for March Weather</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -4487,7 +4483,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:15+00:00</t>
+          <t>2026-02-14T10:00:23+00:00</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4510,19 +4506,19 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
+          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Ladies Boston Wool Felt Hat</t>
+          <t>Baby Shepley Aran Headband</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>79.95</v>
+        <v>24.95</v>
       </c>
       <c r="G70" t="n">
-        <v>79.95</v>
+        <v>24.95</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
@@ -4546,7 +4542,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:17+00:00</t>
+          <t>2026-02-14T10:00:25+00:00</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4569,19 +4565,19 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet</t>
+          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Ladies Wool Peaky Blinders Hat</t>
+          <t>Ladies Boston Wool Felt Hat</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>49.95</v>
+        <v>79.95</v>
       </c>
       <c r="G71" t="n">
-        <v>49.95</v>
+        <v>79.95</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
@@ -4605,7 +4601,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:18+00:00</t>
+          <t>2026-02-14T10:00:26+00:00</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4628,19 +4624,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/blogs/blog/irish-wool-what-makes-it-special-and-why-it-s-perfect-for-march-weather</t>
+          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Irish Wool: What Makes it Special and Why it’s Perfect for March Weather</t>
+          <t>Express Shipping Offer</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="n">
-        <v>100</v>
-      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -4662,7 +4656,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:20+00:00</t>
+          <t>2026-02-14T10:00:28+00:00</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4685,16 +4679,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
+          <t>https://weaversofireland.com/collections/outlet</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Express Shipping Offer</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+          <t>Ladies Wool Peaky Blinders Hat</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="G73" t="n">
+        <v>49.95</v>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
@@ -4717,7 +4715,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:22+00:00</t>
+          <t>2026-02-14T10:00:30+00:00</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4725,35 +4723,41 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Weavers of Ireland</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>weaversofireland.com</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/food/salesareas/restaurant/?categories=SC017</t>
+          <t>https://weaversofireland.com/collections/outlet-for-him</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Swedish Restaurant</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+          <t>Alpaca Scarf - Grey Herringbone</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>69.95</v>
+      </c>
+      <c r="G74" t="n">
+        <v>69.95</v>
+      </c>
+      <c r="H74" t="n">
+        <v>22</v>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -4761,18 +4765,18 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>9, Westmoreland Street, Dublin</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>53.4071706</v>
+        <v>53.3459126</v>
       </c>
       <c r="M74" t="n">
-        <v>-6.2763987</v>
+        <v>-6.2594181</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:24+00:00</t>
+          <t>2026-02-14T10:00:32+00:00</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4795,19 +4799,19 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SOLHETTA LED bulb E27 470 lumen</t>
+          <t>ÅBÄCKEN Mist nozzle for mixer tap</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
@@ -4831,7 +4835,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:27+00:00</t>
+          <t>2026-02-14T10:00:34+00:00</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4854,19 +4858,19 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SOLHETTA LED bulb E27 806 lumen</t>
+          <t>DALSKÄR Wash-basin mixer tap</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
@@ -4890,7 +4894,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:27+00:00</t>
+          <t>2026-02-14T10:00:34+00:00</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4913,21 +4917,23 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>DIRIGERA Hub for smart products</t>
+          <t>LILLHAVET Washing-up bowl</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="G77" t="n">
-        <v>65</v>
-      </c>
-      <c r="H77" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H77" t="n">
+        <v>50</v>
+      </c>
       <c r="I77" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -4949,7 +4955,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:27+00:00</t>
+          <t>2026-02-14T10:00:34+00:00</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4972,19 +4978,19 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TILLREDA Portable induction hob</t>
+          <t>IKEA PS 2002 Watering can, 1.2 l</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
@@ -5008,7 +5014,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:27+00:00</t>
+          <t>2026-02-14T10:00:34+00:00</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -5016,7 +5022,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5026,28 +5032,26 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/homeware-clearance/?mega-menu</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>€ 27</t>
+          <t>SOLHETTA LED bulb E27 470 lumen</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>60</v>
-      </c>
-      <c r="H79" t="n">
-        <v>100</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5058,18 +5062,18 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M79" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:30+00:00</t>
+          <t>2026-02-14T10:00:36+00:00</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -5077,7 +5081,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5087,24 +5091,24 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/homeware-clearance/?mega-menu</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>€ 27</t>
+          <t>SOLHETTA LED bulb E27 806 lumen</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G80" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
@@ -5117,18 +5121,18 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M80" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:30+00:00</t>
+          <t>2026-02-14T10:00:36+00:00</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -5136,7 +5140,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5146,24 +5150,24 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/homeware-clearance/?mega-menu</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>DIRIGERA Hub for smart products</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="G81" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
@@ -5176,18 +5180,18 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M81" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:30+00:00</t>
+          <t>2026-02-14T10:00:36+00:00</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -5195,7 +5199,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5205,28 +5209,26 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/homeware-clearance/?mega-menu</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>€ 15</t>
+          <t>TILLREDA Portable induction hob</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="G82" t="n">
-        <v>45</v>
-      </c>
-      <c r="H82" t="n">
-        <v>100</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5237,18 +5239,18 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M82" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:30+00:00</t>
+          <t>2026-02-14T10:00:36+00:00</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -5271,19 +5273,21 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/homeware-clearance/?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="n">
-        <v>100</v>
-      </c>
+          <t>€ 59.95</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="G83" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5305,7 +5309,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:30+00:00</t>
+          <t>2026-02-14T10:00:38+00:00</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -5328,20 +5332,18 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/homeware-clearance/?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 59.95</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>15</v>
-      </c>
-      <c r="G84" t="n">
-        <v>45</v>
-      </c>
+        <v>59.95</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
@@ -5364,7 +5366,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:30+00:00</t>
+          <t>2026-02-14T10:00:38+00:00</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
@@ -5387,20 +5389,18 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/homeware-clearance/?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>€ 15</t>
+          <t>Add to compare list</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>15</v>
-      </c>
-      <c r="G85" t="n">
-        <v>25</v>
-      </c>
+        <v>59.95</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:30+00:00</t>
+          <t>2026-02-14T10:00:38+00:00</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
@@ -5446,19 +5446,19 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/bedding-clearance/?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>€ 279</t>
+          <t>€ 29.95</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>279</v>
+        <v>29.95</v>
       </c>
       <c r="G86" t="n">
-        <v>599</v>
+        <v>39.95</v>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:34+00:00</t>
+          <t>2026-02-14T10:00:38+00:00</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
@@ -5505,18 +5505,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/bedding-clearance/?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Duval Base | King | 5ft | Grey</t>
+          <t>Add to compare list</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>599</v>
-      </c>
-      <c r="G87" t="inlineStr"/>
+        <v>29.95</v>
+      </c>
+      <c r="G87" t="n">
+        <v>39.95</v>
+      </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
@@ -5539,7 +5541,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:34+00:00</t>
+          <t>2026-02-14T10:00:38+00:00</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -5562,19 +5564,19 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/bedding-clearance/?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 54.95</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>279</v>
+        <v>54.95</v>
       </c>
       <c r="G88" t="n">
-        <v>649</v>
+        <v>65.95</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
@@ -5598,7 +5600,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:34+00:00</t>
+          <t>2026-02-14T10:00:38+00:00</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
@@ -5621,19 +5623,19 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/bedding-clearance/?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>€ 149</t>
+          <t>Add to compare list</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>149</v>
+        <v>54.95</v>
       </c>
       <c r="G89" t="n">
-        <v>225</v>
+        <v>65.95</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
@@ -5657,7 +5659,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:34+00:00</t>
+          <t>2026-02-14T10:00:38+00:00</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -5680,18 +5682,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/bedding-clearance/?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Metal Bedside Table | Silver</t>
+          <t>€ 799</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>225</v>
-      </c>
-      <c r="G90" t="inlineStr"/>
+        <v>799</v>
+      </c>
+      <c r="G90" t="n">
+        <v>849</v>
+      </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
@@ -5714,7 +5718,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:34+00:00</t>
+          <t>2026-02-14T10:00:38+00:00</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
@@ -5737,24 +5741,26 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/bedding-clearance/?mega-menu</t>
+          <t>https://www.harveynorman.ie/5-day-mattress-sale.html</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>225</v>
-      </c>
-      <c r="H91" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="H91" t="n">
+        <v>20</v>
+      </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J91" t="b">
@@ -5773,7 +5779,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:34+00:00</t>
+          <t>2026-02-14T10:00:40+00:00</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
@@ -5781,37 +5787,37 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
+          <t>€ 249</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3.49</v>
+        <v>249</v>
       </c>
       <c r="G92" t="n">
-        <v>4.99</v>
+        <v>549</v>
       </c>
       <c r="H92" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -5823,18 +5829,18 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M92" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:36+00:00</t>
+          <t>2026-02-14T10:00:43+00:00</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
@@ -5842,36 +5848,36 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>€ 249</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G93" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H93" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
       <c r="I93" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5882,18 +5888,18 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M93" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:36+00:00</t>
+          <t>2026-02-14T10:00:43+00:00</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
@@ -5901,36 +5907,34 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G94" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H94" t="inlineStr"/>
+          <t>Dyson Supersonic Origin Hair Dryer | 107833-01 | Nickel/Copper</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
       <c r="I94" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5941,18 +5945,18 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M94" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:36+00:00</t>
+          <t>2026-02-14T10:00:43+00:00</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
@@ -5960,34 +5964,34 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>3.49</v>
-      </c>
+          <t>Search Suggestions</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
       <c r="I95" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5998,18 +6002,18 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M95" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:36+00:00</t>
+          <t>2026-02-14T10:00:43+00:00</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
@@ -6017,34 +6021,34 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Guarantee &amp; Service</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
+          <t>FIND IN STORE</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>249</v>
+      </c>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="n">
-        <v>15</v>
-      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6055,18 +6059,18 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M96" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:36+00:00</t>
+          <t>2026-02-14T10:00:43+00:00</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
@@ -6074,41 +6078,39 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/black-friday-picks</t>
+          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+          <t>€ 549</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G97" t="n">
-        <v>4.99</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J97" t="b">
@@ -6116,18 +6118,18 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M97" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:38+00:00</t>
+          <t>2026-02-14T10:00:43+00:00</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
@@ -6135,37 +6137,33 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G98" t="n">
-        <v>3.29</v>
-      </c>
+          <t>Dyson Airwrap ID Multi-Styler and Dryer Straight+Wavy | 601857-01 | Ceramic Pink/Rose Gold</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -6177,18 +6175,18 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M98" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:40+00:00</t>
+          <t>2026-02-14T10:00:43+00:00</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
@@ -6196,35 +6194,33 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G99" t="n">
-        <v>3.29</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
@@ -6236,18 +6232,18 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M99" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:40+00:00</t>
+          <t>2026-02-14T10:00:43+00:00</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
@@ -6255,36 +6251,36 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>€ 499</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G100" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="H100" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
       <c r="I100" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6295,18 +6291,18 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M100" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:40+00:00</t>
+          <t>2026-02-14T10:00:43+00:00</t>
         </is>
       </c>
       <c r="O100" t="inlineStr"/>
@@ -6314,34 +6310,34 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Damiani Round Brilliant Three Stone Diamond Ring 0.66ct</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>2.25</v>
-      </c>
+          <t>Dyson Airstrait Dryer and Straightener | 598961-01 | Ceramic Pink/Rose Gold</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
       <c r="I101" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6352,18 +6348,18 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M101" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:40+00:00</t>
+          <t>2026-02-14T10:00:43+00:00</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
@@ -6371,34 +6367,34 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Guarantee &amp; Service</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
+          <t>FIND IN STORE</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>499</v>
+      </c>
       <c r="G102" t="inlineStr"/>
-      <c r="H102" t="n">
-        <v>15</v>
-      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6409,18 +6405,18 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M102" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:40+00:00</t>
+          <t>2026-02-14T10:00:43+00:00</t>
         </is>
       </c>
       <c r="O102" t="inlineStr"/>
@@ -6428,41 +6424,39 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
+          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+          <t>€ 449</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G103" t="n">
-        <v>4.99</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J103" t="b">
@@ -6470,18 +6464,18 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M103" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:42+00:00</t>
+          <t>2026-02-14T10:00:43+00:00</t>
         </is>
       </c>
       <c r="O103" t="inlineStr"/>
@@ -6504,7 +6498,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -6513,10 +6507,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.39</v>
+        <v>2.25</v>
       </c>
       <c r="G104" t="n">
-        <v>1.59</v>
+        <v>3.29</v>
       </c>
       <c r="H104" t="n">
         <v>15</v>
@@ -6542,7 +6536,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:44+00:00</t>
+          <t>2026-02-14T10:00:45+00:00</t>
         </is>
       </c>
       <c r="O104" t="inlineStr"/>
@@ -6565,7 +6559,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -6574,10 +6568,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.39</v>
+        <v>2.25</v>
       </c>
       <c r="G105" t="n">
-        <v>1.59</v>
+        <v>3.29</v>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
@@ -6601,7 +6595,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:44+00:00</t>
+          <t>2026-02-14T10:00:45+00:00</t>
         </is>
       </c>
       <c r="O105" t="inlineStr"/>
@@ -6624,7 +6618,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -6633,10 +6627,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.39</v>
+        <v>2.25</v>
       </c>
       <c r="G106" t="n">
-        <v>1.59</v>
+        <v>3.29</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
@@ -6660,7 +6654,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:44+00:00</t>
+          <t>2026-02-14T10:00:45+00:00</t>
         </is>
       </c>
       <c r="O106" t="inlineStr"/>
@@ -6683,16 +6677,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Rocks Diamond &amp; Gemstone Floral Necklace</t>
+          <t>Damiani Round Brilliant Three Stone Diamond Ring 0.66ct</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.39</v>
+        <v>2.25</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
@@ -6717,7 +6711,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:44+00:00</t>
+          <t>2026-02-14T10:00:45+00:00</t>
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
@@ -6740,20 +6734,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="G108" t="n">
-        <v>18.29</v>
-      </c>
+          <t>Guarantee &amp; Service</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
         <v>15</v>
       </c>
@@ -6778,7 +6768,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:45+00:00</t>
+          <t>2026-02-14T10:00:45+00:00</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
@@ -6801,24 +6791,26 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>13.25</v>
+        <v>3.49</v>
       </c>
       <c r="G109" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="H109" t="inlineStr"/>
+        <v>4.99</v>
+      </c>
+      <c r="H109" t="n">
+        <v>31</v>
+      </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J109" t="b">
@@ -6837,7 +6829,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:45+00:00</t>
+          <t>2026-02-14T10:00:47+00:00</t>
         </is>
       </c>
       <c r="O109" t="inlineStr"/>
@@ -6860,21 +6852,23 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>13.25</v>
+        <v>3.49</v>
       </c>
       <c r="G110" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="H110" t="inlineStr"/>
+        <v>4.99</v>
+      </c>
+      <c r="H110" t="n">
+        <v>15</v>
+      </c>
       <c r="I110" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6896,7 +6890,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:45+00:00</t>
+          <t>2026-02-14T10:00:49+00:00</t>
         </is>
       </c>
       <c r="O110" t="inlineStr"/>
@@ -6919,18 +6913,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Oval Yellow Diamond Solitiatire Diamond Set Shoulders 1.16ct</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="G111" t="inlineStr"/>
+        <v>3.49</v>
+      </c>
+      <c r="G111" t="n">
+        <v>4.99</v>
+      </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
@@ -6953,7 +6949,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:45+00:00</t>
+          <t>2026-02-14T10:00:49+00:00</t>
         </is>
       </c>
       <c r="O111" t="inlineStr"/>
@@ -6961,35 +6957,39 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SISU Clinic</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>perfumes/beauty</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>www.sisuclinic.com</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Explore our latest Blogs</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="G112" t="n">
+        <v>4.99</v>
+      </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J112" t="b">
@@ -6997,18 +6997,18 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>3, Fields Terrace, Dublin</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>53.3252812</v>
+        <v>53.2898373</v>
       </c>
       <c r="M112" t="n">
-        <v>-6.2554094</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2026-02-13T16:18:46+00:00</t>
+          <t>2026-02-14T10:00:49+00:00</t>
         </is>
       </c>
       <c r="O112" t="inlineStr"/>
@@ -7016,57 +7016,759 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SISU Clinic</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>perfumes/beauty</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>www.sisuclinic.com</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Explore our latest Blogs</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr"/>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>3.49</v>
+      </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J113" t="b">
+        <v>1</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M113" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>2026-02-14T10:00:49+00:00</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Guarantee &amp; Service</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="n">
+        <v>15</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J114" t="b">
+        <v>1</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M114" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>2026-02-14T10:00:49+00:00</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Talk to a Diamond Expert</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H115" t="n">
+        <v>15</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J115" t="b">
+        <v>1</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M115" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>2026-02-14T10:00:50+00:00</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Skip to product information</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J116" t="b">
+        <v>1</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M116" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>2026-02-14T10:00:50+00:00</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J117" t="b">
+        <v>1</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>2026-02-14T10:00:50+00:00</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Rocks Diamond &amp; Gemstone Floral Necklace</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J118" t="b">
+        <v>1</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>2026-02-14T10:00:50+00:00</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/black-friday-picks</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="G119" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H119" t="n">
+        <v>31</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="J119" t="b">
+        <v>1</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>2026-02-14T10:00:52+00:00</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Talk to a Diamond Expert</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="G120" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="H120" t="n">
+        <v>15</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J120" t="b">
+        <v>1</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>2026-02-14T10:00:54+00:00</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Skip to product information</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="G121" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J121" t="b">
+        <v>1</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M121" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>2026-02-14T10:00:54+00:00</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="G122" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J122" t="b">
+        <v>1</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M122" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>2026-02-14T10:00:54+00:00</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Oval Yellow Diamond Solitiatire Diamond Set Shoulders 1.16ct</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J123" t="b">
+        <v>1</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M123" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>2026-02-14T10:00:54+00:00</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>SISU Clinic</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>perfumes/beauty</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>www.sisuclinic.com</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Explore our latest Blogs</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
           <t>MEDIUM</t>
         </is>
       </c>
-      <c r="J113" t="b">
-        <v>1</v>
-      </c>
-      <c r="K113" t="inlineStr">
+      <c r="J124" t="b">
+        <v>1</v>
+      </c>
+      <c r="K124" t="inlineStr">
         <is>
           <t>3, Fields Terrace, Dublin</t>
         </is>
       </c>
-      <c r="L113" t="n">
+      <c r="L124" t="n">
         <v>53.3252812</v>
       </c>
-      <c r="M113" t="n">
+      <c r="M124" t="n">
         <v>-6.2554094</v>
       </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>2026-02-13T16:18:47+00:00</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr"/>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>2026-02-14T10:00:55+00:00</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>SISU Clinic</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>perfumes/beauty</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>www.sisuclinic.com</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Explore our latest Blogs</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="J125" t="b">
+        <v>1</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>3, Fields Terrace, Dublin</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>53.3252812</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-6.2554094</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>2026-02-14T10:00:56+00:00</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/deals.xlsx
+++ b/deals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O125"/>
+  <dimension ref="A1:O132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2026-02-14T09:49:59+00:00</t>
+          <t>2026-02-14T14:11:55+00:00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -621,7 +621,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2026-02-14T09:50:05+00:00</t>
+          <t>2026-02-14T14:12:02+00:00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -682,7 +682,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2026-02-14T09:50:05+00:00</t>
+          <t>2026-02-14T14:12:02+00:00</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -743,7 +743,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2026-02-14T09:50:05+00:00</t>
+          <t>2026-02-14T14:12:02+00:00</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -804,7 +804,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2026-02-14T09:50:05+00:00</t>
+          <t>2026-02-14T14:12:02+00:00</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2026-02-14T09:50:41+00:00</t>
+          <t>2026-02-14T14:12:39+00:00</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -888,23 +888,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>127</v>
-      </c>
-      <c r="G8" t="n">
-        <v>127</v>
-      </c>
-      <c r="H8" t="n">
-        <v>20</v>
-      </c>
+          <t>Re-shop and Re-use</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -926,7 +920,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2026-02-14T09:50:47+00:00</t>
+          <t>2026-02-14T14:12:46+00:00</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -987,7 +981,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2026-02-14T09:50:49+00:00</t>
+          <t>2026-02-14T14:12:49+00:00</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1010,12 +1004,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>NORDBERGET Mattress pad, Standard King</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1048,7 +1042,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2026-02-14T09:50:51+00:00</t>
+          <t>2026-02-14T14:12:51+00:00</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1076,17 +1070,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, Standard King</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>127</v>
+        <v>25.5</v>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1109,7 +1103,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2026-02-14T09:50:53+00:00</t>
+          <t>2026-02-14T14:12:51+00:00</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1137,17 +1131,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>25.5</v>
+        <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1170,7 +1164,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2026-02-14T09:50:53+00:00</t>
+          <t>2026-02-14T14:12:51+00:00</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1198,17 +1192,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>29.75</v>
       </c>
       <c r="H13" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1231,7 +1225,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2026-02-14T09:50:53+00:00</t>
+          <t>2026-02-14T14:12:51+00:00</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1254,22 +1248,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="G14" t="n">
-        <v>29.75</v>
+        <v>127</v>
       </c>
       <c r="H14" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1292,7 +1286,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2026-02-14T09:50:53+00:00</t>
+          <t>2026-02-14T14:12:52+00:00</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1315,12 +1309,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, Standard King</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1353,7 +1347,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2026-02-14T09:50:54+00:00</t>
+          <t>2026-02-14T14:12:54+00:00</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1376,22 +1370,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="G16" t="n">
-        <v>25.5</v>
+        <v>127</v>
       </c>
       <c r="H16" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1414,7 +1408,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2026-02-14T09:50:54+00:00</t>
+          <t>2026-02-14T14:12:56+00:00</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1442,14 +1436,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
+          <t>NORDBERGET Mattress pad, Standard King</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="H17" t="n">
         <v>20</v>
@@ -1475,7 +1469,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2026-02-14T09:50:54+00:00</t>
+          <t>2026-02-14T14:12:58+00:00</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1503,14 +1497,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G18" t="n">
-        <v>29.75</v>
+        <v>25.5</v>
       </c>
       <c r="H18" t="n">
         <v>15</v>
@@ -1536,7 +1530,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2026-02-14T09:50:54+00:00</t>
+          <t>2026-02-14T14:12:58+00:00</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1559,19 +1553,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
         <v>20</v>
@@ -1597,7 +1591,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2026-02-14T09:50:55+00:00</t>
+          <t>2026-02-14T14:12:58+00:00</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1620,22 +1614,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="G20" t="n">
-        <v>127</v>
+        <v>29.75</v>
       </c>
       <c r="H20" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1658,7 +1652,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2026-02-14T09:50:57+00:00</t>
+          <t>2026-02-14T14:12:58+00:00</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1681,17 +1675,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Re-shop and Re-use</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>127</v>
+      </c>
+      <c r="G21" t="n">
+        <v>127</v>
+      </c>
+      <c r="H21" t="n">
+        <v>20</v>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2026-02-14T09:50:59+00:00</t>
+          <t>2026-02-14T14:13:00+00:00</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1736,18 +1736,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>€ 649</t>
+          <t>€ 998</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>649</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>1.04</v>
+      </c>
+      <c r="G22" t="n">
+        <v>998</v>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
@@ -1770,7 +1772,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:02+00:00</t>
+          <t>2026-02-14T14:13:03+00:00</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1793,7 +1795,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1802,9 +1804,11 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>649</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+        <v>1.04</v>
+      </c>
+      <c r="G23" t="n">
+        <v>998</v>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
@@ -1827,7 +1831,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:02+00:00</t>
+          <t>2026-02-14T14:13:03+00:00</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1855,15 +1859,13 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>€ 998</t>
+          <t>€ 1,119</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G24" t="n">
-        <v>998</v>
-      </c>
+        <v>1.11</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
@@ -1886,7 +1888,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:05+00:00</t>
+          <t>2026-02-14T14:13:03+00:00</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1918,11 +1920,9 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G25" t="n">
-        <v>998</v>
-      </c>
+        <v>1.11</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:05+00:00</t>
+          <t>2026-02-14T14:13:03+00:00</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1968,22 +1968,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>€ 1,119</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:05+00:00</t>
+          <t>2026-02-14T14:13:05+00:00</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -2025,18 +2025,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+        <v>449</v>
+      </c>
+      <c r="G27" t="n">
+        <v>599</v>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
@@ -2059,7 +2061,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:05+00:00</t>
+          <t>2026-02-14T14:13:07+00:00</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -2082,22 +2084,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -2116,7 +2118,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:07+00:00</t>
+          <t>2026-02-14T14:13:07+00:00</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2139,20 +2141,18 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>€ 1,299</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="G29" t="n">
-        <v>100</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:10+00:00</t>
+          <t>2026-02-14T14:13:07+00:00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2198,16 +2198,16 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>LG 55" OLED Evo AI C5 4K Smart TV | OLED55C54LA.AEK</t>
+          <t>€ 449</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>100</v>
+        <v>449</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:10+00:00</t>
+          <t>2026-02-14T14:13:07+00:00</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2255,16 +2255,16 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>449</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:10+00:00</t>
+          <t>2026-02-14T14:13:07+00:00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2312,16 +2312,16 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 649</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.29</v>
+        <v>649</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:10+00:00</t>
+          <t>2026-02-14T14:13:10+00:00</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2369,20 +2369,18 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>€ 1,799</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="G33" t="n">
-        <v>150</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
@@ -2405,7 +2403,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:10+00:00</t>
+          <t>2026-02-14T14:13:10+00:00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2433,13 +2431,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>LG 65" OLED Evo AI C5 4K Smart TV | OLED65C54LA.AEK</t>
+          <t>€ 1,299</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>150</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+        <v>1.29</v>
+      </c>
+      <c r="G34" t="n">
+        <v>100</v>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:10+00:00</t>
+          <t>2026-02-14T14:13:13+00:00</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2490,11 +2490,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>LG 55" OLED Evo AI C5 4K Smart TV | OLED55C54LA.AEK</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:10+00:00</t>
+          <t>2026-02-14T14:13:13+00:00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2547,11 +2547,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.79</v>
+        <v>100</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:10+00:00</t>
+          <t>2026-02-14T14:13:13+00:00</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2604,15 +2604,13 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>50</v>
-      </c>
-      <c r="G37" t="n">
-        <v>599</v>
-      </c>
+        <v>1.29</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
@@ -2635,7 +2633,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:10+00:00</t>
+          <t>2026-02-14T14:13:13+00:00</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2663,13 +2661,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>LG 55" QNED70 AI 4K Smart TV (2025) | 55QNED70A6A.AEK</t>
+          <t>€ 1,799</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>50</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
+        <v>1.79</v>
+      </c>
+      <c r="G38" t="n">
+        <v>150</v>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:10+00:00</t>
+          <t>2026-02-14T14:13:13+00:00</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>LG 65" OLED Evo AI C5 4K Smart TV | OLED65C54LA.AEK</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:10+00:00</t>
+          <t>2026-02-14T14:13:13+00:00</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2777,11 +2777,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>599</v>
+        <v>150</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:10+00:00</t>
+          <t>2026-02-14T14:13:13+00:00</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2829,20 +2829,18 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>449</v>
-      </c>
-      <c r="G41" t="n">
-        <v>599</v>
-      </c>
+        <v>1.79</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
@@ -2865,7 +2863,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:12+00:00</t>
+          <t>2026-02-14T14:13:13+00:00</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2888,7 +2886,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2897,9 +2895,11 @@
         </is>
       </c>
       <c r="F42" t="n">
+        <v>50</v>
+      </c>
+      <c r="G42" t="n">
         <v>599</v>
       </c>
-      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:12+00:00</t>
+          <t>2026-02-14T14:13:13+00:00</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2945,16 +2945,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>LG 55" QNED70 AI 4K Smart TV (2025) | 55QNED70A6A.AEK</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>599</v>
+        <v>50</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:12+00:00</t>
+          <t>2026-02-14T14:13:13+00:00</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3002,16 +3002,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>€ 449</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>449</v>
+        <v>50</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:12+00:00</t>
+          <t>2026-02-14T14:13:13+00:00</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>449</v>
+        <v>599</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:12+00:00</t>
+          <t>2026-02-14T14:13:13+00:00</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3116,24 +3116,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions.html</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>Current sales and promotions</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>499</v>
-      </c>
-      <c r="G46" t="n">
-        <v>599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -3152,7 +3150,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:15+00:00</t>
+          <t>2026-02-14T14:13:15+00:00</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3184,9 +3182,11 @@
         </is>
       </c>
       <c r="F47" t="n">
+        <v>499</v>
+      </c>
+      <c r="G47" t="n">
         <v>599</v>
       </c>
-      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:15+00:00</t>
+          <t>2026-02-14T14:13:18+00:00</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:15+00:00</t>
+          <t>2026-02-14T14:13:18+00:00</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3294,11 +3294,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>€ 499</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>499</v>
+        <v>599</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:15+00:00</t>
+          <t>2026-02-14T14:13:18+00:00</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 499</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:15+00:00</t>
+          <t>2026-02-14T14:13:18+00:00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3408,11 +3408,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>€ 1,999</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.99</v>
+        <v>499</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:15+00:00</t>
+          <t>2026-02-14T14:13:18+00:00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 1,999</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:15+00:00</t>
+          <t>2026-02-14T14:13:18+00:00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3522,11 +3522,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>€ 1,549</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.54</v>
+        <v>1.99</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:15+00:00</t>
+          <t>2026-02-14T14:13:18+00:00</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3574,22 +3574,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Current sales and promotions</t>
+          <t>€ 1,549</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2026-02-14T09:51:17+00:00</t>
+          <t>2026-02-14T14:13:18+00:00</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2026-02-14T09:55:00+00:00</t>
+          <t>2026-02-14T14:18:12+00:00</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2026-02-14T09:57:38+00:00</t>
+          <t>2026-02-14T14:21:25+00:00</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2026-02-14T09:58:09+00:00</t>
+          <t>2026-02-14T14:21:57+00:00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3809,10 +3809,10 @@
         </is>
       </c>
       <c r="F58" t="n">
+        <v>99</v>
+      </c>
+      <c r="G58" t="n">
         <v>289</v>
-      </c>
-      <c r="G58" t="n">
-        <v>459</v>
       </c>
       <c r="H58" t="n">
         <v>10</v>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2026-02-14T09:58:34+00:00</t>
+          <t>2026-02-14T14:22:23+00:00</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2026-02-14T09:58:34+00:00</t>
+          <t>2026-02-14T14:22:23+00:00</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2026-02-14T09:58:34+00:00</t>
+          <t>2026-02-14T14:22:23+00:00</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3980,14 +3980,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>€ 459</t>
+          <t>€ 99</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>459</v>
+        <v>99</v>
       </c>
       <c r="G61" t="n">
-        <v>479</v>
+        <v>149</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2026-02-14T09:58:34+00:00</t>
+          <t>2026-02-14T14:22:23+00:00</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>459</v>
+        <v>99</v>
       </c>
       <c r="G62" t="n">
-        <v>479</v>
+        <v>149</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2026-02-14T09:58:34+00:00</t>
+          <t>2026-02-14T14:22:23+00:00</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4098,14 +4098,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>€ 99</t>
+          <t>€ 34.95</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>99</v>
+        <v>34.95</v>
       </c>
       <c r="G63" t="n">
-        <v>149</v>
+        <v>39.95</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2026-02-14T09:58:34+00:00</t>
+          <t>2026-02-14T14:22:23+00:00</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4161,10 +4161,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>99</v>
+        <v>34.95</v>
       </c>
       <c r="G64" t="n">
-        <v>149</v>
+        <v>39.95</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2026-02-14T09:58:34+00:00</t>
+          <t>2026-02-14T14:22:23+00:00</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4216,14 +4216,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>€ 34.95</t>
+          <t>€ 829</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>34.95</v>
+        <v>829</v>
       </c>
       <c r="G65" t="n">
-        <v>39.95</v>
+        <v>929</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2026-02-14T09:58:34+00:00</t>
+          <t>2026-02-14T14:22:23+00:00</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:01+00:00</t>
+          <t>2026-02-14T14:23:55+00:00</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4331,19 +4331,19 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-her</t>
+          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Cable Knit Crew Neck Aran Wool Sweater</t>
+          <t>Ladies Boston Wool Felt Hat</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>66.95</v>
+        <v>79.95</v>
       </c>
       <c r="G67" t="n">
-        <v>66.95</v>
+        <v>79.95</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:20+00:00</t>
+          <t>2026-02-14T14:24:14+00:00</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4390,20 +4390,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
+          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Wool and Cashmere Throw</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>279</v>
-      </c>
-      <c r="G68" t="n">
-        <v>279</v>
-      </c>
+          <t>Express Shipping Offer</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
@@ -4426,7 +4422,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:21+00:00</t>
+          <t>2026-02-14T14:24:16+00:00</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4483,7 +4479,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:23+00:00</t>
+          <t>2026-02-14T14:24:17+00:00</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4506,19 +4502,19 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
+          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Baby Shepley Aran Headband</t>
+          <t>Wool and Cashmere Throw</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>24.95</v>
+        <v>279</v>
       </c>
       <c r="G70" t="n">
-        <v>24.95</v>
+        <v>279</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
@@ -4542,7 +4538,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:25+00:00</t>
+          <t>2026-02-14T14:24:18+00:00</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4565,19 +4561,19 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
+          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Ladies Boston Wool Felt Hat</t>
+          <t>Baby Shepley Aran Headband</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>79.95</v>
+        <v>24.95</v>
       </c>
       <c r="G71" t="n">
-        <v>79.95</v>
+        <v>24.95</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
@@ -4601,7 +4597,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:26+00:00</t>
+          <t>2026-02-14T14:24:20+00:00</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4624,17 +4620,23 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
+          <t>https://weaversofireland.com/collections/outlet-for-him</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Express Shipping Offer</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
+          <t>Alpaca Scarf - Grey Herringbone</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>69.95</v>
+      </c>
+      <c r="G72" t="n">
+        <v>69.95</v>
+      </c>
+      <c r="H72" t="n">
+        <v>22</v>
+      </c>
       <c r="I72" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -4656,7 +4658,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:28+00:00</t>
+          <t>2026-02-14T14:24:22+00:00</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4679,19 +4681,19 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet</t>
+          <t>https://weaversofireland.com/collections/outlet-for-her</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ladies Wool Peaky Blinders Hat</t>
+          <t>Cable Knit Crew Neck Aran Wool Sweater</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>49.95</v>
+        <v>66.95</v>
       </c>
       <c r="G73" t="n">
-        <v>49.95</v>
+        <v>66.95</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
@@ -4715,7 +4717,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:30+00:00</t>
+          <t>2026-02-14T14:24:25+00:00</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4738,23 +4740,21 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-him</t>
+          <t>https://weaversofireland.com/collections/outlet</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Alpaca Scarf - Grey Herringbone</t>
+          <t>Ladies Wool Peaky Blinders Hat</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>69.95</v>
+        <v>49.95</v>
       </c>
       <c r="G74" t="n">
-        <v>69.95</v>
-      </c>
-      <c r="H74" t="n">
-        <v>22</v>
-      </c>
+        <v>49.95</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:32+00:00</t>
+          <t>2026-02-14T14:24:27+00:00</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4799,19 +4799,19 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ÅBÄCKEN Mist nozzle for mixer tap</t>
+          <t>SOLHETTA LED bulb E27 470 lumen</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:34+00:00</t>
+          <t>2026-02-14T14:24:29+00:00</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4858,19 +4858,19 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>DALSKÄR Wash-basin mixer tap</t>
+          <t>SOLHETTA LED bulb E27 806 lumen</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="G76" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
@@ -4894,7 +4894,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:34+00:00</t>
+          <t>2026-02-14T14:24:29+00:00</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4917,23 +4917,21 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>LILLHAVET Washing-up bowl</t>
+          <t>DIRIGERA Hub for smart products</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="G77" t="n">
-        <v>6</v>
-      </c>
-      <c r="H77" t="n">
-        <v>50</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -4955,7 +4953,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:34+00:00</t>
+          <t>2026-02-14T14:24:29+00:00</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4978,19 +4976,19 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>IKEA PS 2002 Watering can, 1.2 l</t>
+          <t>TILLREDA Portable induction hob</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
@@ -5014,7 +5012,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:34+00:00</t>
+          <t>2026-02-14T14:24:29+00:00</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -5037,19 +5035,19 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SOLHETTA LED bulb E27 470 lumen</t>
+          <t>ÅBÄCKEN Mist nozzle for mixer tap</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
@@ -5073,7 +5071,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:36+00:00</t>
+          <t>2026-02-14T14:24:31+00:00</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -5096,19 +5094,19 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SOLHETTA LED bulb E27 806 lumen</t>
+          <t>DALSKÄR Wash-basin mixer tap</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
@@ -5132,7 +5130,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:36+00:00</t>
+          <t>2026-02-14T14:24:31+00:00</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -5155,21 +5153,23 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>DIRIGERA Hub for smart products</t>
+          <t>LILLHAVET Washing-up bowl</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="G81" t="n">
-        <v>65</v>
-      </c>
-      <c r="H81" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H81" t="n">
+        <v>50</v>
+      </c>
       <c r="I81" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:36+00:00</t>
+          <t>2026-02-14T14:24:31+00:00</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -5214,19 +5214,19 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TILLREDA Portable induction hob</t>
+          <t>IKEA PS 2002 Watering can, 1.2 l</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:36+00:00</t>
+          <t>2026-02-14T14:24:31+00:00</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -5273,21 +5273,23 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>€ 59.95</t>
+          <t>€ 29.95</t>
         </is>
       </c>
       <c r="F83" t="n">
         <v>29.95</v>
       </c>
       <c r="G83" t="n">
-        <v>59.95</v>
-      </c>
-      <c r="H83" t="inlineStr"/>
+        <v>29.95</v>
+      </c>
+      <c r="H83" t="n">
+        <v>115</v>
+      </c>
       <c r="I83" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5309,7 +5311,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:38+00:00</t>
+          <t>2026-02-14T14:24:34+00:00</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -5332,16 +5334,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>€ 59.95</t>
+          <t>€ 29.95</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>59.95</v>
+        <v>29.95</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
@@ -5366,7 +5368,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:38+00:00</t>
+          <t>2026-02-14T14:24:34+00:00</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
@@ -5389,16 +5391,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Add to compare list</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>59.95</v>
+        <v>29.95</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
@@ -5423,7 +5425,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:38+00:00</t>
+          <t>2026-02-14T14:24:34+00:00</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
@@ -5446,20 +5448,18 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>€ 29.95</t>
+          <t>€ 69.95</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>29.95</v>
-      </c>
-      <c r="G86" t="n">
-        <v>39.95</v>
-      </c>
+        <v>69.95</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:38+00:00</t>
+          <t>2026-02-14T14:24:34+00:00</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
@@ -5505,20 +5505,18 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Add to compare list</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>29.95</v>
-      </c>
-      <c r="G87" t="n">
-        <v>39.95</v>
-      </c>
+        <v>69.95</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
@@ -5541,7 +5539,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:38+00:00</t>
+          <t>2026-02-14T14:24:34+00:00</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -5564,20 +5562,18 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>€ 54.95</t>
+          <t>€ 59.95</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="G88" t="n">
-        <v>65.95</v>
-      </c>
+        <v>59.95</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
@@ -5600,7 +5596,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:38+00:00</t>
+          <t>2026-02-14T14:24:34+00:00</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
@@ -5623,20 +5619,18 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Add to compare list</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="G89" t="n">
-        <v>65.95</v>
-      </c>
+        <v>59.95</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
@@ -5659,7 +5653,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:38+00:00</t>
+          <t>2026-02-14T14:24:34+00:00</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -5682,21 +5676,23 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
+          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>€ 799</t>
+          <t>€ 249</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>799</v>
+        <v>249</v>
       </c>
       <c r="G90" t="n">
-        <v>849</v>
-      </c>
-      <c r="H90" t="inlineStr"/>
+        <v>549</v>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
       <c r="I90" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5718,7 +5714,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:38+00:00</t>
+          <t>2026-02-14T14:24:37+00:00</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
@@ -5741,26 +5737,24 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/5-day-mattress-sale.html</t>
+          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>€ 249</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="n">
-        <v>500</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J91" t="b">
@@ -5779,7 +5773,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:40+00:00</t>
+          <t>2026-02-14T14:24:37+00:00</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
@@ -5807,15 +5801,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>€ 249</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>249</v>
-      </c>
-      <c r="G92" t="n">
-        <v>549</v>
-      </c>
+          <t>Dyson Supersonic Origin Hair Dryer | 107833-01 | Nickel/Copper</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
         <v>10</v>
       </c>
@@ -5840,7 +5830,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:43+00:00</t>
+          <t>2026-02-14T14:24:37+00:00</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
@@ -5868,12 +5858,10 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>€ 249</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>249</v>
-      </c>
+          <t>Search Suggestions</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
         <v>10</v>
@@ -5899,7 +5887,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:43+00:00</t>
+          <t>2026-02-14T14:24:37+00:00</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
@@ -5927,14 +5915,14 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Dyson Supersonic Origin Hair Dryer | 107833-01 | Nickel/Copper</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
+          <t>FIND IN STORE</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>249</v>
+      </c>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="n">
-        <v>10</v>
-      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5956,7 +5944,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:43+00:00</t>
+          <t>2026-02-14T14:24:37+00:00</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
@@ -5984,10 +5972,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
+          <t>€ 549</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>549</v>
+      </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
         <v>10</v>
@@ -6013,7 +6003,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:43+00:00</t>
+          <t>2026-02-14T14:24:37+00:00</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
@@ -6041,14 +6031,14 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>249</v>
-      </c>
+          <t>Dyson Airwrap ID Multi-Styler and Dryer Straight+Wavy | 601857-01 | Ceramic Pink/Rose Gold</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
       <c r="I96" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6070,7 +6060,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:43+00:00</t>
+          <t>2026-02-14T14:24:37+00:00</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
@@ -6098,16 +6088,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>€ 549</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F97" t="n">
         <v>549</v>
       </c>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="n">
-        <v>10</v>
-      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6129,7 +6117,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:43+00:00</t>
+          <t>2026-02-14T14:24:37+00:00</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
@@ -6157,10 +6145,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Dyson Airwrap ID Multi-Styler and Dryer Straight+Wavy | 601857-01 | Ceramic Pink/Rose Gold</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr"/>
+          <t>€ 499</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>499</v>
+      </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
         <v>10</v>
@@ -6186,7 +6176,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:43+00:00</t>
+          <t>2026-02-14T14:24:37+00:00</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
@@ -6214,14 +6204,14 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>549</v>
-      </c>
+          <t>Dyson Airstrait Dryer and Straightener | 598961-01 | Ceramic Pink/Rose Gold</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
       <c r="I99" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6243,7 +6233,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:43+00:00</t>
+          <t>2026-02-14T14:24:37+00:00</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
@@ -6271,16 +6261,14 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>€ 499</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F100" t="n">
         <v>499</v>
       </c>
       <c r="G100" t="inlineStr"/>
-      <c r="H100" t="n">
-        <v>10</v>
-      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6302,7 +6290,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:43+00:00</t>
+          <t>2026-02-14T14:24:37+00:00</t>
         </is>
       </c>
       <c r="O100" t="inlineStr"/>
@@ -6330,10 +6318,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Dyson Airstrait Dryer and Straightener | 598961-01 | Ceramic Pink/Rose Gold</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
+          <t>€ 449</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>449</v>
+      </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
         <v>10</v>
@@ -6359,7 +6349,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:43+00:00</t>
+          <t>2026-02-14T14:24:37+00:00</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
@@ -6382,18 +6372,20 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
+          <t>https://www.harveynorman.ie/clearance/furniture-clearance/outdoor-clearance/</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 699</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>499</v>
-      </c>
-      <c r="G102" t="inlineStr"/>
+        <v>699</v>
+      </c>
+      <c r="G102" t="n">
+        <v>949</v>
+      </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
@@ -6416,7 +6408,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:43+00:00</t>
+          <t>2026-02-14T14:24:39+00:00</t>
         </is>
       </c>
       <c r="O102" t="inlineStr"/>
@@ -6439,21 +6431,19 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
+          <t>https://www.harveynorman.ie/clearance/furniture-clearance/outdoor-clearance/</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>€ 449</t>
+          <t>Malta Outdoor Lounge Set | 4 Piece</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>449</v>
+        <v>949</v>
       </c>
       <c r="G103" t="inlineStr"/>
-      <c r="H103" t="n">
-        <v>10</v>
-      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6475,7 +6465,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:43+00:00</t>
+          <t>2026-02-14T14:24:39+00:00</t>
         </is>
       </c>
       <c r="O103" t="inlineStr"/>
@@ -6483,38 +6473,36 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/clearance/furniture-clearance/outdoor-clearance/</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="G104" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="H104" t="n">
-        <v>15</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6525,18 +6513,18 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M104" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:45+00:00</t>
+          <t>2026-02-14T14:24:39+00:00</t>
         </is>
       </c>
       <c r="O104" t="inlineStr"/>
@@ -6544,34 +6532,34 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/clearance/furniture-clearance/outdoor-clearance/</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>€ 799</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.25</v>
+        <v>799</v>
       </c>
       <c r="G105" t="n">
-        <v>3.29</v>
+        <v>899</v>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
@@ -6584,18 +6572,18 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M105" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:45+00:00</t>
+          <t>2026-02-14T14:24:39+00:00</t>
         </is>
       </c>
       <c r="O105" t="inlineStr"/>
@@ -6603,35 +6591,33 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/clearance/furniture-clearance/outdoor-clearance/</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Honolulu Outdoor Dining Set | 7 Piece | Grey</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G106" t="n">
-        <v>3.29</v>
-      </c>
+        <v>899</v>
+      </c>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
@@ -6643,18 +6629,18 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M106" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:45+00:00</t>
+          <t>2026-02-14T14:24:39+00:00</t>
         </is>
       </c>
       <c r="O106" t="inlineStr"/>
@@ -6662,33 +6648,35 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/clearance/furniture-clearance/outdoor-clearance/</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Damiani Round Brilliant Three Stone Diamond Ring 0.66ct</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G107" t="inlineStr"/>
+        <v>2.69</v>
+      </c>
+      <c r="G107" t="n">
+        <v>799</v>
+      </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
@@ -6700,18 +6688,18 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M107" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:45+00:00</t>
+          <t>2026-02-14T14:24:39+00:00</t>
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
@@ -6719,34 +6707,36 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/clearance/furniture-clearance/outdoor-clearance/</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Guarantee &amp; Service</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="n">
-        <v>15</v>
-      </c>
+          <t>€ 60</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>60</v>
+      </c>
+      <c r="G108" t="n">
+        <v>99</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6757,18 +6747,18 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M108" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:45+00:00</t>
+          <t>2026-02-14T14:24:39+00:00</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
@@ -6776,41 +6766,37 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
+          <t>https://www.harveynorman.ie/clearance/furniture-clearance/outdoor-clearance/</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+          <t>AeroCover Willow Lounge Set Cover | 305 x 190 x 85cm</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G109" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H109" t="n">
-        <v>31</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J109" t="b">
@@ -6818,18 +6804,18 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M109" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:47+00:00</t>
+          <t>2026-02-14T14:24:39+00:00</t>
         </is>
       </c>
       <c r="O109" t="inlineStr"/>
@@ -6837,38 +6823,36 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://www.harveynorman.ie/clearance/furniture-clearance/outdoor-clearance/</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>3.49</v>
+        <v>60</v>
       </c>
       <c r="G110" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H110" t="n">
-        <v>15</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6879,18 +6863,18 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M110" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:49+00:00</t>
+          <t>2026-02-14T14:24:39+00:00</t>
         </is>
       </c>
       <c r="O110" t="inlineStr"/>
@@ -6913,12 +6897,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/black-friday-picks</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -6927,10 +6911,12 @@
       <c r="G111" t="n">
         <v>4.99</v>
       </c>
-      <c r="H111" t="inlineStr"/>
+      <c r="H111" t="n">
+        <v>31</v>
+      </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J111" t="b">
@@ -6949,7 +6935,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:49+00:00</t>
+          <t>2026-02-14T14:24:42+00:00</t>
         </is>
       </c>
       <c r="O111" t="inlineStr"/>
@@ -6972,12 +6958,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -6986,10 +6972,12 @@
       <c r="G112" t="n">
         <v>4.99</v>
       </c>
-      <c r="H112" t="inlineStr"/>
+      <c r="H112" t="n">
+        <v>31</v>
+      </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J112" t="b">
@@ -7008,7 +6996,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:49+00:00</t>
+          <t>2026-02-14T14:24:43+00:00</t>
         </is>
       </c>
       <c r="O112" t="inlineStr"/>
@@ -7031,19 +7019,23 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
+        <v>13.25</v>
+      </c>
+      <c r="G113" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="H113" t="n">
+        <v>15</v>
+      </c>
       <c r="I113" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -7065,7 +7057,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:49+00:00</t>
+          <t>2026-02-14T14:24:45+00:00</t>
         </is>
       </c>
       <c r="O113" t="inlineStr"/>
@@ -7088,19 +7080,21 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Guarantee &amp; Service</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="n">
-        <v>15</v>
-      </c>
+          <t>Skip to product information</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="G114" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -7122,7 +7116,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:49+00:00</t>
+          <t>2026-02-14T14:24:45+00:00</t>
         </is>
       </c>
       <c r="O114" t="inlineStr"/>
@@ -7145,23 +7139,21 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.39</v>
+        <v>13.25</v>
       </c>
       <c r="G115" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H115" t="n">
-        <v>15</v>
-      </c>
+        <v>18.29</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -7183,7 +7175,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:50+00:00</t>
+          <t>2026-02-14T14:24:45+00:00</t>
         </is>
       </c>
       <c r="O115" t="inlineStr"/>
@@ -7206,20 +7198,18 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>Oval Yellow Diamond Solitiatire Diamond Set Shoulders 1.16ct</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G116" t="n">
-        <v>1.59</v>
-      </c>
+        <v>13.25</v>
+      </c>
+      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
@@ -7242,7 +7232,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:50+00:00</t>
+          <t>2026-02-14T14:24:45+00:00</t>
         </is>
       </c>
       <c r="O116" t="inlineStr"/>
@@ -7270,7 +7260,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -7279,7 +7269,9 @@
       <c r="G117" t="n">
         <v>1.59</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>15</v>
+      </c>
       <c r="I117" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -7301,7 +7293,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:50+00:00</t>
+          <t>2026-02-14T14:24:46+00:00</t>
         </is>
       </c>
       <c r="O117" t="inlineStr"/>
@@ -7329,13 +7321,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Rocks Diamond &amp; Gemstone Floral Necklace</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F118" t="n">
         <v>1.39</v>
       </c>
-      <c r="G118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>1.59</v>
+      </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
@@ -7358,7 +7352,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:50+00:00</t>
+          <t>2026-02-14T14:24:46+00:00</t>
         </is>
       </c>
       <c r="O118" t="inlineStr"/>
@@ -7381,26 +7375,24 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/black-friday-picks</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>3.49</v>
+        <v>1.39</v>
       </c>
       <c r="G119" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H119" t="n">
-        <v>31</v>
-      </c>
+        <v>1.59</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J119" t="b">
@@ -7419,7 +7411,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:52+00:00</t>
+          <t>2026-02-14T14:24:46+00:00</t>
         </is>
       </c>
       <c r="O119" t="inlineStr"/>
@@ -7442,23 +7434,19 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
+          <t>Rocks Diamond &amp; Gemstone Floral Necklace</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="G120" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="H120" t="n">
-        <v>15</v>
-      </c>
+        <v>1.39</v>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -7480,7 +7468,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:54+00:00</t>
+          <t>2026-02-14T14:24:46+00:00</t>
         </is>
       </c>
       <c r="O120" t="inlineStr"/>
@@ -7503,21 +7491,23 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>13.25</v>
+        <v>3.49</v>
       </c>
       <c r="G121" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="H121" t="inlineStr"/>
+        <v>4.99</v>
+      </c>
+      <c r="H121" t="n">
+        <v>15</v>
+      </c>
       <c r="I121" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -7539,7 +7529,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:54+00:00</t>
+          <t>2026-02-14T14:24:48+00:00</t>
         </is>
       </c>
       <c r="O121" t="inlineStr"/>
@@ -7562,19 +7552,19 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>13.25</v>
+        <v>3.49</v>
       </c>
       <c r="G122" t="n">
-        <v>18.29</v>
+        <v>4.99</v>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
@@ -7598,7 +7588,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:54+00:00</t>
+          <t>2026-02-14T14:24:48+00:00</t>
         </is>
       </c>
       <c r="O122" t="inlineStr"/>
@@ -7621,18 +7611,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Oval Yellow Diamond Solitiatire Diamond Set Shoulders 1.16ct</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="G123" t="inlineStr"/>
+        <v>3.49</v>
+      </c>
+      <c r="G123" t="n">
+        <v>4.99</v>
+      </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
@@ -7655,7 +7647,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:54+00:00</t>
+          <t>2026-02-14T14:24:48+00:00</t>
         </is>
       </c>
       <c r="O123" t="inlineStr"/>
@@ -7663,35 +7655,37 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SISU Clinic</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>perfumes/beauty</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>www.sisuclinic.com</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Explore our latest Blogs</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr"/>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>3.49</v>
+      </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J124" t="b">
@@ -7699,18 +7693,18 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>3, Fields Terrace, Dublin</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>53.3252812</v>
+        <v>53.2898373</v>
       </c>
       <c r="M124" t="n">
-        <v>-6.2554094</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2026-02-14T10:00:55+00:00</t>
+          <t>2026-02-14T14:24:48+00:00</t>
         </is>
       </c>
       <c r="O124" t="inlineStr"/>
@@ -7718,57 +7712,462 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SISU Clinic</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>perfumes/beauty</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>www.sisuclinic.com</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Explore our latest Blogs</t>
+          <t>Guarantee &amp; Service</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
+      <c r="H125" t="n">
+        <v>15</v>
+      </c>
       <c r="I125" t="inlineStr">
         <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J125" t="b">
+        <v>1</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>2026-02-14T14:24:48+00:00</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Talk to a Diamond Expert</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G126" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="H126" t="n">
+        <v>15</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J126" t="b">
+        <v>1</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M126" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>2026-02-14T14:24:49+00:00</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Skip to product information</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G127" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J127" t="b">
+        <v>1</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M127" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>2026-02-14T14:24:49+00:00</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G128" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J128" t="b">
+        <v>1</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>2026-02-14T14:24:49+00:00</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Damiani Round Brilliant Three Stone Diamond Ring 0.66ct</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J129" t="b">
+        <v>1</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M129" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>2026-02-14T14:24:49+00:00</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Guarantee &amp; Service</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="n">
+        <v>15</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J130" t="b">
+        <v>1</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M130" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>2026-02-14T14:24:49+00:00</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>SISU Clinic</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>perfumes/beauty</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>www.sisuclinic.com</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Explore our latest Blogs</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
           <t>MEDIUM</t>
         </is>
       </c>
-      <c r="J125" t="b">
-        <v>1</v>
-      </c>
-      <c r="K125" t="inlineStr">
+      <c r="J131" t="b">
+        <v>1</v>
+      </c>
+      <c r="K131" t="inlineStr">
         <is>
           <t>3, Fields Terrace, Dublin</t>
         </is>
       </c>
-      <c r="L125" t="n">
+      <c r="L131" t="n">
         <v>53.3252812</v>
       </c>
-      <c r="M125" t="n">
+      <c r="M131" t="n">
         <v>-6.2554094</v>
       </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>2026-02-14T10:00:56+00:00</t>
-        </is>
-      </c>
-      <c r="O125" t="inlineStr"/>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>2026-02-14T14:24:51+00:00</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>SISU Clinic</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>perfumes/beauty</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>www.sisuclinic.com</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Explore our latest Blogs</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="J132" t="b">
+        <v>1</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>3, Fields Terrace, Dublin</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>53.3252812</v>
+      </c>
+      <c r="M132" t="n">
+        <v>-6.2554094</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>2026-02-14T14:24:52+00:00</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/deals.xlsx
+++ b/deals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O132"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2026-02-14T14:11:55+00:00</t>
+          <t>2026-02-15T09:51:45+00:00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -621,7 +621,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2026-02-14T14:12:02+00:00</t>
+          <t>2026-02-15T09:51:50+00:00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -682,7 +682,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2026-02-14T14:12:02+00:00</t>
+          <t>2026-02-15T09:51:50+00:00</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -743,7 +743,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2026-02-14T14:12:02+00:00</t>
+          <t>2026-02-15T09:51:50+00:00</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -804,7 +804,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2026-02-14T14:12:02+00:00</t>
+          <t>2026-02-15T09:51:50+00:00</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2026-02-14T14:12:39+00:00</t>
+          <t>2026-02-15T09:52:30+00:00</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -888,17 +888,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Re-shop and Re-use</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>127</v>
+      </c>
+      <c r="G8" t="n">
+        <v>127</v>
+      </c>
+      <c r="H8" t="n">
+        <v>20</v>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -920,7 +926,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2026-02-14T14:12:46+00:00</t>
+          <t>2026-02-15T09:52:38+00:00</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -943,7 +949,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10779</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -981,7 +987,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2026-02-14T14:12:49+00:00</t>
+          <t>2026-02-15T09:52:39+00:00</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1004,12 +1010,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, Standard King</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1042,7 +1048,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2026-02-14T14:12:51+00:00</t>
+          <t>2026-02-15T09:52:41+00:00</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1065,22 +1071,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, Standard King</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="G11" t="n">
-        <v>25.5</v>
+        <v>127</v>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1103,7 +1109,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2026-02-14T14:12:51+00:00</t>
+          <t>2026-02-15T09:52:42+00:00</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1126,22 +1132,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>25.5</v>
       </c>
       <c r="H12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1164,7 +1170,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2026-02-14T14:12:51+00:00</t>
+          <t>2026-02-15T09:52:42+00:00</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1187,22 +1193,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
+          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>29.75</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1225,7 +1231,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2026-02-14T14:12:51+00:00</t>
+          <t>2026-02-15T09:52:42+00:00</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1248,22 +1254,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="G14" t="n">
-        <v>127</v>
+        <v>29.75</v>
       </c>
       <c r="H14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1286,7 +1292,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2026-02-14T14:12:52+00:00</t>
+          <t>2026-02-15T09:52:42+00:00</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1309,7 +1315,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10779</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1347,7 +1353,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2026-02-14T14:12:54+00:00</t>
+          <t>2026-02-15T09:52:44+00:00</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1370,23 +1376,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
+          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>127</v>
-      </c>
-      <c r="G16" t="n">
-        <v>127</v>
-      </c>
-      <c r="H16" t="n">
-        <v>20</v>
-      </c>
+          <t>Re-shop and Re-use</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2026-02-14T14:12:56+00:00</t>
+          <t>2026-02-15T09:52:46+00:00</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1431,12 +1431,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, Standard King</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2026-02-14T14:12:58+00:00</t>
+          <t>2026-02-15T09:52:47+00:00</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1492,22 +1492,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, Standard King</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="G18" t="n">
-        <v>25.5</v>
+        <v>127</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2026-02-14T14:12:58+00:00</t>
+          <t>2026-02-15T09:52:48+00:00</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1553,22 +1553,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G19" t="n">
-        <v>8</v>
+        <v>25.5</v>
       </c>
       <c r="H19" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2026-02-14T14:12:58+00:00</t>
+          <t>2026-02-15T09:52:48+00:00</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1614,22 +1614,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
+          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>29.75</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2026-02-14T14:12:58+00:00</t>
+          <t>2026-02-15T09:52:48+00:00</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1675,22 +1675,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="G21" t="n">
-        <v>127</v>
+        <v>29.75</v>
       </c>
       <c r="H21" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:00+00:00</t>
+          <t>2026-02-15T09:52:48+00:00</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:03+00:00</t>
+          <t>2026-02-15T09:52:52+00:00</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:03+00:00</t>
+          <t>2026-02-15T09:52:52+00:00</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:03+00:00</t>
+          <t>2026-02-15T09:52:52+00:00</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:03+00:00</t>
+          <t>2026-02-15T09:52:52+00:00</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1968,22 +1968,24 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="G26" t="n">
+        <v>599</v>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -2002,7 +2004,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:05+00:00</t>
+          <t>2026-02-15T09:52:55+00:00</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -2025,7 +2027,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2034,11 +2036,9 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>449</v>
-      </c>
-      <c r="G27" t="n">
         <v>599</v>
       </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:07+00:00</t>
+          <t>2026-02-15T09:52:55+00:00</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -2084,12 +2084,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:07+00:00</t>
+          <t>2026-02-15T09:52:55+00:00</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2141,16 +2141,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 499</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>599</v>
+        <v>499</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:07+00:00</t>
+          <t>2026-02-15T09:52:55+00:00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2198,16 +2198,16 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>€ 449</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:07+00:00</t>
+          <t>2026-02-15T09:52:55+00:00</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2255,16 +2255,16 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 1,999</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>449</v>
+        <v>1.99</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:07+00:00</t>
+          <t>2026-02-15T09:52:55+00:00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2312,16 +2312,16 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>€ 649</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>649</v>
+        <v>1.99</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:10+00:00</t>
+          <t>2026-02-15T09:52:55+00:00</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2369,16 +2369,16 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 1,549</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>649</v>
+        <v>1.54</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:10+00:00</t>
+          <t>2026-02-15T09:52:55+00:00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:13+00:00</t>
+          <t>2026-02-15T09:52:58+00:00</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:13+00:00</t>
+          <t>2026-02-15T09:52:58+00:00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:13+00:00</t>
+          <t>2026-02-15T09:52:58+00:00</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:13+00:00</t>
+          <t>2026-02-15T09:52:58+00:00</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:13+00:00</t>
+          <t>2026-02-15T09:52:58+00:00</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:13+00:00</t>
+          <t>2026-02-15T09:52:58+00:00</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:13+00:00</t>
+          <t>2026-02-15T09:52:58+00:00</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:13+00:00</t>
+          <t>2026-02-15T09:52:58+00:00</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:13+00:00</t>
+          <t>2026-02-15T09:52:58+00:00</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:13+00:00</t>
+          <t>2026-02-15T09:52:58+00:00</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:13+00:00</t>
+          <t>2026-02-15T09:52:58+00:00</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:13+00:00</t>
+          <t>2026-02-15T09:52:58+00:00</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:15+00:00</t>
+          <t>2026-02-15T09:53:00+00:00</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3173,24 +3173,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>499</v>
-      </c>
-      <c r="G47" t="n">
-        <v>599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -3209,7 +3207,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:18+00:00</t>
+          <t>2026-02-15T09:53:03+00:00</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3232,7 +3230,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3241,9 +3239,11 @@
         </is>
       </c>
       <c r="F48" t="n">
+        <v>449</v>
+      </c>
+      <c r="G48" t="n">
         <v>599</v>
       </c>
-      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:18+00:00</t>
+          <t>2026-02-15T09:53:06+00:00</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3289,12 +3289,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:18+00:00</t>
+          <t>2026-02-15T09:53:06+00:00</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3346,16 +3346,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>€ 499</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>499</v>
+        <v>599</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:18+00:00</t>
+          <t>2026-02-15T09:53:06+00:00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3403,16 +3403,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 449</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>499</v>
+        <v>449</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:18+00:00</t>
+          <t>2026-02-15T09:53:06+00:00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3460,16 +3460,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>€ 1,999</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.99</v>
+        <v>449</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:18+00:00</t>
+          <t>2026-02-15T09:53:06+00:00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3517,16 +3517,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 649</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.99</v>
+        <v>649</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:18+00:00</t>
+          <t>2026-02-15T09:53:09+00:00</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3574,16 +3574,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>€ 1,549</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.54</v>
+        <v>649</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2026-02-14T14:13:18+00:00</t>
+          <t>2026-02-15T09:53:09+00:00</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2026-02-14T14:18:12+00:00</t>
+          <t>2026-02-15T09:57:05+00:00</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2026-02-14T14:21:25+00:00</t>
+          <t>2026-02-15T09:59:43+00:00</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2026-02-14T14:21:57+00:00</t>
+          <t>2026-02-15T10:00:15+00:00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2026-02-14T14:22:23+00:00</t>
+          <t>2026-02-15T10:00:43+00:00</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2026-02-14T14:22:23+00:00</t>
+          <t>2026-02-15T10:00:43+00:00</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2026-02-14T14:22:23+00:00</t>
+          <t>2026-02-15T10:00:43+00:00</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2026-02-14T14:22:23+00:00</t>
+          <t>2026-02-15T10:00:43+00:00</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2026-02-14T14:22:23+00:00</t>
+          <t>2026-02-15T10:00:43+00:00</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4098,14 +4098,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>€ 34.95</t>
+          <t>€ 829</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>34.95</v>
+        <v>829</v>
       </c>
       <c r="G63" t="n">
-        <v>39.95</v>
+        <v>929</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2026-02-14T14:22:23+00:00</t>
+          <t>2026-02-15T10:00:43+00:00</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4161,10 +4161,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>34.95</v>
+        <v>829</v>
       </c>
       <c r="G64" t="n">
-        <v>39.95</v>
+        <v>929</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2026-02-14T14:22:23+00:00</t>
+          <t>2026-02-15T10:00:43+00:00</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4216,14 +4216,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>€ 829</t>
+          <t>€ 449</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>829</v>
+        <v>449</v>
       </c>
       <c r="G65" t="n">
-        <v>929</v>
+        <v>499</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2026-02-14T14:22:23+00:00</t>
+          <t>2026-02-15T10:00:43+00:00</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2026-02-14T14:23:55+00:00</t>
+          <t>2026-02-15T10:02:25+00:00</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4331,19 +4331,19 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
+          <t>https://weaversofireland.com/collections/outlet-for-her</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ladies Boston Wool Felt Hat</t>
+          <t>Cable Knit Crew Neck Aran Wool Sweater</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>79.95</v>
+        <v>66.95</v>
       </c>
       <c r="G67" t="n">
-        <v>79.95</v>
+        <v>66.95</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:14+00:00</t>
+          <t>2026-02-15T10:02:45+00:00</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:16+00:00</t>
+          <t>2026-02-15T10:02:46+00:00</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:17+00:00</t>
+          <t>2026-02-15T10:02:48+00:00</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:18+00:00</t>
+          <t>2026-02-15T10:02:49+00:00</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4561,21 +4561,23 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
+          <t>https://weaversofireland.com/collections/outlet-for-him</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Baby Shepley Aran Headband</t>
+          <t>Alpaca Scarf - Grey Herringbone</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>24.95</v>
+        <v>69.95</v>
       </c>
       <c r="G71" t="n">
-        <v>24.95</v>
-      </c>
-      <c r="H71" t="inlineStr"/>
+        <v>69.95</v>
+      </c>
+      <c r="H71" t="n">
+        <v>22</v>
+      </c>
       <c r="I71" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -4597,7 +4599,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:20+00:00</t>
+          <t>2026-02-15T10:02:51+00:00</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4620,23 +4622,21 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-him</t>
+          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Alpaca Scarf - Grey Herringbone</t>
+          <t>Ladies Boston Wool Felt Hat</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>69.95</v>
+        <v>79.95</v>
       </c>
       <c r="G72" t="n">
-        <v>69.95</v>
-      </c>
-      <c r="H72" t="n">
-        <v>22</v>
-      </c>
+        <v>79.95</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:22+00:00</t>
+          <t>2026-02-15T10:02:53+00:00</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4681,19 +4681,19 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-her</t>
+          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Cable Knit Crew Neck Aran Wool Sweater</t>
+          <t>Baby Shepley Aran Headband</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>66.95</v>
+        <v>24.95</v>
       </c>
       <c r="G73" t="n">
-        <v>66.95</v>
+        <v>24.95</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:25+00:00</t>
+          <t>2026-02-15T10:02:55+00:00</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:27+00:00</t>
+          <t>2026-02-15T10:02:57+00:00</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:29+00:00</t>
+          <t>2026-02-15T10:03:00+00:00</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:29+00:00</t>
+          <t>2026-02-15T10:03:00+00:00</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:29+00:00</t>
+          <t>2026-02-15T10:03:00+00:00</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -5012,7 +5012,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:29+00:00</t>
+          <t>2026-02-15T10:03:00+00:00</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -5035,20 +5035,16 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
+          <t>https://www.ikea.com/ie/en/food/salesareas/restaurant/?categories=SC017</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ÅBÄCKEN Mist nozzle for mixer tap</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>6</v>
-      </c>
-      <c r="G79" t="n">
-        <v>6</v>
-      </c>
+          <t>Swedish Restaurant</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
@@ -5071,7 +5067,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:31+00:00</t>
+          <t>2026-02-15T10:03:01+00:00</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -5079,7 +5075,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5089,26 +5085,28 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
+          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>DALSKÄR Wash-basin mixer tap</t>
+          <t>€ 29.95</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>75</v>
+        <v>29.95</v>
       </c>
       <c r="G80" t="n">
-        <v>75</v>
-      </c>
-      <c r="H80" t="inlineStr"/>
+        <v>29.95</v>
+      </c>
+      <c r="H80" t="n">
+        <v>115</v>
+      </c>
       <c r="I80" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5119,18 +5117,18 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>53.4071706</v>
+        <v>53.2523369</v>
       </c>
       <c r="M80" t="n">
-        <v>-6.2763987</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:31+00:00</t>
+          <t>2026-02-15T10:03:05+00:00</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -5138,7 +5136,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5148,28 +5146,24 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
+          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>LILLHAVET Washing-up bowl</t>
+          <t>€ 29.95</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>6</v>
-      </c>
-      <c r="G81" t="n">
-        <v>6</v>
-      </c>
-      <c r="H81" t="n">
-        <v>50</v>
-      </c>
+        <v>29.95</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5180,18 +5174,18 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>53.4071706</v>
+        <v>53.2523369</v>
       </c>
       <c r="M81" t="n">
-        <v>-6.2763987</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:31+00:00</t>
+          <t>2026-02-15T10:03:05+00:00</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -5199,7 +5193,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5209,25 +5203,23 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
+          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>IKEA PS 2002 Watering can, 1.2 l</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
-      </c>
-      <c r="G82" t="n">
-        <v>2</v>
-      </c>
+        <v>29.95</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
@@ -5239,18 +5231,18 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>53.4071706</v>
+        <v>53.2523369</v>
       </c>
       <c r="M82" t="n">
-        <v>-6.2763987</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:31+00:00</t>
+          <t>2026-02-15T10:03:05+00:00</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -5278,18 +5270,14 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>€ 29.95</t>
+          <t>€ 69.95</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>29.95</v>
-      </c>
-      <c r="G83" t="n">
-        <v>29.95</v>
-      </c>
-      <c r="H83" t="n">
-        <v>115</v>
-      </c>
+        <v>69.95</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5311,7 +5299,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:34+00:00</t>
+          <t>2026-02-15T10:03:05+00:00</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -5339,11 +5327,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>€ 29.95</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>29.95</v>
+        <v>69.95</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
@@ -5368,7 +5356,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:34+00:00</t>
+          <t>2026-02-15T10:03:05+00:00</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
@@ -5396,11 +5384,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 59.95</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>29.95</v>
+        <v>59.95</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
@@ -5425,7 +5413,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:34+00:00</t>
+          <t>2026-02-15T10:03:05+00:00</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
@@ -5453,11 +5441,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>€ 69.95</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>69.95</v>
+        <v>59.95</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
@@ -5482,7 +5470,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:34+00:00</t>
+          <t>2026-02-15T10:03:05+00:00</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
@@ -5505,22 +5493,26 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
+          <t>https://www.harveynorman.ie/5-day-mattress-sale.html</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>69.95</v>
-      </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>500</v>
+      </c>
+      <c r="H87" t="n">
+        <v>20</v>
+      </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -5539,7 +5531,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:34+00:00</t>
+          <t>2026-02-15T10:03:07+00:00</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -5562,18 +5554,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>€ 59.95</t>
+          <t>€ 949</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>59.95</v>
-      </c>
-      <c r="G88" t="inlineStr"/>
+        <v>1.23</v>
+      </c>
+      <c r="G88" t="n">
+        <v>949</v>
+      </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
@@ -5596,7 +5590,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:34+00:00</t>
+          <t>2026-02-15T10:03:10+00:00</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
@@ -5619,7 +5613,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5628,9 +5622,11 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>59.95</v>
-      </c>
-      <c r="G89" t="inlineStr"/>
+        <v>1.23</v>
+      </c>
+      <c r="G89" t="n">
+        <v>949</v>
+      </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
@@ -5653,7 +5649,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:34+00:00</t>
+          <t>2026-02-15T10:03:10+00:00</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -5676,23 +5672,21 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
+          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>€ 249</t>
+          <t>€ 549</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>249</v>
+        <v>50</v>
       </c>
       <c r="G90" t="n">
         <v>549</v>
       </c>
-      <c r="H90" t="n">
-        <v>10</v>
-      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5714,7 +5708,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:37+00:00</t>
+          <t>2026-02-15T10:03:10+00:00</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
@@ -5737,21 +5731,19 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
+          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>€ 249</t>
+          <t>Bosch Series 4 80cm Wall Mounted Cooker Hood | DWK87FN60B</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>249</v>
+        <v>50</v>
       </c>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="n">
-        <v>10</v>
-      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5773,7 +5765,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:37+00:00</t>
+          <t>2026-02-15T10:03:10+00:00</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
@@ -5796,19 +5788,19 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
+          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Dyson Supersonic Origin Hair Dryer | 107833-01 | Nickel/Copper</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
+          <t>Search Suggestions</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>50</v>
+      </c>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="n">
-        <v>10</v>
-      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5830,7 +5822,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:37+00:00</t>
+          <t>2026-02-15T10:03:10+00:00</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
@@ -5853,19 +5845,21 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
+          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="n">
-        <v>10</v>
-      </c>
+          <t>FIND IN STORE</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>549</v>
+      </c>
+      <c r="G93" t="n">
+        <v>789</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5887,7 +5881,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:37+00:00</t>
+          <t>2026-02-15T10:03:10+00:00</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
@@ -5910,18 +5904,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
+          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 249</t>
         </is>
       </c>
       <c r="F94" t="n">
         <v>249</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>269</v>
+      </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
@@ -5944,7 +5940,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:37+00:00</t>
+          <t>2026-02-15T10:03:10+00:00</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
@@ -5967,21 +5963,21 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
+          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>€ 549</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>549</v>
-      </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="n">
-        <v>10</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="G95" t="n">
+        <v>269</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6003,7 +5999,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:37+00:00</t>
+          <t>2026-02-15T10:03:10+00:00</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
@@ -6026,19 +6022,21 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
+          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Dyson Airwrap ID Multi-Styler and Dryer Straight+Wavy | 601857-01 | Ceramic Pink/Rose Gold</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="n">
-        <v>10</v>
-      </c>
+          <t>€ 149</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>149</v>
+      </c>
+      <c r="G96" t="n">
+        <v>239</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6060,7 +6058,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:37+00:00</t>
+          <t>2026-02-15T10:03:10+00:00</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
@@ -6068,34 +6066,38 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>549</v>
-      </c>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
+        <v>2.25</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="H97" t="n">
+        <v>15</v>
+      </c>
       <c r="I97" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6106,18 +6108,18 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M97" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:37+00:00</t>
+          <t>2026-02-15T10:03:12+00:00</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
@@ -6125,36 +6127,36 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>€ 499</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>499</v>
-      </c>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="n">
-        <v>10</v>
-      </c>
+        <v>2.25</v>
+      </c>
+      <c r="G98" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6165,18 +6167,18 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M98" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:37+00:00</t>
+          <t>2026-02-15T10:03:12+00:00</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
@@ -6184,34 +6186,36 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Dyson Airstrait Dryer and Straightener | 598961-01 | Ceramic Pink/Rose Gold</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="n">
-        <v>10</v>
-      </c>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G99" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6222,18 +6226,18 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M99" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:37+00:00</t>
+          <t>2026-02-15T10:03:12+00:00</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
@@ -6241,31 +6245,31 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Damiani Round Brilliant Three Stone Diamond Ring 0.66ct</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>499</v>
+        <v>2.25</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
@@ -6279,18 +6283,18 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M100" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:37+00:00</t>
+          <t>2026-02-15T10:03:12+00:00</t>
         </is>
       </c>
       <c r="O100" t="inlineStr"/>
@@ -6298,35 +6302,33 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/dyson-10-gift-card-hair-care-offer/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>€ 449</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>449</v>
-      </c>
+          <t>Guarantee &amp; Service</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -6338,18 +6340,18 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M101" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:37+00:00</t>
+          <t>2026-02-15T10:03:12+00:00</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
@@ -6357,36 +6359,38 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/furniture-clearance/outdoor-clearance/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>€ 699</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>699</v>
+        <v>3.49</v>
       </c>
       <c r="G102" t="n">
-        <v>949</v>
-      </c>
-      <c r="H102" t="inlineStr"/>
+        <v>4.99</v>
+      </c>
+      <c r="H102" t="n">
+        <v>15</v>
+      </c>
       <c r="I102" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6397,18 +6401,18 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M102" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:39+00:00</t>
+          <t>2026-02-15T10:03:14+00:00</t>
         </is>
       </c>
       <c r="O102" t="inlineStr"/>
@@ -6416,33 +6420,35 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/furniture-clearance/outdoor-clearance/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Malta Outdoor Lounge Set | 4 Piece</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>949</v>
-      </c>
-      <c r="G103" t="inlineStr"/>
+        <v>3.49</v>
+      </c>
+      <c r="G103" t="n">
+        <v>4.99</v>
+      </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
@@ -6454,18 +6460,18 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M103" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:39+00:00</t>
+          <t>2026-02-15T10:03:14+00:00</t>
         </is>
       </c>
       <c r="O103" t="inlineStr"/>
@@ -6473,34 +6479,34 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/furniture-clearance/outdoor-clearance/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.29</v>
+        <v>3.49</v>
       </c>
       <c r="G104" t="n">
-        <v>699</v>
+        <v>4.99</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
@@ -6513,18 +6519,18 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M104" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:39+00:00</t>
+          <t>2026-02-15T10:03:14+00:00</t>
         </is>
       </c>
       <c r="O104" t="inlineStr"/>
@@ -6532,35 +6538,33 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/furniture-clearance/outdoor-clearance/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>€ 799</t>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>799</v>
-      </c>
-      <c r="G105" t="n">
-        <v>899</v>
-      </c>
+        <v>3.49</v>
+      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
@@ -6572,18 +6576,18 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M105" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:39+00:00</t>
+          <t>2026-02-15T10:03:14+00:00</t>
         </is>
       </c>
       <c r="O105" t="inlineStr"/>
@@ -6591,34 +6595,34 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/furniture-clearance/outdoor-clearance/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Honolulu Outdoor Dining Set | 7 Piece | Grey</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>899</v>
-      </c>
+          <t>Guarantee &amp; Service</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
+      <c r="H106" t="n">
+        <v>15</v>
+      </c>
       <c r="I106" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6629,18 +6633,18 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M106" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:39+00:00</t>
+          <t>2026-02-15T10:03:14+00:00</t>
         </is>
       </c>
       <c r="O106" t="inlineStr"/>
@@ -6648,36 +6652,38 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/furniture-clearance/outdoor-clearance/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2.69</v>
+        <v>1.39</v>
       </c>
       <c r="G107" t="n">
-        <v>799</v>
-      </c>
-      <c r="H107" t="inlineStr"/>
+        <v>1.59</v>
+      </c>
+      <c r="H107" t="n">
+        <v>15</v>
+      </c>
       <c r="I107" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6688,18 +6694,18 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M107" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:39+00:00</t>
+          <t>2026-02-15T10:03:16+00:00</t>
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
@@ -6707,34 +6713,34 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/furniture-clearance/outdoor-clearance/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>€ 60</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>60</v>
+        <v>1.39</v>
       </c>
       <c r="G108" t="n">
-        <v>99</v>
+        <v>1.59</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
@@ -6747,18 +6753,18 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M108" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:39+00:00</t>
+          <t>2026-02-15T10:03:16+00:00</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
@@ -6766,33 +6772,35 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/furniture-clearance/outdoor-clearance/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>AeroCover Willow Lounge Set Cover | 305 x 190 x 85cm</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>99</v>
-      </c>
-      <c r="G109" t="inlineStr"/>
+        <v>1.39</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.59</v>
+      </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
@@ -6804,18 +6812,18 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M109" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:39+00:00</t>
+          <t>2026-02-15T10:03:16+00:00</t>
         </is>
       </c>
       <c r="O109" t="inlineStr"/>
@@ -6823,35 +6831,33 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/furniture-clearance/outdoor-clearance/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Rocks Diamond &amp; Gemstone Floral Necklace</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>60</v>
-      </c>
-      <c r="G110" t="n">
-        <v>199</v>
-      </c>
+        <v>1.39</v>
+      </c>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
@@ -6863,18 +6869,18 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M110" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:39+00:00</t>
+          <t>2026-02-15T10:03:16+00:00</t>
         </is>
       </c>
       <c r="O110" t="inlineStr"/>
@@ -6935,7 +6941,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:42+00:00</t>
+          <t>2026-02-15T10:03:17+00:00</t>
         </is>
       </c>
       <c r="O111" t="inlineStr"/>
@@ -6958,26 +6964,26 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>3.49</v>
+        <v>13.25</v>
       </c>
       <c r="G112" t="n">
-        <v>4.99</v>
+        <v>18.29</v>
       </c>
       <c r="H112" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J112" t="b">
@@ -6996,7 +7002,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:43+00:00</t>
+          <t>2026-02-15T10:03:19+00:00</t>
         </is>
       </c>
       <c r="O112" t="inlineStr"/>
@@ -7024,7 +7030,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -7033,9 +7039,7 @@
       <c r="G113" t="n">
         <v>18.29</v>
       </c>
-      <c r="H113" t="n">
-        <v>15</v>
-      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -7057,7 +7061,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:45+00:00</t>
+          <t>2026-02-15T10:03:19+00:00</t>
         </is>
       </c>
       <c r="O113" t="inlineStr"/>
@@ -7085,7 +7089,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -7116,7 +7120,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:45+00:00</t>
+          <t>2026-02-15T10:03:19+00:00</t>
         </is>
       </c>
       <c r="O114" t="inlineStr"/>
@@ -7144,15 +7148,13 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Oval Yellow Diamond Solitiatire Diamond Set Shoulders 1.16ct</t>
         </is>
       </c>
       <c r="F115" t="n">
         <v>13.25</v>
       </c>
-      <c r="G115" t="n">
-        <v>18.29</v>
-      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
@@ -7175,7 +7177,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:45+00:00</t>
+          <t>2026-02-15T10:03:19+00:00</t>
         </is>
       </c>
       <c r="O115" t="inlineStr"/>
@@ -7198,22 +7200,26 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Oval Yellow Diamond Solitiatire Diamond Set Shoulders 1.16ct</t>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
+        <v>3.49</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H116" t="n">
+        <v>31</v>
+      </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J116" t="b">
@@ -7232,7 +7238,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:45+00:00</t>
+          <t>2026-02-15T10:03:21+00:00</t>
         </is>
       </c>
       <c r="O116" t="inlineStr"/>
@@ -7240,41 +7246,35 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>SISU Clinic</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>perfumes/beauty</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.sisuclinic.com</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G117" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H117" t="n">
-        <v>15</v>
-      </c>
+          <t>Explore our latest Blogs</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="J117" t="b">
@@ -7282,18 +7282,18 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>3, Fields Terrace, Dublin</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>53.2898373</v>
+        <v>53.3252812</v>
       </c>
       <c r="M117" t="n">
-        <v>-6.1999596</v>
+        <v>-6.2554094</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:46+00:00</t>
+          <t>2026-02-15T10:03:24+00:00</t>
         </is>
       </c>
       <c r="O117" t="inlineStr"/>
@@ -7301,39 +7301,35 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>SISU Clinic</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>perfumes/beauty</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.sisuclinic.com</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1.59</v>
-      </c>
+          <t>Explore our latest Blogs</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="J118" t="b">
@@ -7341,833 +7337,21 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>3, Fields Terrace, Dublin</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>53.2898373</v>
+        <v>53.3252812</v>
       </c>
       <c r="M118" t="n">
-        <v>-6.1999596</v>
+        <v>-6.2554094</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2026-02-14T14:24:46+00:00</t>
+          <t>2026-02-15T10:03:25+00:00</t>
         </is>
       </c>
       <c r="O118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J119" t="b">
-        <v>1</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M119" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>2026-02-14T14:24:46+00:00</t>
-        </is>
-      </c>
-      <c r="O119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Rocks Diamond &amp; Gemstone Floral Necklace</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J120" t="b">
-        <v>1</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M120" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>2026-02-14T14:24:46+00:00</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Talk to a Diamond Expert</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G121" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H121" t="n">
-        <v>15</v>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J121" t="b">
-        <v>1</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M121" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>2026-02-14T14:24:48+00:00</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Skip to product information</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G122" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J122" t="b">
-        <v>1</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M122" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>2026-02-14T14:24:48+00:00</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G123" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J123" t="b">
-        <v>1</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M123" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>2026-02-14T14:24:48+00:00</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J124" t="b">
-        <v>1</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M124" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>2026-02-14T14:24:48+00:00</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Guarantee &amp; Service</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="n">
-        <v>15</v>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J125" t="b">
-        <v>1</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M125" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>2026-02-14T14:24:48+00:00</t>
-        </is>
-      </c>
-      <c r="O125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Talk to a Diamond Expert</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G126" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="H126" t="n">
-        <v>15</v>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J126" t="b">
-        <v>1</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M126" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>2026-02-14T14:24:49+00:00</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Skip to product information</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G127" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J127" t="b">
-        <v>1</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M127" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>2026-02-14T14:24:49+00:00</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G128" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J128" t="b">
-        <v>1</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M128" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>2026-02-14T14:24:49+00:00</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Damiani Round Brilliant Three Stone Diamond Ring 0.66ct</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J129" t="b">
-        <v>1</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M129" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>2026-02-14T14:24:49+00:00</t>
-        </is>
-      </c>
-      <c r="O129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Guarantee &amp; Service</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="n">
-        <v>15</v>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J130" t="b">
-        <v>1</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M130" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>2026-02-14T14:24:49+00:00</t>
-        </is>
-      </c>
-      <c r="O130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>SISU Clinic</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>perfumes/beauty</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>www.sisuclinic.com</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Explore our latest Blogs</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="J131" t="b">
-        <v>1</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>3, Fields Terrace, Dublin</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>53.3252812</v>
-      </c>
-      <c r="M131" t="n">
-        <v>-6.2554094</v>
-      </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>2026-02-14T14:24:51+00:00</t>
-        </is>
-      </c>
-      <c r="O131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>SISU Clinic</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>perfumes/beauty</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>www.sisuclinic.com</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Explore our latest Blogs</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="J132" t="b">
-        <v>1</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>3, Fields Terrace, Dublin</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>53.3252812</v>
-      </c>
-      <c r="M132" t="n">
-        <v>-6.2554094</v>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>2026-02-14T14:24:52+00:00</t>
-        </is>
-      </c>
-      <c r="O132" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/deals.xlsx
+++ b/deals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2026-02-15T09:51:45+00:00</t>
+          <t>2026-02-16T10:14:41+00:00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -621,7 +621,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2026-02-15T09:51:50+00:00</t>
+          <t>2026-02-16T10:14:47+00:00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -682,7 +682,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2026-02-15T09:51:50+00:00</t>
+          <t>2026-02-16T10:14:47+00:00</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -743,7 +743,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2026-02-15T09:51:50+00:00</t>
+          <t>2026-02-16T10:14:47+00:00</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -804,7 +804,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2026-02-15T09:51:50+00:00</t>
+          <t>2026-02-16T10:14:47+00:00</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:30+00:00</t>
+          <t>2026-02-16T10:15:29+00:00</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -888,23 +888,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>127</v>
-      </c>
-      <c r="G8" t="n">
-        <v>127</v>
-      </c>
-      <c r="H8" t="n">
-        <v>20</v>
-      </c>
+          <t>Re-shop and Re-use</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -926,7 +920,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:38+00:00</t>
+          <t>2026-02-16T10:15:35+00:00</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -949,7 +943,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10779</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -987,7 +981,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:39+00:00</t>
+          <t>2026-02-16T10:15:37+00:00</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1010,12 +1004,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>NORDBERGET Mattress pad, Standard King</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1048,7 +1042,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:41+00:00</t>
+          <t>2026-02-16T10:15:38+00:00</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1076,17 +1070,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, Standard King</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>127</v>
+        <v>25.5</v>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1109,7 +1103,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:42+00:00</t>
+          <t>2026-02-16T10:15:38+00:00</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1137,17 +1131,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>25.5</v>
+        <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1170,7 +1164,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:42+00:00</t>
+          <t>2026-02-16T10:15:38+00:00</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1198,17 +1192,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>29.75</v>
       </c>
       <c r="H13" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1231,7 +1225,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:42+00:00</t>
+          <t>2026-02-16T10:15:38+00:00</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1254,22 +1248,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="G14" t="n">
-        <v>29.75</v>
+        <v>127</v>
       </c>
       <c r="H14" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1292,7 +1286,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:42+00:00</t>
+          <t>2026-02-16T10:15:40+00:00</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1315,12 +1309,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10779</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>NORDBERGET Mattress pad, Standard King</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1353,7 +1347,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:44+00:00</t>
+          <t>2026-02-16T10:15:42+00:00</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1376,17 +1370,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Re-shop and Re-use</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>25</v>
+      </c>
+      <c r="G16" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>15</v>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:46+00:00</t>
+          <t>2026-02-16T10:15:42+00:00</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1431,19 +1431,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="H17" t="n">
         <v>20</v>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:47+00:00</t>
+          <t>2026-02-16T10:15:42+00:00</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1497,17 +1497,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, Standard King</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>127</v>
+        <v>29.75</v>
       </c>
       <c r="H18" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:48+00:00</t>
+          <t>2026-02-16T10:15:42+00:00</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1553,22 +1553,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="G19" t="n">
-        <v>25.5</v>
+        <v>127</v>
       </c>
       <c r="H19" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:48+00:00</t>
+          <t>2026-02-16T10:15:43+00:00</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1614,19 +1614,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="H20" t="n">
         <v>20</v>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:48+00:00</t>
+          <t>2026-02-16T10:15:45+00:00</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1675,22 +1675,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="G21" t="n">
-        <v>29.75</v>
+        <v>127</v>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:48+00:00</t>
+          <t>2026-02-16T10:15:46+00:00</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1736,19 +1736,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>€ 998</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.04</v>
+        <v>499</v>
       </c>
       <c r="G22" t="n">
-        <v>998</v>
+        <v>599</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:52+00:00</t>
+          <t>2026-02-16T10:15:49+00:00</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1795,20 +1795,18 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G23" t="n">
-        <v>998</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
@@ -1831,7 +1829,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:52+00:00</t>
+          <t>2026-02-16T10:15:49+00:00</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1854,16 +1852,16 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>€ 1,119</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.11</v>
+        <v>599</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1888,7 +1886,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:52+00:00</t>
+          <t>2026-02-16T10:15:49+00:00</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1911,16 +1909,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 499</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.11</v>
+        <v>499</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -1945,7 +1943,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:52+00:00</t>
+          <t>2026-02-16T10:15:49+00:00</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1973,15 +1971,13 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>499</v>
       </c>
-      <c r="G26" t="n">
-        <v>599</v>
-      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
@@ -2004,7 +2000,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:55+00:00</t>
+          <t>2026-02-16T10:15:49+00:00</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -2032,11 +2028,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>€ 1,999</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>599</v>
+        <v>1.99</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -2061,7 +2057,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:55+00:00</t>
+          <t>2026-02-16T10:15:49+00:00</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -2093,7 +2089,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>599</v>
+        <v>1.99</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -2118,7 +2114,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:55+00:00</t>
+          <t>2026-02-16T10:15:50+00:00</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2146,11 +2142,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>€ 499</t>
+          <t>€ 1,549</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>499</v>
+        <v>1.54</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -2175,7 +2171,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:55+00:00</t>
+          <t>2026-02-16T10:15:50+00:00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2198,18 +2194,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 1,799</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>499</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
+        <v>1.79</v>
+      </c>
+      <c r="G30" t="n">
+        <v>150</v>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
@@ -2232,7 +2230,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:55+00:00</t>
+          <t>2026-02-16T10:15:52+00:00</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2255,16 +2253,16 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>€ 1,999</t>
+          <t>LG 65" OLED Evo AI C5 4K Smart TV | OLED65C54LA.AEK</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.99</v>
+        <v>150</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -2289,7 +2287,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:55+00:00</t>
+          <t>2026-02-16T10:15:52+00:00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2312,16 +2310,16 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.99</v>
+        <v>150</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -2346,7 +2344,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:55+00:00</t>
+          <t>2026-02-16T10:15:52+00:00</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2369,16 +2367,16 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>€ 1,549</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.54</v>
+        <v>1.79</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -2403,7 +2401,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:55+00:00</t>
+          <t>2026-02-16T10:15:52+00:00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2462,7 +2460,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:58+00:00</t>
+          <t>2026-02-16T10:15:52+00:00</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2519,7 +2517,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:58+00:00</t>
+          <t>2026-02-16T10:15:52+00:00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2576,7 +2574,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:58+00:00</t>
+          <t>2026-02-16T10:15:52+00:00</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2633,7 +2631,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:58+00:00</t>
+          <t>2026-02-16T10:15:52+00:00</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2661,11 +2659,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>€ 1,799</t>
+          <t>€ 2,599</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.79</v>
+        <v>2.59</v>
       </c>
       <c r="G38" t="n">
         <v>150</v>
@@ -2692,7 +2690,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:58+00:00</t>
+          <t>2026-02-16T10:15:52+00:00</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2720,7 +2718,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>LG 65" OLED Evo AI C5 4K Smart TV | OLED65C54LA.AEK</t>
+          <t>LG 65" G5 OLED Evo 4K Smart TV | OLED65G54LW.AEK</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2749,7 +2747,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:58+00:00</t>
+          <t>2026-02-16T10:15:52+00:00</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2777,11 +2775,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>150</v>
+        <v>2.59</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -2806,7 +2804,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:58+00:00</t>
+          <t>2026-02-16T10:15:52+00:00</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2834,13 +2832,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="G41" t="n">
+        <v>599</v>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:58+00:00</t>
+          <t>2026-02-16T10:15:52+00:00</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2886,24 +2886,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/promotions.html</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>Current sales and promotions</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
-      </c>
-      <c r="G42" t="n">
-        <v>599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -2922,7 +2920,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:58+00:00</t>
+          <t>2026-02-16T10:15:54+00:00</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2945,18 +2943,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>LG 55" QNED70 AI 4K Smart TV (2025) | 55QNED70A6A.AEK</t>
+          <t>€ 998</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>50</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
+        <v>1.04</v>
+      </c>
+      <c r="G43" t="n">
+        <v>998</v>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:58+00:00</t>
+          <t>2026-02-16T10:15:57+00:00</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3002,18 +3002,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>50</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
+        <v>1.04</v>
+      </c>
+      <c r="G44" t="n">
+        <v>998</v>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
@@ -3036,7 +3038,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:58+00:00</t>
+          <t>2026-02-16T10:15:57+00:00</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -3059,16 +3061,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 1,119</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>599</v>
+        <v>1.11</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
@@ -3093,7 +3095,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2026-02-15T09:52:58+00:00</t>
+          <t>2026-02-16T10:15:57+00:00</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3116,22 +3118,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Current sales and promotions</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -3150,7 +3152,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2026-02-15T09:53:00+00:00</t>
+          <t>2026-02-16T10:15:57+00:00</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3173,22 +3175,24 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
+        <v>449</v>
+      </c>
+      <c r="G47" t="n">
+        <v>599</v>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -3207,7 +3211,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2026-02-15T09:53:03+00:00</t>
+          <t>2026-02-16T10:16:00+00:00</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3239,11 +3243,9 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>449</v>
-      </c>
-      <c r="G48" t="n">
         <v>599</v>
       </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
@@ -3266,7 +3268,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2026-02-15T09:53:06+00:00</t>
+          <t>2026-02-16T10:16:00+00:00</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3294,7 +3296,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -3323,7 +3325,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2026-02-15T09:53:06+00:00</t>
+          <t>2026-02-16T10:16:00+00:00</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3351,11 +3353,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 449</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>599</v>
+        <v>449</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -3380,7 +3382,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2026-02-15T09:53:06+00:00</t>
+          <t>2026-02-16T10:16:00+00:00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3408,7 +3410,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>€ 449</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -3437,7 +3439,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2026-02-15T09:53:06+00:00</t>
+          <t>2026-02-16T10:16:00+00:00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3460,16 +3462,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 649</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>449</v>
+        <v>649</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
@@ -3494,7 +3496,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2026-02-15T09:53:06+00:00</t>
+          <t>2026-02-16T10:16:02+00:00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3522,7 +3524,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>€ 649</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -3551,7 +3553,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2026-02-15T09:53:09+00:00</t>
+          <t>2026-02-16T10:16:02+00:00</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3574,22 +3576,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>649</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -3608,7 +3610,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2026-02-15T09:53:09+00:00</t>
+          <t>2026-02-16T10:16:05+00:00</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3667,7 +3669,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2026-02-15T09:57:05+00:00</t>
+          <t>2026-02-16T10:19:58+00:00</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3722,7 +3724,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2026-02-15T09:59:43+00:00</t>
+          <t>2026-02-16T10:22:21+00:00</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3777,7 +3779,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2026-02-15T10:00:15+00:00</t>
+          <t>2026-02-16T10:22:52+00:00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3838,7 +3840,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2026-02-15T10:00:43+00:00</t>
+          <t>2026-02-16T10:23:18+00:00</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3895,7 +3897,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2026-02-15T10:00:43+00:00</t>
+          <t>2026-02-16T10:23:18+00:00</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3952,7 +3954,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2026-02-15T10:00:43+00:00</t>
+          <t>2026-02-16T10:23:18+00:00</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -4011,7 +4013,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2026-02-15T10:00:43+00:00</t>
+          <t>2026-02-16T10:23:18+00:00</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -4070,7 +4072,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2026-02-15T10:00:43+00:00</t>
+          <t>2026-02-16T10:23:18+00:00</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4129,7 +4131,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2026-02-15T10:00:43+00:00</t>
+          <t>2026-02-16T10:23:18+00:00</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4188,7 +4190,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2026-02-15T10:00:43+00:00</t>
+          <t>2026-02-16T10:23:18+00:00</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4247,7 +4249,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2026-02-15T10:00:43+00:00</t>
+          <t>2026-02-16T10:23:18+00:00</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4308,7 +4310,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2026-02-15T10:02:25+00:00</t>
+          <t>2026-02-16T10:24:48+00:00</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4331,19 +4333,19 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-her</t>
+          <t>https://weaversofireland.com/collections/outlet</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Cable Knit Crew Neck Aran Wool Sweater</t>
+          <t>Ladies Wool Peaky Blinders Hat</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>66.95</v>
+        <v>49.95</v>
       </c>
       <c r="G67" t="n">
-        <v>66.95</v>
+        <v>49.95</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
@@ -4367,7 +4369,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2026-02-15T10:02:45+00:00</t>
+          <t>2026-02-16T10:25:07+00:00</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4390,17 +4392,23 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
+          <t>https://weaversofireland.com/collections/outlet-for-him</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Express Shipping Offer</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
+          <t>Alpaca Scarf - Grey Herringbone</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>69.95</v>
+      </c>
+      <c r="G68" t="n">
+        <v>69.95</v>
+      </c>
+      <c r="H68" t="n">
+        <v>22</v>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -4422,7 +4430,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2026-02-15T10:02:46+00:00</t>
+          <t>2026-02-16T10:25:09+00:00</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4445,19 +4453,21 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/blogs/blog/irish-wool-what-makes-it-special-and-why-it-s-perfect-for-march-weather</t>
+          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Irish Wool: What Makes it Special and Why it’s Perfect for March Weather</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="n">
-        <v>100</v>
-      </c>
+          <t>Wool and Cashmere Throw</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>279</v>
+      </c>
+      <c r="G69" t="n">
+        <v>279</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -4479,7 +4489,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2026-02-15T10:02:48+00:00</t>
+          <t>2026-02-16T10:25:11+00:00</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4502,20 +4512,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
+          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Wool and Cashmere Throw</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>279</v>
-      </c>
-      <c r="G70" t="n">
-        <v>279</v>
-      </c>
+          <t>Express Shipping Offer</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
@@ -4538,7 +4544,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2026-02-15T10:02:49+00:00</t>
+          <t>2026-02-16T10:25:14+00:00</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4561,23 +4567,21 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-him</t>
+          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Alpaca Scarf - Grey Herringbone</t>
+          <t>Baby Shepley Aran Headband</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>69.95</v>
+        <v>24.95</v>
       </c>
       <c r="G71" t="n">
-        <v>69.95</v>
-      </c>
-      <c r="H71" t="n">
-        <v>22</v>
-      </c>
+        <v>24.95</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -4599,7 +4603,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2026-02-15T10:02:51+00:00</t>
+          <t>2026-02-16T10:25:16+00:00</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4658,7 +4662,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2026-02-15T10:02:53+00:00</t>
+          <t>2026-02-16T10:25:18+00:00</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4681,19 +4685,19 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
+          <t>https://weaversofireland.com/collections/outlet-for-her</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Baby Shepley Aran Headband</t>
+          <t>Cable Knit Crew Neck Aran Wool Sweater</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>24.95</v>
+        <v>66.95</v>
       </c>
       <c r="G73" t="n">
-        <v>24.95</v>
+        <v>66.95</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
@@ -4717,7 +4721,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2026-02-15T10:02:55+00:00</t>
+          <t>2026-02-16T10:25:20+00:00</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4740,21 +4744,19 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet</t>
+          <t>https://weaversofireland.com/blogs/blog/irish-wool-what-makes-it-special-and-why-it-s-perfect-for-march-weather</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ladies Wool Peaky Blinders Hat</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>49.95</v>
-      </c>
-      <c r="G74" t="n">
-        <v>49.95</v>
-      </c>
-      <c r="H74" t="inlineStr"/>
+          <t>Irish Wool: What Makes it Special and Why it’s Perfect for March Weather</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>100</v>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -4776,7 +4778,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2026-02-15T10:02:57+00:00</t>
+          <t>2026-02-16T10:25:22+00:00</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4799,20 +4801,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
+          <t>https://www.ikea.com/ie/en/food/salesareas/restaurant/?categories=SC017</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SOLHETTA LED bulb E27 470 lumen</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1.5</v>
-      </c>
+          <t>Swedish Restaurant</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
@@ -4835,7 +4833,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:00+00:00</t>
+          <t>2026-02-16T10:25:23+00:00</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4858,19 +4856,19 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SOLHETTA LED bulb E27 806 lumen</t>
+          <t>ÅBÄCKEN Mist nozzle for mixer tap</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
@@ -4894,7 +4892,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:00+00:00</t>
+          <t>2026-02-16T10:25:26+00:00</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4917,19 +4915,19 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>DIRIGERA Hub for smart products</t>
+          <t>DALSKÄR Wash-basin mixer tap</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G77" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
@@ -4953,7 +4951,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:00+00:00</t>
+          <t>2026-02-16T10:25:26+00:00</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4976,21 +4974,23 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TILLREDA Portable induction hob</t>
+          <t>LILLHAVET Washing-up bowl</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="G78" t="n">
-        <v>85</v>
-      </c>
-      <c r="H78" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H78" t="n">
+        <v>50</v>
+      </c>
       <c r="I78" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5012,7 +5012,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:00+00:00</t>
+          <t>2026-02-16T10:25:26+00:00</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -5035,16 +5035,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/food/salesareas/restaurant/?categories=SC017</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Swedish Restaurant</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+          <t>IKEA PS 2002 Watering can, 1.2 l</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>2</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
@@ -5067,7 +5071,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:01+00:00</t>
+          <t>2026-02-16T10:25:26+00:00</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -5090,22 +5094,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/homeware-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>€ 29.95</t>
+          <t>€ 15</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>29.95</v>
+        <v>15</v>
       </c>
       <c r="G80" t="n">
-        <v>29.95</v>
+        <v>45</v>
       </c>
       <c r="H80" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -5128,7 +5132,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:05+00:00</t>
+          <t>2026-02-16T10:25:29+00:00</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -5151,19 +5155,19 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/homeware-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>€ 29.95</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>29.95</v>
-      </c>
+          <t>Search Suggestions</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
+      <c r="H81" t="n">
+        <v>100</v>
+      </c>
       <c r="I81" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5185,7 +5189,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:05+00:00</t>
+          <t>2026-02-16T10:25:29+00:00</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -5208,7 +5212,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/homeware-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5217,9 +5221,11 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>29.95</v>
-      </c>
-      <c r="G82" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="G82" t="n">
+        <v>45</v>
+      </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
@@ -5242,7 +5248,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:05+00:00</t>
+          <t>2026-02-16T10:25:29+00:00</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -5265,19 +5271,23 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/homeware-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>€ 69.95</t>
+          <t>€ 25</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>69.95</v>
-      </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="G83" t="n">
+        <v>70</v>
+      </c>
+      <c r="H83" t="n">
+        <v>100</v>
+      </c>
       <c r="I83" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5299,7 +5309,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:05+00:00</t>
+          <t>2026-02-16T10:25:29+00:00</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -5322,7 +5332,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/homeware-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -5331,9 +5341,11 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>69.95</v>
-      </c>
-      <c r="G84" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="G84" t="n">
+        <v>70</v>
+      </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
@@ -5356,7 +5368,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:05+00:00</t>
+          <t>2026-02-16T10:25:29+00:00</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
@@ -5379,18 +5391,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/homeware-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>€ 59.95</t>
+          <t>€ 15</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>59.95</v>
-      </c>
-      <c r="G85" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="G85" t="n">
+        <v>25</v>
+      </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
@@ -5413,7 +5427,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:05+00:00</t>
+          <t>2026-02-16T10:25:29+00:00</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
@@ -5436,22 +5450,24 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/tv-audio-clearance/</t>
+          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 291.99</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>59.95</v>
-      </c>
-      <c r="G86" t="inlineStr"/>
+        <v>41.99</v>
+      </c>
+      <c r="G86" t="n">
+        <v>291.99</v>
+      </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -5470,7 +5486,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:05+00:00</t>
+          <t>2026-02-16T10:25:36+00:00</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
@@ -5493,23 +5509,19 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/5-day-mattress-sale.html</t>
+          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>€ 291.99</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" t="n">
-        <v>500</v>
-      </c>
-      <c r="H87" t="n">
-        <v>20</v>
-      </c>
+        <v>291.99</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -5531,7 +5543,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:07+00:00</t>
+          <t>2026-02-16T10:25:36+00:00</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -5554,24 +5566,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
+          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>€ 949</t>
+          <t>Add to wish list</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="G88" t="n">
-        <v>949</v>
-      </c>
+        <v>291.99</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J88" t="b">
@@ -5590,7 +5600,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:10+00:00</t>
+          <t>2026-02-16T10:25:36+00:00</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
@@ -5613,24 +5623,22 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
+          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 41.99</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="G89" t="n">
-        <v>949</v>
-      </c>
+        <v>41.99</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -5649,7 +5657,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:10+00:00</t>
+          <t>2026-02-16T10:25:36+00:00</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -5672,24 +5680,22 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
+          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>€ 549</t>
+          <t>Add to wish list</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>50</v>
-      </c>
-      <c r="G90" t="n">
-        <v>549</v>
-      </c>
+        <v>41.99</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -5708,7 +5714,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:10+00:00</t>
+          <t>2026-02-16T10:25:36+00:00</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
@@ -5731,22 +5737,22 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
+          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Bosch Series 4 80cm Wall Mounted Cooker Hood | DWK87FN60B</t>
+          <t>€ 77.99</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>50</v>
+        <v>77.98999999999999</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J91" t="b">
@@ -5765,7 +5771,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:10+00:00</t>
+          <t>2026-02-16T10:25:36+00:00</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
@@ -5788,22 +5794,22 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
+          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>Add to wish list</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>50</v>
+        <v>77.98999999999999</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J92" t="b">
@@ -5822,7 +5828,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:10+00:00</t>
+          <t>2026-02-16T10:25:36+00:00</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
@@ -5845,24 +5851,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
+          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 64.99</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>549</v>
-      </c>
-      <c r="G93" t="n">
-        <v>789</v>
-      </c>
+        <v>64.98999999999999</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J93" t="b">
@@ -5881,7 +5885,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:10+00:00</t>
+          <t>2026-02-16T10:25:36+00:00</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
@@ -5889,36 +5893,38 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>€ 249</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>249</v>
+        <v>2.25</v>
       </c>
       <c r="G94" t="n">
-        <v>269</v>
-      </c>
-      <c r="H94" t="inlineStr"/>
+        <v>3.29</v>
+      </c>
+      <c r="H94" t="n">
+        <v>15</v>
+      </c>
       <c r="I94" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5929,18 +5935,18 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M94" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:10+00:00</t>
+          <t>2026-02-16T10:25:40+00:00</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
@@ -5948,34 +5954,34 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>249</v>
+        <v>2.25</v>
       </c>
       <c r="G95" t="n">
-        <v>269</v>
+        <v>3.29</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
@@ -5988,18 +5994,18 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M95" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:10+00:00</t>
+          <t>2026-02-16T10:25:40+00:00</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
@@ -6007,34 +6013,34 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>€ 149</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>149</v>
+        <v>2.25</v>
       </c>
       <c r="G96" t="n">
-        <v>239</v>
+        <v>3.29</v>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
@@ -6047,18 +6053,18 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M96" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:10+00:00</t>
+          <t>2026-02-16T10:25:40+00:00</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
@@ -6086,18 +6092,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
+          <t>Damiani Round Brilliant Three Stone Diamond Ring 0.66ct</t>
         </is>
       </c>
       <c r="F97" t="n">
         <v>2.25</v>
       </c>
-      <c r="G97" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="H97" t="n">
-        <v>15</v>
-      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6119,7 +6121,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:12+00:00</t>
+          <t>2026-02-16T10:25:40+00:00</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
@@ -6147,16 +6149,14 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G98" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="H98" t="inlineStr"/>
+          <t>Guarantee &amp; Service</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="n">
+        <v>15</v>
+      </c>
       <c r="I98" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:12+00:00</t>
+          <t>2026-02-16T10:25:40+00:00</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
@@ -6201,21 +6201,23 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.25</v>
+        <v>3.49</v>
       </c>
       <c r="G99" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="H99" t="inlineStr"/>
+        <v>4.99</v>
+      </c>
+      <c r="H99" t="n">
+        <v>15</v>
+      </c>
       <c r="I99" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6237,7 +6239,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:12+00:00</t>
+          <t>2026-02-16T10:25:41+00:00</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
@@ -6260,18 +6262,20 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Damiani Round Brilliant Three Stone Diamond Ring 0.66ct</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G100" t="inlineStr"/>
+        <v>3.49</v>
+      </c>
+      <c r="G100" t="n">
+        <v>4.99</v>
+      </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
@@ -6294,7 +6298,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:12+00:00</t>
+          <t>2026-02-16T10:25:41+00:00</t>
         </is>
       </c>
       <c r="O100" t="inlineStr"/>
@@ -6317,19 +6321,21 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Guarantee &amp; Service</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="n">
-        <v>15</v>
-      </c>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="G101" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6351,7 +6357,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:12+00:00</t>
+          <t>2026-02-16T10:25:41+00:00</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
@@ -6379,18 +6385,14 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
         </is>
       </c>
       <c r="F102" t="n">
         <v>3.49</v>
       </c>
-      <c r="G102" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H102" t="n">
-        <v>15</v>
-      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6412,7 +6414,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:14+00:00</t>
+          <t>2026-02-16T10:25:41+00:00</t>
         </is>
       </c>
       <c r="O102" t="inlineStr"/>
@@ -6440,16 +6442,14 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G103" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H103" t="inlineStr"/>
+          <t>Guarantee &amp; Service</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="n">
+        <v>15</v>
+      </c>
       <c r="I103" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:14+00:00</t>
+          <t>2026-02-16T10:25:41+00:00</t>
         </is>
       </c>
       <c r="O103" t="inlineStr"/>
@@ -6494,12 +6494,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/black-friday-picks</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -6508,10 +6508,12 @@
       <c r="G104" t="n">
         <v>4.99</v>
       </c>
-      <c r="H104" t="inlineStr"/>
+      <c r="H104" t="n">
+        <v>31</v>
+      </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J104" t="b">
@@ -6530,7 +6532,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:14+00:00</t>
+          <t>2026-02-16T10:25:43+00:00</t>
         </is>
       </c>
       <c r="O104" t="inlineStr"/>
@@ -6553,19 +6555,23 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
+        <v>1.39</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H105" t="n">
+        <v>15</v>
+      </c>
       <c r="I105" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6587,7 +6593,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:14+00:00</t>
+          <t>2026-02-16T10:25:45+00:00</t>
         </is>
       </c>
       <c r="O105" t="inlineStr"/>
@@ -6610,19 +6616,21 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Guarantee &amp; Service</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="n">
-        <v>15</v>
-      </c>
+          <t>Skip to product information</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6644,7 +6652,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:14+00:00</t>
+          <t>2026-02-16T10:25:45+00:00</t>
         </is>
       </c>
       <c r="O106" t="inlineStr"/>
@@ -6672,7 +6680,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -6681,9 +6689,7 @@
       <c r="G107" t="n">
         <v>1.59</v>
       </c>
-      <c r="H107" t="n">
-        <v>15</v>
-      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6705,7 +6711,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:16+00:00</t>
+          <t>2026-02-16T10:25:45+00:00</t>
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
@@ -6733,15 +6739,13 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>Rocks Diamond &amp; Gemstone Floral Necklace</t>
         </is>
       </c>
       <c r="F108" t="n">
         <v>1.39</v>
       </c>
-      <c r="G108" t="n">
-        <v>1.59</v>
-      </c>
+      <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
@@ -6764,7 +6768,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:16+00:00</t>
+          <t>2026-02-16T10:25:45+00:00</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
@@ -6787,24 +6791,26 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.39</v>
+        <v>3.49</v>
       </c>
       <c r="G109" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H109" t="inlineStr"/>
+        <v>4.99</v>
+      </c>
+      <c r="H109" t="n">
+        <v>31</v>
+      </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J109" t="b">
@@ -6823,7 +6829,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:16+00:00</t>
+          <t>2026-02-16T10:25:46+00:00</t>
         </is>
       </c>
       <c r="O109" t="inlineStr"/>
@@ -6846,19 +6852,23 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Rocks Diamond &amp; Gemstone Floral Necklace</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
+        <v>13.25</v>
+      </c>
+      <c r="G110" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="H110" t="n">
+        <v>15</v>
+      </c>
       <c r="I110" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6880,7 +6890,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:16+00:00</t>
+          <t>2026-02-16T10:25:48+00:00</t>
         </is>
       </c>
       <c r="O110" t="inlineStr"/>
@@ -6903,26 +6913,24 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/black-friday-picks</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>3.49</v>
+        <v>13.25</v>
       </c>
       <c r="G111" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H111" t="n">
-        <v>31</v>
-      </c>
+        <v>18.29</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J111" t="b">
@@ -6941,7 +6949,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:17+00:00</t>
+          <t>2026-02-16T10:25:48+00:00</t>
         </is>
       </c>
       <c r="O111" t="inlineStr"/>
@@ -6969,7 +6977,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -6978,9 +6986,7 @@
       <c r="G112" t="n">
         <v>18.29</v>
       </c>
-      <c r="H112" t="n">
-        <v>15</v>
-      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -7002,7 +7008,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:19+00:00</t>
+          <t>2026-02-16T10:25:48+00:00</t>
         </is>
       </c>
       <c r="O112" t="inlineStr"/>
@@ -7030,15 +7036,13 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>Oval Yellow Diamond Solitiatire Diamond Set Shoulders 1.16ct</t>
         </is>
       </c>
       <c r="F113" t="n">
         <v>13.25</v>
       </c>
-      <c r="G113" t="n">
-        <v>18.29</v>
-      </c>
+      <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
@@ -7061,7 +7065,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:19+00:00</t>
+          <t>2026-02-16T10:25:48+00:00</t>
         </is>
       </c>
       <c r="O113" t="inlineStr"/>
@@ -7069,39 +7073,35 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>SISU Clinic</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>perfumes/beauty</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.sisuclinic.com</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="G114" t="n">
-        <v>18.29</v>
-      </c>
+          <t>Explore our latest Blogs</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="J114" t="b">
@@ -7109,18 +7109,18 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>3, Fields Terrace, Dublin</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>53.2898373</v>
+        <v>53.3252812</v>
       </c>
       <c r="M114" t="n">
-        <v>-6.1999596</v>
+        <v>-6.2554094</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:19+00:00</t>
+          <t>2026-02-16T10:25:50+00:00</t>
         </is>
       </c>
       <c r="O114" t="inlineStr"/>
@@ -7128,37 +7128,35 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>SISU Clinic</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>perfumes/beauty</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.sisuclinic.com</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Oval Yellow Diamond Solitiatire Diamond Set Shoulders 1.16ct</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>13.25</v>
-      </c>
+          <t>Explore our latest Blogs</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="J115" t="b">
@@ -7166,192 +7164,21 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>3, Fields Terrace, Dublin</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>53.2898373</v>
+        <v>53.3252812</v>
       </c>
       <c r="M115" t="n">
-        <v>-6.1999596</v>
+        <v>-6.2554094</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2026-02-15T10:03:19+00:00</t>
+          <t>2026-02-16T10:25:51+00:00</t>
         </is>
       </c>
       <c r="O115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G116" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H116" t="n">
-        <v>31</v>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>LOW</t>
-        </is>
-      </c>
-      <c r="J116" t="b">
-        <v>1</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M116" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>2026-02-15T10:03:21+00:00</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>SISU Clinic</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>perfumes/beauty</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>www.sisuclinic.com</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Explore our latest Blogs</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="J117" t="b">
-        <v>1</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>3, Fields Terrace, Dublin</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>53.3252812</v>
-      </c>
-      <c r="M117" t="n">
-        <v>-6.2554094</v>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>2026-02-15T10:03:24+00:00</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>SISU Clinic</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>perfumes/beauty</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>www.sisuclinic.com</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Explore our latest Blogs</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="J118" t="b">
-        <v>1</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>3, Fields Terrace, Dublin</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>53.3252812</v>
-      </c>
-      <c r="M118" t="n">
-        <v>-6.2554094</v>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>2026-02-15T10:03:25+00:00</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/deals.xlsx
+++ b/deals.xlsx
@@ -513,35 +513,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ASHA</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>www.stephensgreen.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.stephensgreen.com/dublin-shops/asha/offers</t>
+          <t>https://www.harveynorman.ie/promotions-en/clearance-bedding-feb/</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OFFERS</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>€ 499</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>499</v>
+      </c>
+      <c r="G2" t="n">
+        <v>549</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -549,18 +555,18 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>St. Stephen's Green, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>53.3399449</v>
+        <v>53.2523369</v>
       </c>
       <c r="M2" t="n">
-        <v>-6.2614642</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2026-02-16T10:14:41+00:00</t>
+          <t>2026-02-17T10:08:18+00:00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -568,7 +574,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -578,28 +584,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers</t>
+          <t>https://www.harveynorman.ie/promotions-en/clearance-bedding-feb/</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, Standard King</t>
+          <t>€ 499</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>127</v>
+        <v>499</v>
       </c>
       <c r="G3" t="n">
-        <v>127</v>
-      </c>
-      <c r="H3" t="n">
-        <v>20</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -610,18 +614,18 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>53.4071706</v>
+        <v>53.2523369</v>
       </c>
       <c r="M3" t="n">
-        <v>-6.2763987</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2026-02-16T10:14:47+00:00</t>
+          <t>2026-02-17T10:08:18+00:00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -629,7 +633,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -639,28 +643,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers</t>
+          <t>https://www.harveynorman.ie/promotions-en/clearance-bedding-feb/</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+          <t>Bordeaux Bed Frame | Double | 4ft6 | Grey</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
-      </c>
-      <c r="G4" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -671,18 +671,18 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>53.4071706</v>
+        <v>53.2523369</v>
       </c>
       <c r="M4" t="n">
-        <v>-6.2763987</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2026-02-16T10:14:47+00:00</t>
+          <t>2026-02-17T10:08:18+00:00</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -690,7 +690,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -700,28 +700,26 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers</t>
+          <t>https://www.harveynorman.ie/promotions-en/clearance-bedding-feb/</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>1.19</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>20</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -732,18 +730,18 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>53.4071706</v>
+        <v>53.2523369</v>
       </c>
       <c r="M5" t="n">
-        <v>-6.2763987</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2026-02-16T10:14:47+00:00</t>
+          <t>2026-02-17T10:08:18+00:00</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -751,7 +749,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -761,28 +759,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers</t>
+          <t>https://www.harveynorman.ie/promotions-en/clearance-bedding-feb/</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
+          <t>€ 499</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>29</v>
+        <v>1.19</v>
       </c>
       <c r="G6" t="n">
-        <v>29.75</v>
-      </c>
-      <c r="H6" t="n">
-        <v>15</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -793,18 +789,18 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>53.4071706</v>
+        <v>53.2523369</v>
       </c>
       <c r="M6" t="n">
-        <v>-6.2763987</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2026-02-16T10:14:47+00:00</t>
+          <t>2026-02-17T10:08:18+00:00</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -812,41 +808,39 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R&amp;C McCormack</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>celticdublin.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://celticdublin.com/offers</t>
+          <t>https://www.harveynorman.ie/promotions-en/clearance-bedding-feb/</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Offers</t>
+          <t>€ 215</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
-      </c>
-      <c r="H7" t="n">
-        <v>15</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -854,18 +848,18 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Grafton Street, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>53.3400972</v>
+        <v>53.2523369</v>
       </c>
       <c r="M7" t="n">
-        <v>-6.2605276</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:29+00:00</t>
+          <t>2026-02-17T10:08:18+00:00</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -873,7 +867,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -883,20 +877,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
+          <t>https://www.harveynorman.ie/promotions-en/clearance-bedding-feb/</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Re-shop and Re-use</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>Nero Bed Frame | Small Double | 4ft | Green</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>229</v>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
@@ -909,18 +905,18 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>53.4071706</v>
+        <v>53.2523369</v>
       </c>
       <c r="M8" t="n">
-        <v>-6.2763987</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:35+00:00</t>
+          <t>2026-02-17T10:08:18+00:00</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -928,41 +924,35 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>ASHA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>www.stephensgreen.com</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10779</t>
+          <t>https://www.stephensgreen.com/dublin-shops/asha/offers</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>127</v>
-      </c>
-      <c r="G9" t="n">
-        <v>127</v>
-      </c>
-      <c r="H9" t="n">
-        <v>20</v>
-      </c>
+          <t>OFFERS</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -970,18 +960,18 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>St. Stephen's Green, Dublin</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>53.4071706</v>
+        <v>53.3399449</v>
       </c>
       <c r="M9" t="n">
-        <v>-6.2763987</v>
+        <v>-6.2614642</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:37+00:00</t>
+          <t>2026-02-17T10:10:13+00:00</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1004,7 +994,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1042,7 +1032,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:38+00:00</t>
+          <t>2026-02-17T10:10:18+00:00</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1065,7 +1055,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1103,7 +1093,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:38+00:00</t>
+          <t>2026-02-17T10:10:18+00:00</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1126,7 +1116,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1164,7 +1154,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:38+00:00</t>
+          <t>2026-02-17T10:10:18+00:00</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1187,7 +1177,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1225,7 +1215,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:38+00:00</t>
+          <t>2026-02-17T10:10:18+00:00</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1233,41 +1223,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>R&amp;C McCormack</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>celticdublin.com</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
+          <t>https://celticdublin.com/offers</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>Offers</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="H14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -1275,18 +1265,18 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>Grafton Street, Dublin</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>53.4071706</v>
+        <v>53.3400972</v>
       </c>
       <c r="M14" t="n">
-        <v>-6.2763987</v>
+        <v>-6.2605276</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:40+00:00</t>
+          <t>2026-02-17T10:10:57+00:00</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1309,12 +1299,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, Standard King</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1347,7 +1337,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:42+00:00</t>
+          <t>2026-02-17T10:11:03+00:00</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1370,22 +1360,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10779</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="G16" t="n">
-        <v>25.5</v>
+        <v>127</v>
       </c>
       <c r="H16" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1408,7 +1398,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:42+00:00</t>
+          <t>2026-02-17T10:11:05+00:00</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1431,23 +1421,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
-      </c>
-      <c r="G17" t="n">
-        <v>8</v>
-      </c>
-      <c r="H17" t="n">
-        <v>20</v>
-      </c>
+          <t>Re-shop and Re-use</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -1469,7 +1453,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:42+00:00</t>
+          <t>2026-02-17T10:11:07+00:00</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1497,17 +1481,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, Standard King</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="G18" t="n">
-        <v>29.75</v>
+        <v>127</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1530,7 +1514,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:42+00:00</t>
+          <t>2026-02-17T10:11:08+00:00</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1553,22 +1537,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="G19" t="n">
-        <v>127</v>
+        <v>25.5</v>
       </c>
       <c r="H19" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1591,7 +1575,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:43+00:00</t>
+          <t>2026-02-17T10:11:08+00:00</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1614,19 +1598,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
         <v>20</v>
@@ -1652,7 +1636,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:45+00:00</t>
+          <t>2026-02-17T10:11:08+00:00</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1675,22 +1659,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="G21" t="n">
-        <v>127</v>
+        <v>29.75</v>
       </c>
       <c r="H21" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1713,7 +1697,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:46+00:00</t>
+          <t>2026-02-17T10:11:08+00:00</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1721,7 +1705,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1731,26 +1715,28 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>499</v>
+        <v>127</v>
       </c>
       <c r="G22" t="n">
-        <v>599</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
+        <v>127</v>
+      </c>
+      <c r="H22" t="n">
+        <v>20</v>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -1761,18 +1747,18 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M22" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:49+00:00</t>
+          <t>2026-02-17T10:11:10+00:00</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1780,7 +1766,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1790,24 +1776,28 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>599</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+        <v>127</v>
+      </c>
+      <c r="G23" t="n">
+        <v>127</v>
+      </c>
+      <c r="H23" t="n">
+        <v>20</v>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -1818,18 +1808,18 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M23" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:49+00:00</t>
+          <t>2026-02-17T10:11:12+00:00</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1837,7 +1827,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1847,24 +1837,28 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>NORDBERGET Mattress pad, Standard King</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>599</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+        <v>127</v>
+      </c>
+      <c r="G24" t="n">
+        <v>127</v>
+      </c>
+      <c r="H24" t="n">
+        <v>20</v>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -1875,18 +1869,18 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M24" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:49+00:00</t>
+          <t>2026-02-17T10:11:13+00:00</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1894,7 +1888,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1904,24 +1898,28 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>€ 499</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>499</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="G25" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>15</v>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -1932,18 +1930,18 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M25" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:49+00:00</t>
+          <t>2026-02-17T10:11:13+00:00</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1951,7 +1949,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1961,24 +1959,28 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>499</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8</v>
+      </c>
+      <c r="H26" t="n">
+        <v>20</v>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -1989,18 +1991,18 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M26" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:49+00:00</t>
+          <t>2026-02-17T10:11:13+00:00</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -2008,7 +2010,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2018,24 +2020,28 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>€ 1,999</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="G27" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="H27" t="n">
+        <v>15</v>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -2046,18 +2052,18 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M27" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:49+00:00</t>
+          <t>2026-02-17T10:11:13+00:00</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -2065,7 +2071,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2075,24 +2081,28 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+        <v>127</v>
+      </c>
+      <c r="G28" t="n">
+        <v>127</v>
+      </c>
+      <c r="H28" t="n">
+        <v>20</v>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -2103,18 +2113,18 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M28" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:50+00:00</t>
+          <t>2026-02-17T10:11:15+00:00</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2137,18 +2147,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>€ 1,549</t>
+          <t>€ 1,799</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
+        <v>1.79</v>
+      </c>
+      <c r="G29" t="n">
+        <v>150</v>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
@@ -2171,7 +2183,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:50+00:00</t>
+          <t>2026-02-17T10:11:18+00:00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2199,15 +2211,13 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>€ 1,799</t>
+          <t>LG 65" OLED Evo AI C5 4K Smart TV | OLED65C54LA.AEK</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="G30" t="n">
         <v>150</v>
       </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
@@ -2230,7 +2240,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:52+00:00</t>
+          <t>2026-02-17T10:11:18+00:00</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2258,7 +2268,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>LG 65" OLED Evo AI C5 4K Smart TV | OLED65C54LA.AEK</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2287,7 +2297,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:52+00:00</t>
+          <t>2026-02-17T10:11:18+00:00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2315,11 +2325,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>150</v>
+        <v>1.79</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -2344,7 +2354,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:52+00:00</t>
+          <t>2026-02-17T10:11:18+00:00</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2372,13 +2382,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 1,299</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+        <v>1.29</v>
+      </c>
+      <c r="G33" t="n">
+        <v>100</v>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
@@ -2401,7 +2413,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:52+00:00</t>
+          <t>2026-02-17T10:11:18+00:00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2429,15 +2441,13 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>€ 1,299</t>
+          <t>LG 55" OLED Evo AI C5 4K Smart TV | OLED55C54LA.AEK</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="G34" t="n">
         <v>100</v>
       </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
@@ -2460,7 +2470,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:52+00:00</t>
+          <t>2026-02-17T10:11:18+00:00</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2488,7 +2498,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>LG 55" OLED Evo AI C5 4K Smart TV | OLED55C54LA.AEK</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2517,7 +2527,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:52+00:00</t>
+          <t>2026-02-17T10:11:18+00:00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2545,11 +2555,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>1.29</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -2574,7 +2584,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:52+00:00</t>
+          <t>2026-02-17T10:11:18+00:00</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2602,13 +2612,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 2,599</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="G37" t="n">
+        <v>150</v>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
@@ -2631,7 +2643,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:52+00:00</t>
+          <t>2026-02-17T10:11:18+00:00</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2659,15 +2671,13 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>€ 2,599</t>
+          <t>LG 65" G5 OLED Evo 4K Smart TV | OLED65G54LW.AEK</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="G38" t="n">
         <v>150</v>
       </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
@@ -2690,7 +2700,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:52+00:00</t>
+          <t>2026-02-17T10:11:18+00:00</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2718,11 +2728,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>LG 65" G5 OLED Evo 4K Smart TV | OLED65G54LW.AEK</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>150</v>
+        <v>2.59</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -2747,7 +2757,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:52+00:00</t>
+          <t>2026-02-17T10:11:18+00:00</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2775,13 +2785,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="G40" t="n">
+        <v>599</v>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
@@ -2804,7 +2816,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:52+00:00</t>
+          <t>2026-02-17T10:11:18+00:00</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2827,24 +2839,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
-      </c>
-      <c r="G41" t="n">
-        <v>599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -2863,7 +2873,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:52+00:00</t>
+          <t>2026-02-17T10:11:20+00:00</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2920,7 +2930,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:54+00:00</t>
+          <t>2026-02-17T10:11:22+00:00</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2943,20 +2953,18 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>€ 998</t>
+          <t>€ 649</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G43" t="n">
-        <v>998</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
@@ -2979,7 +2987,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:57+00:00</t>
+          <t>2026-02-17T10:11:25+00:00</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3002,7 +3010,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3011,11 +3019,9 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G44" t="n">
-        <v>998</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
@@ -3038,7 +3044,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:57+00:00</t>
+          <t>2026-02-17T10:11:25+00:00</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -3066,13 +3072,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>€ 1,119</t>
+          <t>€ 998</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
+        <v>1.04</v>
+      </c>
+      <c r="G45" t="n">
+        <v>998</v>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
@@ -3095,7 +3103,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:57+00:00</t>
+          <t>2026-02-17T10:11:28+00:00</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3127,9 +3135,11 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
+        <v>1.04</v>
+      </c>
+      <c r="G46" t="n">
+        <v>998</v>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
@@ -3152,7 +3162,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2026-02-16T10:15:57+00:00</t>
+          <t>2026-02-17T10:11:28+00:00</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3175,20 +3185,18 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>€ 1,119</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>449</v>
-      </c>
-      <c r="G47" t="n">
-        <v>599</v>
-      </c>
+        <v>1.11</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
@@ -3211,7 +3219,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2026-02-16T10:16:00+00:00</t>
+          <t>2026-02-17T10:11:28+00:00</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3234,16 +3242,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>599</v>
+        <v>1.11</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
@@ -3268,7 +3276,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2026-02-16T10:16:00+00:00</t>
+          <t>2026-02-17T10:11:28+00:00</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3291,18 +3299,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F49" t="n">
+        <v>499</v>
+      </c>
+      <c r="G49" t="n">
         <v>599</v>
       </c>
-      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
@@ -3325,7 +3335,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2026-02-16T10:16:00+00:00</t>
+          <t>2026-02-17T10:11:31+00:00</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3348,16 +3358,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>€ 449</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>449</v>
+        <v>599</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -3382,7 +3392,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2026-02-16T10:16:00+00:00</t>
+          <t>2026-02-17T10:11:31+00:00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3405,7 +3415,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3414,7 +3424,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>449</v>
+        <v>599</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -3439,7 +3449,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2026-02-16T10:16:00+00:00</t>
+          <t>2026-02-17T10:11:31+00:00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3462,16 +3472,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>€ 649</t>
+          <t>€ 499</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>649</v>
+        <v>499</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
@@ -3496,7 +3506,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2026-02-16T10:16:02+00:00</t>
+          <t>2026-02-17T10:11:31+00:00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3519,7 +3529,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3528,7 +3538,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>649</v>
+        <v>499</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
@@ -3553,7 +3563,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2026-02-16T10:16:02+00:00</t>
+          <t>2026-02-17T10:11:31+00:00</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3576,22 +3586,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>€ 1,999</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -3610,7 +3620,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2026-02-16T10:16:05+00:00</t>
+          <t>2026-02-17T10:11:31+00:00</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3618,39 +3628,37 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Weavers of Ireland</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>weaversofireland.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/outlet</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Ladies Wool Peaky Blinders Hat</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>49.95</v>
-      </c>
-      <c r="G55" t="n">
-        <v>49.95</v>
-      </c>
+        <v>1.99</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -3658,18 +3666,18 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>9, Westmoreland Street, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>53.3459126</v>
+        <v>53.2523369</v>
       </c>
       <c r="M55" t="n">
-        <v>-6.2594181</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2026-02-16T10:19:58+00:00</t>
+          <t>2026-02-17T10:11:31+00:00</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3677,35 +3685,37 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ASHA</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>www.stephensgreen.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.stephensgreen.com/dublin-shops/asha/offer</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>OFFERS</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
+          <t>€ 1,549</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1.54</v>
+      </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -3713,18 +3723,18 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>St. Stephen's Green, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>53.3399449</v>
+        <v>53.2523369</v>
       </c>
       <c r="M56" t="n">
-        <v>-6.2614642</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2026-02-16T10:22:21+00:00</t>
+          <t>2026-02-17T10:11:31+00:00</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3732,7 +3742,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3742,21 +3752,25 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/catalog</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Products</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+          <t>€ 599</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>449</v>
+      </c>
+      <c r="G57" t="n">
+        <v>599</v>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
@@ -3768,18 +3782,18 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>53.4071706</v>
+        <v>53.2523369</v>
       </c>
       <c r="M57" t="n">
-        <v>-6.2763987</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2026-02-16T10:22:52+00:00</t>
+          <t>2026-02-17T10:11:34+00:00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3802,23 +3816,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>€ 289</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>99</v>
-      </c>
-      <c r="G58" t="n">
-        <v>289</v>
-      </c>
-      <c r="H58" t="n">
-        <v>10</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -3840,7 +3850,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2026-02-16T10:23:18+00:00</t>
+          <t>2026-02-17T10:11:34+00:00</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3863,16 +3873,16 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>€ 289</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>289</v>
+        <v>599</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
@@ -3897,7 +3907,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2026-02-16T10:23:18+00:00</t>
+          <t>2026-02-17T10:11:34+00:00</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3920,16 +3930,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 449</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>289</v>
+        <v>449</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
@@ -3954,7 +3964,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2026-02-16T10:23:18+00:00</t>
+          <t>2026-02-17T10:11:34+00:00</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3977,20 +3987,18 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>€ 99</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>99</v>
-      </c>
-      <c r="G61" t="n">
-        <v>149</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
@@ -4013,7 +4021,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2026-02-16T10:23:18+00:00</t>
+          <t>2026-02-17T10:11:34+00:00</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -4021,39 +4029,39 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Weavers of Ireland</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>weaversofireland.com</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance</t>
+          <t>https://weaversofireland.com/outlet</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Ladies Wool Peaky Blinders Hat</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>99</v>
+        <v>49.95</v>
       </c>
       <c r="G62" t="n">
-        <v>149</v>
+        <v>49.95</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -4061,18 +4069,18 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>9, Westmoreland Street, Dublin</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>53.2523369</v>
+        <v>53.3459126</v>
       </c>
       <c r="M62" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2594181</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2026-02-16T10:23:18+00:00</t>
+          <t>2026-02-17T10:15:11+00:00</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4080,39 +4088,35 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>ASHA</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.stephensgreen.com</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance</t>
+          <t>https://www.stephensgreen.com/dublin-shops/asha/offer</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>€ 829</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>829</v>
-      </c>
-      <c r="G63" t="n">
-        <v>929</v>
-      </c>
+          <t>OFFERS</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -4120,18 +4124,18 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>St. Stephen's Green, Dublin</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>53.2523369</v>
+        <v>53.3399449</v>
       </c>
       <c r="M63" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2614642</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2026-02-16T10:23:18+00:00</t>
+          <t>2026-02-17T10:17:58+00:00</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4139,7 +4143,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4149,25 +4153,21 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance</t>
+          <t>https://www.ikea.com/ie/en/catalog</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>829</v>
-      </c>
-      <c r="G64" t="n">
-        <v>929</v>
-      </c>
+          <t>Products</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
@@ -4179,18 +4179,18 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M64" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2026-02-16T10:23:18+00:00</t>
+          <t>2026-02-17T10:18:28+00:00</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4218,14 +4218,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>€ 449</t>
+          <t>€ 36.95</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>449</v>
+        <v>36.95</v>
       </c>
       <c r="G65" t="n">
-        <v>499</v>
+        <v>39.95</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2026-02-16T10:23:18+00:00</t>
+          <t>2026-02-17T10:18:54+00:00</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4257,41 +4257,39 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>R&amp;C McCormack</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>celticdublin.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://celticdublin.com/offer</t>
+          <t>https://www.harveynorman.ie/clearance</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Offers</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>36.95</v>
       </c>
       <c r="G66" t="n">
-        <v>100</v>
-      </c>
-      <c r="H66" t="n">
-        <v>15</v>
-      </c>
+        <v>39.95</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -4299,18 +4297,18 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Grafton Street, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>53.3400972</v>
+        <v>53.2523369</v>
       </c>
       <c r="M66" t="n">
-        <v>-6.2605276</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2026-02-16T10:24:48+00:00</t>
+          <t>2026-02-17T10:18:54+00:00</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4318,39 +4316,39 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Weavers of Ireland</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>weaversofireland.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet</t>
+          <t>https://www.harveynorman.ie/clearance</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ladies Wool Peaky Blinders Hat</t>
+          <t>€ 459</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>49.95</v>
+        <v>459</v>
       </c>
       <c r="G67" t="n">
-        <v>49.95</v>
+        <v>479</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -4358,18 +4356,18 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>9, Westmoreland Street, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>53.3459126</v>
+        <v>53.2523369</v>
       </c>
       <c r="M67" t="n">
-        <v>-6.2594181</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:07+00:00</t>
+          <t>2026-02-17T10:18:54+00:00</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4377,41 +4375,39 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Weavers of Ireland</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>weaversofireland.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-him</t>
+          <t>https://www.harveynorman.ie/clearance</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Alpaca Scarf - Grey Herringbone</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>69.95</v>
+        <v>459</v>
       </c>
       <c r="G68" t="n">
-        <v>69.95</v>
-      </c>
-      <c r="H68" t="n">
-        <v>22</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -4419,18 +4415,18 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>9, Westmoreland Street, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>53.3459126</v>
+        <v>53.2523369</v>
       </c>
       <c r="M68" t="n">
-        <v>-6.2594181</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:09+00:00</t>
+          <t>2026-02-17T10:18:54+00:00</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4438,39 +4434,39 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Weavers of Ireland</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>weaversofireland.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
+          <t>https://www.harveynorman.ie/clearance</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Wool and Cashmere Throw</t>
+          <t>€ 99</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>279</v>
+        <v>99</v>
       </c>
       <c r="G69" t="n">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -4478,18 +4474,18 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>9, Westmoreland Street, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>53.3459126</v>
+        <v>53.2523369</v>
       </c>
       <c r="M69" t="n">
-        <v>-6.2594181</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:11+00:00</t>
+          <t>2026-02-17T10:18:54+00:00</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4497,35 +4493,39 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Weavers of Ireland</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>weaversofireland.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
+          <t>https://www.harveynorman.ie/clearance</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Express Shipping Offer</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+          <t>FIND IN STORE</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>99</v>
+      </c>
+      <c r="G70" t="n">
+        <v>149</v>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -4533,18 +4533,18 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>9, Westmoreland Street, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>53.3459126</v>
+        <v>53.2523369</v>
       </c>
       <c r="M70" t="n">
-        <v>-6.2594181</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:14+00:00</t>
+          <t>2026-02-17T10:18:54+00:00</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4552,39 +4552,39 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Weavers of Ireland</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>weaversofireland.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
+          <t>https://www.harveynorman.ie/clearance</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Baby Shepley Aran Headband</t>
+          <t>€ 29.95</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>24.95</v>
+        <v>29.95</v>
       </c>
       <c r="G71" t="n">
-        <v>24.95</v>
+        <v>34.95</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -4592,18 +4592,18 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>9, Westmoreland Street, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>53.3459126</v>
+        <v>53.2523369</v>
       </c>
       <c r="M71" t="n">
-        <v>-6.2594181</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:16+00:00</t>
+          <t>2026-02-17T10:18:54+00:00</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4611,36 +4611,38 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Weavers of Ireland</t>
+          <t>R&amp;C McCormack</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>weaversofireland.com</t>
+          <t>celticdublin.com</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
+          <t>https://celticdublin.com/offer</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ladies Boston Wool Felt Hat</t>
+          <t>Offers</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>79.95</v>
+        <v>100</v>
       </c>
       <c r="G72" t="n">
-        <v>79.95</v>
-      </c>
-      <c r="H72" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="H72" t="n">
+        <v>15</v>
+      </c>
       <c r="I72" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -4651,18 +4653,18 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>9, Westmoreland Street, Dublin</t>
+          <t>Grafton Street, Dublin</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>53.3459126</v>
+        <v>53.3400972</v>
       </c>
       <c r="M72" t="n">
-        <v>-6.2594181</v>
+        <v>-6.2605276</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:18+00:00</t>
+          <t>2026-02-17T10:20:30+00:00</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4685,19 +4687,19 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-her</t>
+          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Cable Knit Crew Neck Aran Wool Sweater</t>
+          <t>Baby Shepley Aran Headband</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>66.95</v>
+        <v>24.95</v>
       </c>
       <c r="G73" t="n">
-        <v>66.95</v>
+        <v>24.95</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
@@ -4721,7 +4723,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:20+00:00</t>
+          <t>2026-02-17T10:20:49+00:00</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4744,19 +4746,21 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/blogs/blog/irish-wool-what-makes-it-special-and-why-it-s-perfect-for-march-weather</t>
+          <t>https://weaversofireland.com/collections/outlet-for-her</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Irish Wool: What Makes it Special and Why it’s Perfect for March Weather</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="n">
-        <v>100</v>
-      </c>
+          <t>Cable Knit Crew Neck Aran Wool Sweater</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>66.95</v>
+      </c>
+      <c r="G74" t="n">
+        <v>66.95</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -4778,7 +4782,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:22+00:00</t>
+          <t>2026-02-17T10:20:51+00:00</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4786,35 +4790,39 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Weavers of Ireland</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>weaversofireland.com</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/food/salesareas/restaurant/?categories=SC017</t>
+          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Swedish Restaurant</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+          <t>Wool and Cashmere Throw</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>279</v>
+      </c>
+      <c r="G75" t="n">
+        <v>279</v>
+      </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J75" t="b">
@@ -4822,18 +4830,18 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>9, Westmoreland Street, Dublin</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>53.4071706</v>
+        <v>53.3459126</v>
       </c>
       <c r="M75" t="n">
-        <v>-6.2763987</v>
+        <v>-6.2594181</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:23+00:00</t>
+          <t>2026-02-17T10:20:53+00:00</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4841,39 +4849,35 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Weavers of Ireland</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>weaversofireland.com</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
+          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ÅBÄCKEN Mist nozzle for mixer tap</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>6</v>
-      </c>
-      <c r="G76" t="n">
-        <v>6</v>
-      </c>
+          <t>Express Shipping Offer</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -4881,18 +4885,18 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>9, Westmoreland Street, Dublin</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>53.4071706</v>
+        <v>53.3459126</v>
       </c>
       <c r="M76" t="n">
-        <v>-6.2763987</v>
+        <v>-6.2594181</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:26+00:00</t>
+          <t>2026-02-17T10:20:55+00:00</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4900,39 +4904,37 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Weavers of Ireland</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>weaversofireland.com</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
+          <t>https://weaversofireland.com/blogs/blog/irish-wool-what-makes-it-special-and-why-it-s-perfect-for-march-weather</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>DALSKÄR Wash-basin mixer tap</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>75</v>
-      </c>
-      <c r="G77" t="n">
-        <v>75</v>
-      </c>
-      <c r="H77" t="inlineStr"/>
+          <t>Irish Wool: What Makes it Special and Why it’s Perfect for March Weather</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="n">
+        <v>100</v>
+      </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -4940,18 +4942,18 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>9, Westmoreland Street, Dublin</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>53.4071706</v>
+        <v>53.3459126</v>
       </c>
       <c r="M77" t="n">
-        <v>-6.2763987</v>
+        <v>-6.2594181</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:26+00:00</t>
+          <t>2026-02-17T10:20:57+00:00</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4959,41 +4961,41 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Weavers of Ireland</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>weaversofireland.com</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
+          <t>https://weaversofireland.com/collections/outlet-for-him</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>LILLHAVET Washing-up bowl</t>
+          <t>Alpaca Scarf - Grey Herringbone</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>6</v>
+        <v>69.95</v>
       </c>
       <c r="G78" t="n">
-        <v>6</v>
+        <v>69.95</v>
       </c>
       <c r="H78" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J78" t="b">
@@ -5001,18 +5003,18 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>9, Westmoreland Street, Dublin</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>53.4071706</v>
+        <v>53.3459126</v>
       </c>
       <c r="M78" t="n">
-        <v>-6.2763987</v>
+        <v>-6.2594181</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:26+00:00</t>
+          <t>2026-02-17T10:20:59+00:00</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -5020,39 +5022,39 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Weavers of Ireland</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>weaversofireland.com</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
+          <t>https://weaversofireland.com/collections/outlet</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>IKEA PS 2002 Watering can, 1.2 l</t>
+          <t>Ladies Wool Peaky Blinders Hat</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>49.95</v>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>49.95</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -5060,18 +5062,18 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>9, Westmoreland Street, Dublin</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>53.4071706</v>
+        <v>53.3459126</v>
       </c>
       <c r="M79" t="n">
-        <v>-6.2763987</v>
+        <v>-6.2594181</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:26+00:00</t>
+          <t>2026-02-17T10:21:01+00:00</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -5079,41 +5081,39 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Weavers of Ireland</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>weaversofireland.com</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/homeware-clearance/?mega-menu</t>
+          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>€ 15</t>
+          <t>Ladies Boston Wool Felt Hat</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>15</v>
+        <v>79.95</v>
       </c>
       <c r="G80" t="n">
-        <v>45</v>
-      </c>
-      <c r="H80" t="n">
-        <v>100</v>
-      </c>
+        <v>79.95</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -5121,18 +5121,18 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>9, Westmoreland Street, Dublin</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>53.2523369</v>
+        <v>53.3459126</v>
       </c>
       <c r="M80" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2594181</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:29+00:00</t>
+          <t>2026-02-17T10:21:03+00:00</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -5140,7 +5140,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5150,24 +5150,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/homeware-clearance/?mega-menu</t>
+          <t>https://www.ikea.com/ie/en/food/salesareas/restaurant/?categories=SC017</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>Swedish Restaurant</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="n">
-        <v>100</v>
-      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5178,18 +5176,18 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M81" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:29+00:00</t>
+          <t>2026-02-17T10:21:05+00:00</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -5197,7 +5195,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5207,24 +5205,24 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/homeware-clearance/?mega-menu</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>ÅBÄCKEN Mist nozzle for mixer tap</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G82" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
@@ -5237,18 +5235,18 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M82" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:29+00:00</t>
+          <t>2026-02-17T10:21:07+00:00</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -5256,7 +5254,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5266,28 +5264,26 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/homeware-clearance/?mega-menu</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>€ 25</t>
+          <t>DALSKÄR Wash-basin mixer tap</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G83" t="n">
-        <v>70</v>
-      </c>
-      <c r="H83" t="n">
-        <v>100</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5298,18 +5294,18 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M83" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:29+00:00</t>
+          <t>2026-02-17T10:21:07+00:00</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -5317,7 +5313,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5327,26 +5323,28 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/homeware-clearance/?mega-menu</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>LILLHAVET Washing-up bowl</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G84" t="n">
-        <v>70</v>
-      </c>
-      <c r="H84" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H84" t="n">
+        <v>50</v>
+      </c>
       <c r="I84" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5357,18 +5355,18 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M84" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:29+00:00</t>
+          <t>2026-02-17T10:21:07+00:00</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
@@ -5376,7 +5374,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5386,24 +5384,24 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/homeware-clearance/?mega-menu</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>€ 15</t>
+          <t>IKEA PS 2002 Watering can, 1.2 l</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G85" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
@@ -5416,18 +5414,18 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M85" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:29+00:00</t>
+          <t>2026-02-17T10:21:07+00:00</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
@@ -5450,20 +5448,18 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
+          <t>https://www.harveynorman.ie/corporate-information/online-sale-terms.html</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>€ 291.99</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>41.99</v>
-      </c>
-      <c r="G86" t="n">
-        <v>291.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
@@ -5486,7 +5482,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:36+00:00</t>
+          <t>2026-02-17T10:21:09+00:00</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
@@ -5509,22 +5505,24 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
+          <t>https://www.harveynorman.ie/clearance/computers-tech-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>€ 291.99</t>
+          <t>€ 36.95</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>291.99</v>
-      </c>
-      <c r="G87" t="inlineStr"/>
+        <v>36.95</v>
+      </c>
+      <c r="G87" t="n">
+        <v>39.95</v>
+      </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -5543,7 +5541,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:36+00:00</t>
+          <t>2026-02-17T10:21:13+00:00</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -5566,22 +5564,24 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
+          <t>https://www.harveynorman.ie/clearance/computers-tech-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Add to wish list</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>291.99</v>
-      </c>
-      <c r="G88" t="inlineStr"/>
+        <v>36.95</v>
+      </c>
+      <c r="G88" t="n">
+        <v>39.95</v>
+      </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J88" t="b">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:36+00:00</t>
+          <t>2026-02-17T10:21:13+00:00</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
@@ -5623,22 +5623,24 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
+          <t>https://www.harveynorman.ie/clearance/computers-tech-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>€ 41.99</t>
+          <t>€ 459</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>41.99</v>
-      </c>
-      <c r="G89" t="inlineStr"/>
+        <v>459</v>
+      </c>
+      <c r="G89" t="n">
+        <v>479</v>
+      </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -5657,7 +5659,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:36+00:00</t>
+          <t>2026-02-17T10:21:13+00:00</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -5680,22 +5682,24 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
+          <t>https://www.harveynorman.ie/clearance/computers-tech-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Add to wish list</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>41.99</v>
-      </c>
-      <c r="G90" t="inlineStr"/>
+        <v>459</v>
+      </c>
+      <c r="G90" t="n">
+        <v>479</v>
+      </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -5714,7 +5718,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:36+00:00</t>
+          <t>2026-02-17T10:21:13+00:00</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
@@ -5737,22 +5741,24 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
+          <t>https://www.harveynorman.ie/clearance/computers-tech-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>€ 77.99</t>
+          <t>€ 99</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="G91" t="inlineStr"/>
+        <v>99</v>
+      </c>
+      <c r="G91" t="n">
+        <v>149</v>
+      </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J91" t="b">
@@ -5771,7 +5777,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:36+00:00</t>
+          <t>2026-02-17T10:21:13+00:00</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
@@ -5794,22 +5800,24 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
+          <t>https://www.harveynorman.ie/clearance/computers-tech-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Add to wish list</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="G92" t="inlineStr"/>
+        <v>99</v>
+      </c>
+      <c r="G92" t="n">
+        <v>149</v>
+      </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J92" t="b">
@@ -5828,7 +5836,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:36+00:00</t>
+          <t>2026-02-17T10:21:13+00:00</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
@@ -5851,22 +5859,24 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
+          <t>https://www.harveynorman.ie/clearance/computers-tech-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>€ 64.99</t>
+          <t>€ 29.95</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>64.98999999999999</v>
-      </c>
-      <c r="G93" t="inlineStr"/>
+        <v>29.95</v>
+      </c>
+      <c r="G93" t="n">
+        <v>34.95</v>
+      </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J93" t="b">
@@ -5885,7 +5895,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:36+00:00</t>
+          <t>2026-02-17T10:21:13+00:00</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
@@ -5946,7 +5956,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:40+00:00</t>
+          <t>2026-02-17T10:21:14+00:00</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
@@ -6005,7 +6015,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:40+00:00</t>
+          <t>2026-02-17T10:21:14+00:00</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
@@ -6064,7 +6074,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:40+00:00</t>
+          <t>2026-02-17T10:21:14+00:00</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
@@ -6121,7 +6131,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:40+00:00</t>
+          <t>2026-02-17T10:21:14+00:00</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
@@ -6178,7 +6188,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:40+00:00</t>
+          <t>2026-02-17T10:21:15+00:00</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
@@ -6239,7 +6249,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:41+00:00</t>
+          <t>2026-02-17T10:21:16+00:00</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
@@ -6298,7 +6308,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:41+00:00</t>
+          <t>2026-02-17T10:21:16+00:00</t>
         </is>
       </c>
       <c r="O100" t="inlineStr"/>
@@ -6357,7 +6367,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:41+00:00</t>
+          <t>2026-02-17T10:21:16+00:00</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
@@ -6414,7 +6424,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:41+00:00</t>
+          <t>2026-02-17T10:21:16+00:00</t>
         </is>
       </c>
       <c r="O102" t="inlineStr"/>
@@ -6471,7 +6481,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:41+00:00</t>
+          <t>2026-02-17T10:21:16+00:00</t>
         </is>
       </c>
       <c r="O103" t="inlineStr"/>
@@ -6494,26 +6504,26 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/black-friday-picks</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>3.49</v>
+        <v>1.39</v>
       </c>
       <c r="G104" t="n">
-        <v>4.99</v>
+        <v>1.59</v>
       </c>
       <c r="H104" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J104" t="b">
@@ -6532,7 +6542,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:43+00:00</t>
+          <t>2026-02-17T10:21:18+00:00</t>
         </is>
       </c>
       <c r="O104" t="inlineStr"/>
@@ -6560,7 +6570,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -6569,9 +6579,7 @@
       <c r="G105" t="n">
         <v>1.59</v>
       </c>
-      <c r="H105" t="n">
-        <v>15</v>
-      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6593,7 +6601,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:45+00:00</t>
+          <t>2026-02-17T10:21:18+00:00</t>
         </is>
       </c>
       <c r="O105" t="inlineStr"/>
@@ -6621,7 +6629,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -6652,7 +6660,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:45+00:00</t>
+          <t>2026-02-17T10:21:18+00:00</t>
         </is>
       </c>
       <c r="O106" t="inlineStr"/>
@@ -6680,15 +6688,13 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Rocks Diamond &amp; Gemstone Floral Necklace</t>
         </is>
       </c>
       <c r="F107" t="n">
         <v>1.39</v>
       </c>
-      <c r="G107" t="n">
-        <v>1.59</v>
-      </c>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
@@ -6711,7 +6717,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:45+00:00</t>
+          <t>2026-02-17T10:21:18+00:00</t>
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
@@ -6734,22 +6740,26 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Rocks Diamond &amp; Gemstone Floral Necklace</t>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
+        <v>3.49</v>
+      </c>
+      <c r="G108" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H108" t="n">
+        <v>31</v>
+      </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J108" t="b">
@@ -6768,7 +6778,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:45+00:00</t>
+          <t>2026-02-17T10:21:19+00:00</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
@@ -6791,7 +6801,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
+          <t>https://rocks.ie/collections/black-friday-picks</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6829,7 +6839,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:46+00:00</t>
+          <t>2026-02-17T10:21:21+00:00</t>
         </is>
       </c>
       <c r="O109" t="inlineStr"/>
@@ -6890,7 +6900,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:48+00:00</t>
+          <t>2026-02-17T10:21:23+00:00</t>
         </is>
       </c>
       <c r="O110" t="inlineStr"/>
@@ -6949,7 +6959,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:48+00:00</t>
+          <t>2026-02-17T10:21:23+00:00</t>
         </is>
       </c>
       <c r="O111" t="inlineStr"/>
@@ -7008,7 +7018,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:48+00:00</t>
+          <t>2026-02-17T10:21:23+00:00</t>
         </is>
       </c>
       <c r="O112" t="inlineStr"/>
@@ -7065,7 +7075,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:48+00:00</t>
+          <t>2026-02-17T10:21:23+00:00</t>
         </is>
       </c>
       <c r="O113" t="inlineStr"/>
@@ -7088,7 +7098,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
+          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -7120,7 +7130,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:50+00:00</t>
+          <t>2026-02-17T10:21:24+00:00</t>
         </is>
       </c>
       <c r="O114" t="inlineStr"/>
@@ -7143,7 +7153,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
+          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -7175,7 +7185,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2026-02-16T10:25:51+00:00</t>
+          <t>2026-02-17T10:21:25+00:00</t>
         </is>
       </c>
       <c r="O115" t="inlineStr"/>

--- a/deals.xlsx
+++ b/deals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O115"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2026-02-17T10:08:18+00:00</t>
+          <t>2026-02-18T10:08:03+00:00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2026-02-17T10:08:18+00:00</t>
+          <t>2026-02-18T10:08:03+00:00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -682,7 +682,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2026-02-17T10:08:18+00:00</t>
+          <t>2026-02-18T10:08:03+00:00</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -741,7 +741,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2026-02-17T10:08:18+00:00</t>
+          <t>2026-02-18T10:08:03+00:00</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -769,15 +769,13 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>€ 499</t>
+          <t>Bordeaux Bed Frame | King | 5ft | Grey</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="G6" t="n">
-        <v>499</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
@@ -800,7 +798,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2026-02-17T10:08:18+00:00</t>
+          <t>2026-02-18T10:08:03+00:00</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -859,7 +857,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2026-02-17T10:08:18+00:00</t>
+          <t>2026-02-18T10:08:03+00:00</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -916,7 +914,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2026-02-17T10:08:18+00:00</t>
+          <t>2026-02-18T10:08:03+00:00</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -971,7 +969,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2026-02-17T10:10:13+00:00</t>
+          <t>2026-02-18T10:09:48+00:00</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1032,7 +1030,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2026-02-17T10:10:18+00:00</t>
+          <t>2026-02-18T10:09:54+00:00</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1093,7 +1091,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2026-02-17T10:10:18+00:00</t>
+          <t>2026-02-18T10:09:54+00:00</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1154,7 +1152,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2026-02-17T10:10:18+00:00</t>
+          <t>2026-02-18T10:09:54+00:00</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1215,7 +1213,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2026-02-17T10:10:18+00:00</t>
+          <t>2026-02-18T10:09:54+00:00</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1276,7 +1274,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2026-02-17T10:10:57+00:00</t>
+          <t>2026-02-18T10:10:37+00:00</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1299,12 +1297,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>NORDBERGET Mattress pad, Standard King</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1337,7 +1335,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:03+00:00</t>
+          <t>2026-02-18T10:10:44+00:00</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1360,22 +1358,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10779</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>127</v>
+        <v>25.5</v>
       </c>
       <c r="H16" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1398,7 +1396,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:05+00:00</t>
+          <t>2026-02-18T10:10:44+00:00</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1421,17 +1419,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Re-shop and Re-use</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>20</v>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -1453,7 +1457,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:07+00:00</t>
+          <t>2026-02-18T10:10:44+00:00</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1476,22 +1480,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, Standard King</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>127</v>
+        <v>29.75</v>
       </c>
       <c r="H18" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1514,7 +1518,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:08+00:00</t>
+          <t>2026-02-18T10:10:44+00:00</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1537,22 +1541,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10779</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="G19" t="n">
-        <v>25.5</v>
+        <v>127</v>
       </c>
       <c r="H19" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1575,7 +1579,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:08+00:00</t>
+          <t>2026-02-18T10:10:46+00:00</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1598,23 +1602,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
-      </c>
-      <c r="G20" t="n">
-        <v>8</v>
-      </c>
-      <c r="H20" t="n">
-        <v>20</v>
-      </c>
+          <t>Re-shop and Re-use</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -1636,7 +1634,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:08+00:00</t>
+          <t>2026-02-18T10:10:49+00:00</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1659,22 +1657,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="G21" t="n">
-        <v>29.75</v>
+        <v>127</v>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1697,7 +1695,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:08+00:00</t>
+          <t>2026-02-18T10:10:50+00:00</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1720,7 +1718,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1758,7 +1756,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:10+00:00</t>
+          <t>2026-02-18T10:10:51+00:00</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1781,12 +1779,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>NORDBERGET Mattress pad, Standard King</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1819,7 +1817,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:12+00:00</t>
+          <t>2026-02-18T10:10:53+00:00</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1842,22 +1840,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, Standard King</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="G24" t="n">
-        <v>127</v>
+        <v>25.5</v>
       </c>
       <c r="H24" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1880,7 +1878,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:13+00:00</t>
+          <t>2026-02-18T10:10:53+00:00</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1903,22 +1901,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G25" t="n">
-        <v>25.5</v>
+        <v>8</v>
       </c>
       <c r="H25" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1941,7 +1939,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:13+00:00</t>
+          <t>2026-02-18T10:10:53+00:00</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1964,22 +1962,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G26" t="n">
-        <v>8</v>
+        <v>29.75</v>
       </c>
       <c r="H26" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2002,7 +2000,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:13+00:00</t>
+          <t>2026-02-18T10:10:53+00:00</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -2025,22 +2023,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="G27" t="n">
-        <v>29.75</v>
+        <v>127</v>
       </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2063,7 +2061,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:13+00:00</t>
+          <t>2026-02-18T10:10:55+00:00</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -2086,7 +2084,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2124,7 +2122,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:15+00:00</t>
+          <t>2026-02-18T10:10:56+00:00</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2147,24 +2145,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/promotions.html</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>€ 1,799</t>
+          <t>Current sales and promotions</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="G29" t="n">
-        <v>150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -2183,7 +2179,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:18+00:00</t>
+          <t>2026-02-18T10:10:58+00:00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2211,13 +2207,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>LG 65" OLED Evo AI C5 4K Smart TV | OLED65C54LA.AEK</t>
+          <t>€ 1,799</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G30" t="n">
         <v>150</v>
       </c>
-      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
@@ -2240,7 +2238,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:18+00:00</t>
+          <t>2026-02-18T10:11:00+00:00</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2268,7 +2266,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>LG 65" OLED Evo AI C5 4K Smart TV | OLED65C54LA.AEK</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2297,7 +2295,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:18+00:00</t>
+          <t>2026-02-18T10:11:00+00:00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2325,11 +2323,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.79</v>
+        <v>150</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -2354,7 +2352,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:18+00:00</t>
+          <t>2026-02-18T10:11:00+00:00</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2382,15 +2380,13 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>€ 1,299</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="G33" t="n">
-        <v>100</v>
-      </c>
+        <v>1.79</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
@@ -2413,7 +2409,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:18+00:00</t>
+          <t>2026-02-18T10:11:00+00:00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2441,13 +2437,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>LG 55" OLED Evo AI C5 4K Smart TV | OLED55C54LA.AEK</t>
+          <t>€ 1,299</t>
         </is>
       </c>
       <c r="F34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G34" t="n">
         <v>100</v>
       </c>
-      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
@@ -2470,7 +2468,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:18+00:00</t>
+          <t>2026-02-18T10:11:00+00:00</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2498,7 +2496,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>LG 55" OLED Evo AI C5 4K Smart TV | OLED55C54LA.AEK</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2527,7 +2525,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:18+00:00</t>
+          <t>2026-02-18T10:11:00+00:00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2555,11 +2553,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.29</v>
+        <v>100</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -2584,7 +2582,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:18+00:00</t>
+          <t>2026-02-18T10:11:00+00:00</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2612,15 +2610,13 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>€ 2,599</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="G37" t="n">
-        <v>150</v>
-      </c>
+        <v>1.29</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
@@ -2643,7 +2639,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:18+00:00</t>
+          <t>2026-02-18T10:11:00+00:00</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2671,13 +2667,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>LG 65" G5 OLED Evo 4K Smart TV | OLED65G54LW.AEK</t>
+          <t>€ 2,599</t>
         </is>
       </c>
       <c r="F38" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G38" t="n">
         <v>150</v>
       </c>
-      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
@@ -2700,7 +2698,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:18+00:00</t>
+          <t>2026-02-18T10:11:00+00:00</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2728,11 +2726,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>LG 65" G5 OLED Evo 4K Smart TV | OLED65G54LW.AEK</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.59</v>
+        <v>150</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -2757,7 +2755,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:18+00:00</t>
+          <t>2026-02-18T10:11:00+00:00</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2785,15 +2783,13 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>50</v>
-      </c>
-      <c r="G40" t="n">
-        <v>599</v>
-      </c>
+        <v>2.59</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
@@ -2816,7 +2812,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:18+00:00</t>
+          <t>2026-02-18T10:11:00+00:00</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2839,22 +2835,24 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="G41" t="n">
+        <v>599</v>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -2873,7 +2871,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:20+00:00</t>
+          <t>2026-02-18T10:11:00+00:00</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2896,22 +2894,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Current sales and promotions</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="G42" t="n">
+        <v>599</v>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:22+00:00</t>
+          <t>2026-02-18T10:11:04+00:00</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2953,16 +2953,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>€ 649</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>649</v>
+        <v>599</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:25+00:00</t>
+          <t>2026-02-18T10:11:04+00:00</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3019,7 +3019,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>649</v>
+        <v>599</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:25+00:00</t>
+          <t>2026-02-18T10:11:04+00:00</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -3067,20 +3067,18 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>€ 998</t>
+          <t>€ 499</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G45" t="n">
-        <v>998</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
@@ -3103,7 +3101,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:28+00:00</t>
+          <t>2026-02-18T10:11:04+00:00</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3126,7 +3124,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3135,11 +3133,9 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G46" t="n">
-        <v>998</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
@@ -3162,7 +3158,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:28+00:00</t>
+          <t>2026-02-18T10:11:04+00:00</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3185,16 +3181,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>€ 1,119</t>
+          <t>€ 1,999</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.11</v>
+        <v>1.99</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -3219,7 +3215,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:28+00:00</t>
+          <t>2026-02-18T10:11:04+00:00</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3242,7 +3238,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3251,7 +3247,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.11</v>
+        <v>1.99</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
@@ -3276,7 +3272,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:28+00:00</t>
+          <t>2026-02-18T10:11:04+00:00</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3304,15 +3300,13 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>€ 1,549</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>499</v>
-      </c>
-      <c r="G49" t="n">
-        <v>599</v>
-      </c>
+        <v>1.54</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
@@ -3335,7 +3329,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:31+00:00</t>
+          <t>2026-02-18T10:11:04+00:00</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3358,16 +3352,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>€ 649</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>599</v>
+        <v>649</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -3392,7 +3386,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:31+00:00</t>
+          <t>2026-02-18T10:11:07+00:00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3415,7 +3409,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3424,7 +3418,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>599</v>
+        <v>649</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -3449,7 +3443,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:31+00:00</t>
+          <t>2026-02-18T10:11:07+00:00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3472,18 +3466,20 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>€ 499</t>
+          <t>€ 449</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>499</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
+        <v>449</v>
+      </c>
+      <c r="G52" t="n">
+        <v>599</v>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
@@ -3506,7 +3502,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:31+00:00</t>
+          <t>2026-02-18T10:11:10+00:00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3529,16 +3525,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 449</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>499</v>
+        <v>449</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
@@ -3563,7 +3559,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:31+00:00</t>
+          <t>2026-02-18T10:11:10+00:00</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3586,16 +3582,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>€ 1,999</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.99</v>
+        <v>449</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -3620,7 +3616,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:31+00:00</t>
+          <t>2026-02-18T10:11:10+00:00</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3643,16 +3639,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.99</v>
+        <v>599</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -3677,7 +3673,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:31+00:00</t>
+          <t>2026-02-18T10:11:10+00:00</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3700,16 +3696,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>€ 1,549</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.54</v>
+        <v>599</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
@@ -3734,7 +3730,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:31+00:00</t>
+          <t>2026-02-18T10:11:10+00:00</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3757,24 +3753,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>449</v>
-      </c>
-      <c r="G57" t="n">
-        <v>599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -3793,7 +3787,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:34+00:00</t>
+          <t>2026-02-18T10:11:12+00:00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3816,18 +3810,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>€ 998</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>599</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
+        <v>1.04</v>
+      </c>
+      <c r="G58" t="n">
+        <v>998</v>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
@@ -3850,7 +3846,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:34+00:00</t>
+          <t>2026-02-18T10:11:15+00:00</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3873,7 +3869,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3882,9 +3878,11 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>599</v>
-      </c>
-      <c r="G59" t="inlineStr"/>
+        <v>1.04</v>
+      </c>
+      <c r="G59" t="n">
+        <v>998</v>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
@@ -3907,7 +3905,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:34+00:00</t>
+          <t>2026-02-18T10:11:15+00:00</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3930,16 +3928,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>€ 449</t>
+          <t>€ 1,119</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>449</v>
+        <v>1.11</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
@@ -3964,7 +3962,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:34+00:00</t>
+          <t>2026-02-18T10:11:15+00:00</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3987,7 +3985,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3996,7 +3994,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>449</v>
+        <v>1.11</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -4021,7 +4019,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2026-02-17T10:11:34+00:00</t>
+          <t>2026-02-18T10:11:15+00:00</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -4080,7 +4078,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2026-02-17T10:15:11+00:00</t>
+          <t>2026-02-18T10:14:52+00:00</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4135,7 +4133,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2026-02-17T10:17:58+00:00</t>
+          <t>2026-02-18T10:17:23+00:00</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4190,7 +4188,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2026-02-17T10:18:28+00:00</t>
+          <t>2026-02-18T10:17:54+00:00</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4227,7 +4225,9 @@
       <c r="G65" t="n">
         <v>39.95</v>
       </c>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>100</v>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2026-02-17T10:18:54+00:00</t>
+          <t>2026-02-18T10:18:21+00:00</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 36.95</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2026-02-17T10:18:54+00:00</t>
+          <t>2026-02-18T10:18:21+00:00</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4336,14 +4336,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>€ 459</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>459</v>
+        <v>36.95</v>
       </c>
       <c r="G67" t="n">
-        <v>479</v>
+        <v>39.95</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2026-02-17T10:18:54+00:00</t>
+          <t>2026-02-18T10:18:21+00:00</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 459</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2026-02-17T10:18:54+00:00</t>
+          <t>2026-02-18T10:18:21+00:00</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4454,14 +4454,14 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>€ 99</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>99</v>
+        <v>459</v>
       </c>
       <c r="G69" t="n">
-        <v>149</v>
+        <v>479</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2026-02-17T10:18:54+00:00</t>
+          <t>2026-02-18T10:18:21+00:00</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4513,14 +4513,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 29.95</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>99</v>
+        <v>29.95</v>
       </c>
       <c r="G70" t="n">
-        <v>149</v>
+        <v>34.95</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2026-02-17T10:18:54+00:00</t>
+          <t>2026-02-18T10:18:21+00:00</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>€ 29.95</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2026-02-17T10:18:54+00:00</t>
+          <t>2026-02-18T10:18:21+00:00</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2026-02-17T10:20:30+00:00</t>
+          <t>2026-02-18T10:20:04+00:00</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4687,19 +4687,19 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
+          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Baby Shepley Aran Headband</t>
+          <t>Wool and Cashmere Throw</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>24.95</v>
+        <v>279</v>
       </c>
       <c r="G73" t="n">
-        <v>24.95</v>
+        <v>279</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2026-02-17T10:20:49+00:00</t>
+          <t>2026-02-18T10:20:26+00:00</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2026-02-17T10:20:51+00:00</t>
+          <t>2026-02-18T10:20:28+00:00</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4805,20 +4805,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
+          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Wool and Cashmere Throw</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>279</v>
-      </c>
-      <c r="G75" t="n">
-        <v>279</v>
-      </c>
+          <t>Express Shipping Offer</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
@@ -4841,7 +4837,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2026-02-17T10:20:53+00:00</t>
+          <t>2026-02-18T10:20:29+00:00</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4864,16 +4860,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
+          <t>https://weaversofireland.com/collections/outlet</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Express Shipping Offer</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+          <t>Ladies Wool Peaky Blinders Hat</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="G76" t="n">
+        <v>49.95</v>
+      </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2026-02-17T10:20:55+00:00</t>
+          <t>2026-02-18T10:20:32+00:00</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4919,19 +4919,21 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/blogs/blog/irish-wool-what-makes-it-special-and-why-it-s-perfect-for-march-weather</t>
+          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Irish Wool: What Makes it Special and Why it’s Perfect for March Weather</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="n">
-        <v>100</v>
-      </c>
+          <t>Baby Shepley Aran Headband</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="G77" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -4953,7 +4955,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2026-02-17T10:20:57+00:00</t>
+          <t>2026-02-18T10:20:34+00:00</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4976,22 +4978,18 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-him</t>
+          <t>https://weaversofireland.com/blogs/blog/irish-wool-what-makes-it-special-and-why-it-s-perfect-for-march-weather</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Alpaca Scarf - Grey Herringbone</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>69.95</v>
-      </c>
-      <c r="G78" t="n">
-        <v>69.95</v>
-      </c>
+          <t>Irish Wool: What Makes it Special and Why it’s Perfect for March Weather</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -5014,7 +5012,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2026-02-17T10:20:59+00:00</t>
+          <t>2026-02-18T10:20:36+00:00</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -5037,19 +5035,19 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet</t>
+          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ladies Wool Peaky Blinders Hat</t>
+          <t>Ladies Boston Wool Felt Hat</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>49.95</v>
+        <v>79.95</v>
       </c>
       <c r="G79" t="n">
-        <v>49.95</v>
+        <v>79.95</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
@@ -5073,7 +5071,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:01+00:00</t>
+          <t>2026-02-18T10:20:38+00:00</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -5096,21 +5094,23 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
+          <t>https://weaversofireland.com/collections/outlet-for-him</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ladies Boston Wool Felt Hat</t>
+          <t>Alpaca Scarf - Grey Herringbone</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>79.95</v>
+        <v>69.95</v>
       </c>
       <c r="G80" t="n">
-        <v>79.95</v>
-      </c>
-      <c r="H80" t="inlineStr"/>
+        <v>69.95</v>
+      </c>
+      <c r="H80" t="n">
+        <v>22</v>
+      </c>
       <c r="I80" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:03+00:00</t>
+          <t>2026-02-18T10:20:40+00:00</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:05+00:00</t>
+          <t>2026-02-18T10:20:42+00:00</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:07+00:00</t>
+          <t>2026-02-18T10:20:45+00:00</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:07+00:00</t>
+          <t>2026-02-18T10:20:45+00:00</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:07+00:00</t>
+          <t>2026-02-18T10:20:45+00:00</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:07+00:00</t>
+          <t>2026-02-18T10:20:45+00:00</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
@@ -5448,22 +5448,24 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/corporate-information/online-sale-terms.html</t>
+          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>€ 249</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="G86" t="n">
+        <v>269</v>
+      </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -5482,7 +5484,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:09+00:00</t>
+          <t>2026-02-18T10:20:48+00:00</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
@@ -5505,19 +5507,19 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/computers-tech-clearance/?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>€ 36.95</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>36.95</v>
+        <v>249</v>
       </c>
       <c r="G87" t="n">
-        <v>39.95</v>
+        <v>269</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
@@ -5541,7 +5543,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:13+00:00</t>
+          <t>2026-02-18T10:20:48+00:00</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -5564,19 +5566,19 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/computers-tech-clearance/?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 149</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>36.95</v>
+        <v>149</v>
       </c>
       <c r="G88" t="n">
-        <v>39.95</v>
+        <v>239</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
@@ -5600,7 +5602,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:13+00:00</t>
+          <t>2026-02-18T10:20:48+00:00</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
@@ -5623,19 +5625,19 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/computers-tech-clearance/?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>€ 459</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>459</v>
+        <v>149</v>
       </c>
       <c r="G89" t="n">
-        <v>479</v>
+        <v>239</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
@@ -5659,7 +5661,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:13+00:00</t>
+          <t>2026-02-18T10:20:48+00:00</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -5682,19 +5684,19 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/computers-tech-clearance/?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 499</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="G90" t="n">
-        <v>479</v>
+        <v>629</v>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
@@ -5718,7 +5720,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:13+00:00</t>
+          <t>2026-02-18T10:20:48+00:00</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
@@ -5741,19 +5743,19 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/computers-tech-clearance/?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>€ 99</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>99</v>
+        <v>499</v>
       </c>
       <c r="G91" t="n">
-        <v>149</v>
+        <v>629</v>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
@@ -5777,7 +5779,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:13+00:00</t>
+          <t>2026-02-18T10:20:48+00:00</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
@@ -5800,19 +5802,19 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/computers-tech-clearance/?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 499</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>99</v>
+        <v>499</v>
       </c>
       <c r="G92" t="n">
-        <v>149</v>
+        <v>549</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
@@ -5836,7 +5838,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:13+00:00</t>
+          <t>2026-02-18T10:20:48+00:00</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
@@ -5859,21 +5861,23 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/computers-tech-clearance/?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance?mega-menu</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>€ 29.95</t>
+          <t>€ 36.95</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>29.95</v>
+        <v>36.95</v>
       </c>
       <c r="G93" t="n">
-        <v>34.95</v>
-      </c>
-      <c r="H93" t="inlineStr"/>
+        <v>39.95</v>
+      </c>
+      <c r="H93" t="n">
+        <v>100</v>
+      </c>
       <c r="I93" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5895,7 +5899,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:13+00:00</t>
+          <t>2026-02-18T10:20:52+00:00</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
@@ -5903,38 +5907,36 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/clearance?mega-menu</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
+          <t>€ 36.95</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.25</v>
+        <v>36.95</v>
       </c>
       <c r="G94" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="H94" t="n">
-        <v>15</v>
-      </c>
+        <v>39.95</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5945,18 +5947,18 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M94" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:14+00:00</t>
+          <t>2026-02-18T10:20:52+00:00</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
@@ -5964,34 +5966,34 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/clearance?mega-menu</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.25</v>
+        <v>36.95</v>
       </c>
       <c r="G95" t="n">
-        <v>3.29</v>
+        <v>39.95</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
@@ -6004,18 +6006,18 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M95" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:14+00:00</t>
+          <t>2026-02-18T10:20:52+00:00</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
@@ -6023,34 +6025,34 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/clearance?mega-menu</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>€ 459</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.25</v>
+        <v>459</v>
       </c>
       <c r="G96" t="n">
-        <v>3.29</v>
+        <v>479</v>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
@@ -6063,18 +6065,18 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M96" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:14+00:00</t>
+          <t>2026-02-18T10:20:52+00:00</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
@@ -6082,33 +6084,35 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/clearance?mega-menu</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Damiani Round Brilliant Three Stone Diamond Ring 0.66ct</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G97" t="inlineStr"/>
+        <v>459</v>
+      </c>
+      <c r="G97" t="n">
+        <v>479</v>
+      </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
@@ -6120,18 +6124,18 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M97" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:14+00:00</t>
+          <t>2026-02-18T10:20:52+00:00</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
@@ -6139,34 +6143,36 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/clearance?mega-menu</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Guarantee &amp; Service</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="n">
-        <v>15</v>
-      </c>
+          <t>€ 29.95</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="G98" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6177,18 +6183,18 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M98" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:15+00:00</t>
+          <t>2026-02-18T10:20:52+00:00</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
@@ -6196,38 +6202,36 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://www.harveynorman.ie/clearance?mega-menu</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3.49</v>
+        <v>29.95</v>
       </c>
       <c r="G99" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H99" t="n">
-        <v>15</v>
-      </c>
+        <v>34.95</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6238,18 +6242,18 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M99" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:16+00:00</t>
+          <t>2026-02-18T10:20:52+00:00</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
@@ -6272,21 +6276,23 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3.49</v>
+        <v>2.25</v>
       </c>
       <c r="G100" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H100" t="inlineStr"/>
+        <v>3.29</v>
+      </c>
+      <c r="H100" t="n">
+        <v>15</v>
+      </c>
       <c r="I100" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6308,7 +6314,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:16+00:00</t>
+          <t>2026-02-18T10:20:54+00:00</t>
         </is>
       </c>
       <c r="O100" t="inlineStr"/>
@@ -6331,19 +6337,19 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3.49</v>
+        <v>2.25</v>
       </c>
       <c r="G101" t="n">
-        <v>4.99</v>
+        <v>3.29</v>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
@@ -6367,7 +6373,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:16+00:00</t>
+          <t>2026-02-18T10:20:54+00:00</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
@@ -6390,18 +6396,20 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G102" t="inlineStr"/>
+        <v>2.25</v>
+      </c>
+      <c r="G102" t="n">
+        <v>3.29</v>
+      </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
@@ -6424,7 +6432,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:16+00:00</t>
+          <t>2026-02-18T10:20:54+00:00</t>
         </is>
       </c>
       <c r="O102" t="inlineStr"/>
@@ -6447,19 +6455,19 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Guarantee &amp; Service</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
+          <t>Damiani Round Brilliant Three Stone Diamond Ring 0.66ct</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>2.25</v>
+      </c>
       <c r="G103" t="inlineStr"/>
-      <c r="H103" t="n">
-        <v>15</v>
-      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6481,7 +6489,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:16+00:00</t>
+          <t>2026-02-18T10:20:54+00:00</t>
         </is>
       </c>
       <c r="O103" t="inlineStr"/>
@@ -6504,20 +6512,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1.59</v>
-      </c>
+          <t>Guarantee &amp; Service</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
         <v>15</v>
       </c>
@@ -6542,7 +6546,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:18+00:00</t>
+          <t>2026-02-18T10:20:54+00:00</t>
         </is>
       </c>
       <c r="O104" t="inlineStr"/>
@@ -6570,7 +6574,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -6579,7 +6583,9 @@
       <c r="G105" t="n">
         <v>1.59</v>
       </c>
-      <c r="H105" t="inlineStr"/>
+      <c r="H105" t="n">
+        <v>15</v>
+      </c>
       <c r="I105" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6601,7 +6607,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:18+00:00</t>
+          <t>2026-02-18T10:20:55+00:00</t>
         </is>
       </c>
       <c r="O105" t="inlineStr"/>
@@ -6629,7 +6635,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -6660,7 +6666,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:18+00:00</t>
+          <t>2026-02-18T10:20:55+00:00</t>
         </is>
       </c>
       <c r="O106" t="inlineStr"/>
@@ -6688,13 +6694,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Rocks Diamond &amp; Gemstone Floral Necklace</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="F107" t="n">
         <v>1.39</v>
       </c>
-      <c r="G107" t="inlineStr"/>
+      <c r="G107" t="n">
+        <v>1.59</v>
+      </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
@@ -6717,7 +6725,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:18+00:00</t>
+          <t>2026-02-18T10:20:55+00:00</t>
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
@@ -6740,26 +6748,22 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+          <t>Rocks Diamond &amp; Gemstone Floral Necklace</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G108" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H108" t="n">
-        <v>31</v>
-      </c>
+        <v>1.39</v>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J108" t="b">
@@ -6778,7 +6782,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:19+00:00</t>
+          <t>2026-02-18T10:20:55+00:00</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
@@ -6801,12 +6805,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/black-friday-picks</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -6816,11 +6820,11 @@
         <v>4.99</v>
       </c>
       <c r="H109" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J109" t="b">
@@ -6839,7 +6843,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:21+00:00</t>
+          <t>2026-02-18T10:20:58+00:00</t>
         </is>
       </c>
       <c r="O109" t="inlineStr"/>
@@ -6862,23 +6866,21 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>13.25</v>
+        <v>3.49</v>
       </c>
       <c r="G110" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="H110" t="n">
-        <v>15</v>
-      </c>
+        <v>4.99</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6900,7 +6902,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:23+00:00</t>
+          <t>2026-02-18T10:20:58+00:00</t>
         </is>
       </c>
       <c r="O110" t="inlineStr"/>
@@ -6923,19 +6925,19 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>13.25</v>
+        <v>3.49</v>
       </c>
       <c r="G111" t="n">
-        <v>18.29</v>
+        <v>4.99</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
@@ -6959,7 +6961,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:23+00:00</t>
+          <t>2026-02-18T10:20:58+00:00</t>
         </is>
       </c>
       <c r="O111" t="inlineStr"/>
@@ -6982,20 +6984,18 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="G112" t="n">
-        <v>18.29</v>
-      </c>
+        <v>3.49</v>
+      </c>
+      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:23+00:00</t>
+          <t>2026-02-18T10:20:58+00:00</t>
         </is>
       </c>
       <c r="O112" t="inlineStr"/>
@@ -7041,19 +7041,19 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Oval Yellow Diamond Solitiatire Diamond Set Shoulders 1.16ct</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>13.25</v>
-      </c>
+          <t>Guarantee &amp; Service</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
+      <c r="H113" t="n">
+        <v>15</v>
+      </c>
       <c r="I113" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:23+00:00</t>
+          <t>2026-02-18T10:20:58+00:00</t>
         </is>
       </c>
       <c r="O113" t="inlineStr"/>
@@ -7083,35 +7083,41 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SISU Clinic</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>perfumes/beauty</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>www.sisuclinic.com</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Explore our latest Blogs</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H114" t="n">
+        <v>31</v>
+      </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J114" t="b">
@@ -7119,18 +7125,18 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>3, Fields Terrace, Dublin</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>53.3252812</v>
+        <v>53.2898373</v>
       </c>
       <c r="M114" t="n">
-        <v>-6.2554094</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2026-02-17T10:21:24+00:00</t>
+          <t>2026-02-18T10:21:00+00:00</t>
         </is>
       </c>
       <c r="O114" t="inlineStr"/>
@@ -7138,57 +7144,409 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/black-friday-picks</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="G115" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H115" t="n">
+        <v>31</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="J115" t="b">
+        <v>1</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M115" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>2026-02-18T10:21:03+00:00</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Talk to a Diamond Expert</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="G116" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="H116" t="n">
+        <v>15</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J116" t="b">
+        <v>1</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M116" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>2026-02-18T10:21:04+00:00</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Skip to product information</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="G117" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J117" t="b">
+        <v>1</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>2026-02-18T10:21:04+00:00</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="G118" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J118" t="b">
+        <v>1</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>2026-02-18T10:21:04+00:00</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Oval Yellow Diamond Solitiatire Diamond Set Shoulders 1.16ct</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J119" t="b">
+        <v>1</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>2026-02-18T10:21:04+00:00</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
           <t>SISU Clinic</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>perfumes/beauty</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>www.sisuclinic.com</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Explore our latest Blogs</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="J120" t="b">
+        <v>1</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>3, Fields Terrace, Dublin</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>53.3252812</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-6.2554094</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>2026-02-18T10:21:05+00:00</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>SISU Clinic</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>perfumes/beauty</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>www.sisuclinic.com</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>Explore our latest Blogs</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr">
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
-      <c r="J115" t="b">
-        <v>1</v>
-      </c>
-      <c r="K115" t="inlineStr">
+      <c r="J121" t="b">
+        <v>1</v>
+      </c>
+      <c r="K121" t="inlineStr">
         <is>
           <t>3, Fields Terrace, Dublin</t>
         </is>
       </c>
-      <c r="L115" t="n">
+      <c r="L121" t="n">
         <v>53.3252812</v>
       </c>
-      <c r="M115" t="n">
+      <c r="M121" t="n">
         <v>-6.2554094</v>
       </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>2026-02-17T10:21:25+00:00</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr"/>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>2026-02-18T10:21:06+00:00</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/deals.xlsx
+++ b/deals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O121"/>
+  <dimension ref="A1:O128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2026-02-18T10:08:03+00:00</t>
+          <t>2026-02-19T10:07:05+00:00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2026-02-18T10:08:03+00:00</t>
+          <t>2026-02-19T10:07:05+00:00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -682,7 +682,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2026-02-18T10:08:03+00:00</t>
+          <t>2026-02-19T10:07:05+00:00</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -741,7 +741,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2026-02-18T10:08:03+00:00</t>
+          <t>2026-02-19T10:07:05+00:00</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -798,7 +798,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2026-02-18T10:08:03+00:00</t>
+          <t>2026-02-19T10:07:05+00:00</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -857,7 +857,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2026-02-18T10:08:03+00:00</t>
+          <t>2026-02-19T10:07:05+00:00</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -914,7 +914,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2026-02-18T10:08:03+00:00</t>
+          <t>2026-02-19T10:07:05+00:00</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -969,7 +969,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2026-02-18T10:09:48+00:00</t>
+          <t>2026-02-19T10:08:43+00:00</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2026-02-18T10:09:54+00:00</t>
+          <t>2026-02-19T10:08:48+00:00</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1058,17 +1058,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>25.5</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2026-02-18T10:09:54+00:00</t>
+          <t>2026-02-19T10:08:48+00:00</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1119,17 +1119,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>25.5</v>
       </c>
       <c r="H12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2026-02-18T10:09:54+00:00</t>
+          <t>2026-02-19T10:08:48+00:00</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2026-02-18T10:09:54+00:00</t>
+          <t>2026-02-19T10:08:48+00:00</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2026-02-18T10:10:37+00:00</t>
+          <t>2026-02-19T10:09:28+00:00</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1297,12 +1297,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, Standard King</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2026-02-18T10:10:44+00:00</t>
+          <t>2026-02-19T10:09:36+00:00</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1358,22 +1358,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10779</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="G16" t="n">
-        <v>25.5</v>
+        <v>127</v>
       </c>
       <c r="H16" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2026-02-18T10:10:44+00:00</t>
+          <t>2026-02-19T10:09:38+00:00</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1419,23 +1419,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
-      </c>
-      <c r="G17" t="n">
-        <v>8</v>
-      </c>
-      <c r="H17" t="n">
-        <v>20</v>
-      </c>
+          <t>Re-shop and Re-use</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -1457,7 +1451,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2026-02-18T10:10:44+00:00</t>
+          <t>2026-02-19T10:09:41+00:00</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1480,22 +1474,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="G18" t="n">
-        <v>29.75</v>
+        <v>127</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1518,7 +1512,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2026-02-18T10:10:44+00:00</t>
+          <t>2026-02-19T10:09:43+00:00</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1541,7 +1535,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10779</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1579,7 +1573,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2026-02-18T10:10:46+00:00</t>
+          <t>2026-02-19T10:09:45+00:00</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1602,17 +1596,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Re-shop and Re-use</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+          <t>NORDBERGET Mattress pad, Standard King</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>127</v>
+      </c>
+      <c r="G20" t="n">
+        <v>127</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2026-02-18T10:10:49+00:00</t>
+          <t>2026-02-19T10:09:46+00:00</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1657,19 +1657,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="G21" t="n">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="H21" t="n">
         <v>20</v>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2026-02-18T10:10:50+00:00</t>
+          <t>2026-02-19T10:09:46+00:00</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1718,22 +1718,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="G22" t="n">
-        <v>127</v>
+        <v>25.5</v>
       </c>
       <c r="H22" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2026-02-18T10:10:51+00:00</t>
+          <t>2026-02-19T10:09:46+00:00</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1784,17 +1784,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, Standard King</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="G23" t="n">
-        <v>127</v>
+        <v>29.75</v>
       </c>
       <c r="H23" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2026-02-18T10:10:53+00:00</t>
+          <t>2026-02-19T10:09:46+00:00</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1840,22 +1840,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, Standard King</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="G24" t="n">
-        <v>25.5</v>
+        <v>127</v>
       </c>
       <c r="H24" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2026-02-18T10:10:53+00:00</t>
+          <t>2026-02-19T10:09:48+00:00</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2026-02-18T10:10:53+00:00</t>
+          <t>2026-02-19T10:09:48+00:00</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1962,19 +1962,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>29.75</v>
+        <v>25.5</v>
       </c>
       <c r="H26" t="n">
         <v>15</v>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2026-02-18T10:10:53+00:00</t>
+          <t>2026-02-19T10:09:48+00:00</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -2023,22 +2023,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="G27" t="n">
-        <v>127</v>
+        <v>29.75</v>
       </c>
       <c r="H27" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2026-02-18T10:10:55+00:00</t>
+          <t>2026-02-19T10:09:48+00:00</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2026-02-18T10:10:56+00:00</t>
+          <t>2026-02-19T10:09:50+00:00</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2145,22 +2145,24 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Current sales and promotions</t>
+          <t>€ 449</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
+        <v>449</v>
+      </c>
+      <c r="G29" t="n">
+        <v>599</v>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -2179,7 +2181,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2026-02-18T10:10:58+00:00</t>
+          <t>2026-02-19T10:09:53+00:00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2202,20 +2204,18 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>€ 1,799</t>
+          <t>€ 449</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="G30" t="n">
-        <v>150</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:00+00:00</t>
+          <t>2026-02-19T10:09:53+00:00</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2261,16 +2261,16 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>LG 65" OLED Evo AI C5 4K Smart TV | OLED65C54LA.AEK</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>150</v>
+        <v>449</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:00+00:00</t>
+          <t>2026-02-19T10:09:53+00:00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2318,16 +2318,16 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>150</v>
+        <v>599</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:00+00:00</t>
+          <t>2026-02-19T10:09:53+00:00</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.79</v>
+        <v>599</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:00+00:00</t>
+          <t>2026-02-19T10:09:53+00:00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2432,24 +2432,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>€ 1,299</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="G34" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -2468,7 +2466,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:00+00:00</t>
+          <t>2026-02-19T10:09:55+00:00</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2491,22 +2489,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/promotions.html</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>LG 55" OLED Evo AI C5 4K Smart TV | OLED55C54LA.AEK</t>
+          <t>Current sales and promotions</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -2525,7 +2523,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:00+00:00</t>
+          <t>2026-02-19T10:09:57+00:00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2553,13 +2551,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>€ 1,799</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
+        <v>1.79</v>
+      </c>
+      <c r="G36" t="n">
+        <v>150</v>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:00+00:00</t>
+          <t>2026-02-19T10:10:01+00:00</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2610,11 +2610,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>LG 65" OLED Evo AI C5 4K Smart TV | OLED65C54LA.AEK</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.29</v>
+        <v>150</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:00+00:00</t>
+          <t>2026-02-19T10:10:01+00:00</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2667,15 +2667,13 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>€ 2,599</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="G38" t="n">
         <v>150</v>
       </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
@@ -2698,7 +2696,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:00+00:00</t>
+          <t>2026-02-19T10:10:01+00:00</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2726,11 +2724,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>LG 65" G5 OLED Evo 4K Smart TV | OLED65G54LW.AEK</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>150</v>
+        <v>1.79</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -2755,7 +2753,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:00+00:00</t>
+          <t>2026-02-19T10:10:01+00:00</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2783,13 +2781,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 1,299</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
+        <v>1.29</v>
+      </c>
+      <c r="G40" t="n">
+        <v>100</v>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:00+00:00</t>
+          <t>2026-02-19T10:10:01+00:00</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2840,15 +2840,13 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>LG 55" OLED Evo AI C5 4K Smart TV | OLED55C54LA.AEK</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
-      </c>
-      <c r="G41" t="n">
-        <v>599</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
@@ -2871,7 +2869,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:00+00:00</t>
+          <t>2026-02-19T10:10:01+00:00</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2894,20 +2892,18 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>499</v>
-      </c>
-      <c r="G42" t="n">
-        <v>599</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
@@ -2930,7 +2926,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:04+00:00</t>
+          <t>2026-02-19T10:10:01+00:00</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2953,16 +2949,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>599</v>
+        <v>1.29</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -2987,7 +2983,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:04+00:00</t>
+          <t>2026-02-19T10:10:01+00:00</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3010,18 +3006,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 2,599</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>599</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="G44" t="n">
+        <v>150</v>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
@@ -3044,7 +3042,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:04+00:00</t>
+          <t>2026-02-19T10:10:01+00:00</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -3067,16 +3065,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>€ 499</t>
+          <t>LG 65" G5 OLED Evo 4K Smart TV | OLED65G54LW.AEK</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>499</v>
+        <v>150</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
@@ -3101,7 +3099,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:04+00:00</t>
+          <t>2026-02-19T10:10:01+00:00</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3124,7 +3122,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3133,7 +3131,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>499</v>
+        <v>2.59</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -3158,7 +3156,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:04+00:00</t>
+          <t>2026-02-19T10:10:01+00:00</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3181,18 +3179,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>€ 1,999</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="G47" t="n">
+        <v>599</v>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:04+00:00</t>
+          <t>2026-02-19T10:10:01+00:00</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3243,13 +3243,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="G48" t="n">
+        <v>599</v>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
@@ -3272,7 +3274,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:04+00:00</t>
+          <t>2026-02-19T10:10:04+00:00</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3300,11 +3302,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>€ 1,549</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.54</v>
+        <v>599</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -3329,7 +3331,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:04+00:00</t>
+          <t>2026-02-19T10:10:04+00:00</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3352,16 +3354,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>€ 649</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>649</v>
+        <v>599</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -3386,7 +3388,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:07+00:00</t>
+          <t>2026-02-19T10:10:04+00:00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3409,16 +3411,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 499</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>649</v>
+        <v>499</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -3443,7 +3445,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:07+00:00</t>
+          <t>2026-02-19T10:10:04+00:00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3466,20 +3468,18 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>€ 449</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>449</v>
-      </c>
-      <c r="G52" t="n">
-        <v>599</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:10+00:00</t>
+          <t>2026-02-19T10:10:04+00:00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3525,16 +3525,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>€ 449</t>
+          <t>€ 1,999</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>449</v>
+        <v>1.99</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:10+00:00</t>
+          <t>2026-02-19T10:10:04+00:00</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3591,7 +3591,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>449</v>
+        <v>1.99</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:10+00:00</t>
+          <t>2026-02-19T10:10:04+00:00</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3639,16 +3639,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>€ 1,549</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>599</v>
+        <v>1.54</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:10+00:00</t>
+          <t>2026-02-19T10:10:04+00:00</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3696,16 +3696,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 649</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>599</v>
+        <v>649</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:10+00:00</t>
+          <t>2026-02-19T10:10:06+00:00</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3753,22 +3753,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:12+00:00</t>
+          <t>2026-02-19T10:10:06+00:00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:15+00:00</t>
+          <t>2026-02-19T10:10:09+00:00</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:15+00:00</t>
+          <t>2026-02-19T10:10:09+00:00</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:15+00:00</t>
+          <t>2026-02-19T10:10:09+00:00</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2026-02-18T10:11:15+00:00</t>
+          <t>2026-02-19T10:10:09+00:00</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2026-02-18T10:14:52+00:00</t>
+          <t>2026-02-19T10:14:07+00:00</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2026-02-18T10:17:23+00:00</t>
+          <t>2026-02-19T10:16:53+00:00</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2026-02-18T10:17:54+00:00</t>
+          <t>2026-02-19T10:17:20+00:00</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4216,14 +4216,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>€ 36.95</t>
+          <t>€ 449</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>36.95</v>
+        <v>449</v>
       </c>
       <c r="G65" t="n">
-        <v>39.95</v>
+        <v>499</v>
       </c>
       <c r="H65" t="n">
         <v>100</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2026-02-18T10:18:21+00:00</t>
+          <t>2026-02-19T10:17:49+00:00</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4277,14 +4277,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>€ 36.95</t>
+          <t>€ 449</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>36.95</v>
+        <v>449</v>
       </c>
       <c r="G66" t="n">
-        <v>39.95</v>
+        <v>499</v>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2026-02-18T10:18:21+00:00</t>
+          <t>2026-02-19T10:17:49+00:00</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4340,10 +4340,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>36.95</v>
+        <v>449</v>
       </c>
       <c r="G67" t="n">
-        <v>39.95</v>
+        <v>499</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2026-02-18T10:18:21+00:00</t>
+          <t>2026-02-19T10:17:49+00:00</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4395,14 +4395,14 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>€ 459</t>
+          <t>€ 829</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>459</v>
+        <v>829</v>
       </c>
       <c r="G68" t="n">
-        <v>479</v>
+        <v>929</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2026-02-18T10:18:21+00:00</t>
+          <t>2026-02-19T10:17:49+00:00</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4458,10 +4458,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>459</v>
+        <v>829</v>
       </c>
       <c r="G69" t="n">
-        <v>479</v>
+        <v>929</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2026-02-18T10:18:21+00:00</t>
+          <t>2026-02-19T10:17:49+00:00</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4513,14 +4513,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>€ 29.95</t>
+          <t>€ 1,249</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>29.95</v>
+        <v>1.24</v>
       </c>
       <c r="G70" t="n">
-        <v>34.95</v>
+        <v>1.29</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2026-02-18T10:18:21+00:00</t>
+          <t>2026-02-19T10:17:49+00:00</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4576,10 +4576,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>29.95</v>
+        <v>1.24</v>
       </c>
       <c r="G71" t="n">
-        <v>34.95</v>
+        <v>1.29</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2026-02-18T10:18:21+00:00</t>
+          <t>2026-02-19T10:17:49+00:00</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4611,41 +4611,39 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>R&amp;C McCormack</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>celticdublin.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://celticdublin.com/offer</t>
+          <t>https://www.harveynorman.ie/clearance</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Offers</t>
+          <t>€ 36.95</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>36.95</v>
       </c>
       <c r="G72" t="n">
-        <v>100</v>
-      </c>
-      <c r="H72" t="n">
-        <v>15</v>
-      </c>
+        <v>39.95</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -4653,18 +4651,18 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Grafton Street, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>53.3400972</v>
+        <v>53.2523369</v>
       </c>
       <c r="M72" t="n">
-        <v>-6.2605276</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:04+00:00</t>
+          <t>2026-02-19T10:17:49+00:00</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4672,36 +4670,38 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Weavers of Ireland</t>
+          <t>R&amp;C McCormack</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>weaversofireland.com</t>
+          <t>celticdublin.com</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
+          <t>https://celticdublin.com/offer</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Wool and Cashmere Throw</t>
+          <t>Offers</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>279</v>
+        <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>279</v>
-      </c>
-      <c r="H73" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="H73" t="n">
+        <v>15</v>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -4712,18 +4712,18 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>9, Westmoreland Street, Dublin</t>
+          <t>Grafton Street, Dublin</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>53.3459126</v>
+        <v>53.3400972</v>
       </c>
       <c r="M73" t="n">
-        <v>-6.2594181</v>
+        <v>-6.2605276</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:26+00:00</t>
+          <t>2026-02-19T10:19:29+00:00</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4746,19 +4746,19 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-her</t>
+          <t>https://weaversofireland.com/collections/outlet</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Cable Knit Crew Neck Aran Wool Sweater</t>
+          <t>Ladies Wool Peaky Blinders Hat</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>66.95</v>
+        <v>49.95</v>
       </c>
       <c r="G74" t="n">
-        <v>66.95</v>
+        <v>49.95</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:28+00:00</t>
+          <t>2026-02-19T10:19:49+00:00</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4805,17 +4805,19 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
+          <t>https://weaversofireland.com/blogs/blog/irish-wool-what-makes-it-special-and-why-it-s-perfect-for-march-weather</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Express Shipping Offer</t>
+          <t>Irish Wool: What Makes it Special and Why it’s Perfect for March Weather</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>100</v>
+      </c>
       <c r="I75" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -4837,7 +4839,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:29+00:00</t>
+          <t>2026-02-19T10:19:51+00:00</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4860,19 +4862,19 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet</t>
+          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ladies Wool Peaky Blinders Hat</t>
+          <t>Wool and Cashmere Throw</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>49.95</v>
+        <v>279</v>
       </c>
       <c r="G76" t="n">
-        <v>49.95</v>
+        <v>279</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
@@ -4896,7 +4898,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:32+00:00</t>
+          <t>2026-02-19T10:19:52+00:00</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4919,19 +4921,19 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
+          <t>https://weaversofireland.com/collections/outlet-for-her</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Baby Shepley Aran Headband</t>
+          <t>Cable Knit Crew Neck Aran Wool Sweater</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>24.95</v>
+        <v>66.95</v>
       </c>
       <c r="G77" t="n">
-        <v>24.95</v>
+        <v>66.95</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
@@ -4955,7 +4957,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:34+00:00</t>
+          <t>2026-02-19T10:19:54+00:00</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4978,19 +4980,21 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/blogs/blog/irish-wool-what-makes-it-special-and-why-it-s-perfect-for-march-weather</t>
+          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Irish Wool: What Makes it Special and Why it’s Perfect for March Weather</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="n">
-        <v>100</v>
-      </c>
+          <t>Ladies Boston Wool Felt Hat</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>79.95</v>
+      </c>
+      <c r="G78" t="n">
+        <v>79.95</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -5012,7 +5016,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:36+00:00</t>
+          <t>2026-02-19T10:19:56+00:00</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -5035,20 +5039,16 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
+          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ladies Boston Wool Felt Hat</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>79.95</v>
-      </c>
-      <c r="G79" t="n">
-        <v>79.95</v>
-      </c>
+          <t>Express Shipping Offer</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:38+00:00</t>
+          <t>2026-02-19T10:19:58+00:00</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:40+00:00</t>
+          <t>2026-02-19T10:20:00+00:00</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -5140,35 +5140,39 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Weavers of Ireland</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>weaversofireland.com</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/food/salesareas/restaurant/?categories=SC017</t>
+          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Swedish Restaurant</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+          <t>Baby Shepley Aran Headband</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="G81" t="n">
+        <v>24.95</v>
+      </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -5176,18 +5180,18 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>9, Westmoreland Street, Dublin</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>53.4071706</v>
+        <v>53.3459126</v>
       </c>
       <c r="M81" t="n">
-        <v>-6.2763987</v>
+        <v>-6.2594181</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:42+00:00</t>
+          <t>2026-02-19T10:20:02+00:00</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -5246,7 +5250,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:45+00:00</t>
+          <t>2026-02-19T10:20:04+00:00</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -5305,7 +5309,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:45+00:00</t>
+          <t>2026-02-19T10:20:04+00:00</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -5366,7 +5370,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:45+00:00</t>
+          <t>2026-02-19T10:20:04+00:00</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
@@ -5425,7 +5429,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:45+00:00</t>
+          <t>2026-02-19T10:20:04+00:00</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
@@ -5433,7 +5437,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5443,24 +5447,24 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>€ 249</t>
+          <t>SOLHETTA LED bulb E27 470 lumen</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>269</v>
+        <v>1.5</v>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
@@ -5473,18 +5477,18 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M86" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:48+00:00</t>
+          <t>2026-02-19T10:20:07+00:00</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
@@ -5492,7 +5496,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5502,24 +5506,24 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>SOLHETTA LED bulb E27 806 lumen</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>249</v>
+        <v>5</v>
       </c>
       <c r="G87" t="n">
-        <v>269</v>
+        <v>5</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
@@ -5532,18 +5536,18 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M87" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:48+00:00</t>
+          <t>2026-02-19T10:20:07+00:00</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -5551,7 +5555,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5561,24 +5565,24 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>€ 149</t>
+          <t>DIRIGERA Hub for smart products</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="G88" t="n">
-        <v>239</v>
+        <v>65</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
@@ -5591,18 +5595,18 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M88" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:48+00:00</t>
+          <t>2026-02-19T10:20:07+00:00</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
@@ -5610,7 +5614,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5620,24 +5624,24 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>TILLREDA Portable induction hob</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="G89" t="n">
-        <v>239</v>
+        <v>85</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
@@ -5650,18 +5654,18 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M89" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:48+00:00</t>
+          <t>2026-02-19T10:20:07+00:00</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -5684,19 +5688,19 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/furniture-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>€ 499</t>
+          <t>€ 999</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>499</v>
+        <v>1.89</v>
       </c>
       <c r="G90" t="n">
-        <v>629</v>
+        <v>999</v>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
@@ -5720,7 +5724,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:48+00:00</t>
+          <t>2026-02-19T10:20:11+00:00</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
@@ -5743,7 +5747,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/furniture-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5752,10 +5756,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>499</v>
+        <v>1.89</v>
       </c>
       <c r="G91" t="n">
-        <v>629</v>
+        <v>999</v>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
@@ -5779,7 +5783,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:48+00:00</t>
+          <t>2026-02-19T10:20:11+00:00</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
@@ -5802,19 +5806,19 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/appliance-clearance/</t>
+          <t>https://www.harveynorman.ie/clearance/furniture-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>€ 499</t>
+          <t>€ 399</t>
         </is>
       </c>
       <c r="F92" t="n">
+        <v>399</v>
+      </c>
+      <c r="G92" t="n">
         <v>499</v>
-      </c>
-      <c r="G92" t="n">
-        <v>549</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
@@ -5838,7 +5842,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:48+00:00</t>
+          <t>2026-02-19T10:20:11+00:00</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
@@ -5861,23 +5865,19 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/furniture-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>€ 36.95</t>
+          <t>Rayne Sideboard | 3 Doors | Natural</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>36.95</v>
-      </c>
-      <c r="G93" t="n">
-        <v>39.95</v>
-      </c>
-      <c r="H93" t="n">
-        <v>100</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5899,7 +5899,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:52+00:00</t>
+          <t>2026-02-19T10:20:11+00:00</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
@@ -5922,19 +5922,19 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/furniture-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>€ 36.95</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>36.95</v>
+        <v>399</v>
       </c>
       <c r="G94" t="n">
-        <v>39.95</v>
+        <v>999</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:52+00:00</t>
+          <t>2026-02-19T10:20:11+00:00</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
@@ -5981,19 +5981,19 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/furniture-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 1,499</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>36.95</v>
+        <v>1.49</v>
       </c>
       <c r="G95" t="n">
-        <v>39.95</v>
+        <v>1999</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:52+00:00</t>
+          <t>2026-02-19T10:20:11+00:00</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
@@ -6040,20 +6040,18 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/furniture-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>€ 459</t>
+          <t>Prince Corner Sofa</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>459</v>
-      </c>
-      <c r="G96" t="n">
-        <v>479</v>
-      </c>
+        <v>1999</v>
+      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
@@ -6076,7 +6074,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:52+00:00</t>
+          <t>2026-02-19T10:20:11+00:00</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
@@ -6099,7 +6097,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/furniture-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -6108,10 +6106,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>459</v>
+        <v>1.49</v>
       </c>
       <c r="G97" t="n">
-        <v>479</v>
+        <v>2.49</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
@@ -6135,7 +6133,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:52+00:00</t>
+          <t>2026-02-19T10:20:11+00:00</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
@@ -6158,19 +6156,19 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/furniture-clearance/?mega-menu</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>€ 29.95</t>
+          <t>€ 169</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>29.95</v>
+        <v>169</v>
       </c>
       <c r="G98" t="n">
-        <v>34.95</v>
+        <v>299</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
@@ -6194,7 +6192,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:52+00:00</t>
+          <t>2026-02-19T10:20:11+00:00</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
@@ -6217,19 +6215,19 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance?mega-menu</t>
+          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 59.95</t>
         </is>
       </c>
       <c r="F99" t="n">
         <v>29.95</v>
       </c>
       <c r="G99" t="n">
-        <v>34.95</v>
+        <v>59.95</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
@@ -6253,7 +6251,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:52+00:00</t>
+          <t>2026-02-19T10:20:13+00:00</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
@@ -6261,38 +6259,34 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
+          <t>€ 59.95</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G100" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="H100" t="n">
-        <v>15</v>
-      </c>
+        <v>59.95</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6303,18 +6297,18 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M100" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:54+00:00</t>
+          <t>2026-02-19T10:20:13+00:00</t>
         </is>
       </c>
       <c r="O100" t="inlineStr"/>
@@ -6322,35 +6316,33 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>Add to compare list</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G101" t="n">
-        <v>3.29</v>
-      </c>
+        <v>59.95</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
@@ -6362,18 +6354,18 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M101" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:54+00:00</t>
+          <t>2026-02-19T10:20:13+00:00</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
@@ -6381,34 +6373,34 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>€ 29.95</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2.25</v>
+        <v>29.95</v>
       </c>
       <c r="G102" t="n">
-        <v>3.29</v>
+        <v>39.95</v>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
@@ -6421,18 +6413,18 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M102" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:54+00:00</t>
+          <t>2026-02-19T10:20:13+00:00</t>
         </is>
       </c>
       <c r="O102" t="inlineStr"/>
@@ -6440,33 +6432,35 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Damiani Round Brilliant Three Stone Diamond Ring 0.66ct</t>
+          <t>Add to compare list</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G103" t="inlineStr"/>
+        <v>29.95</v>
+      </c>
+      <c r="G103" t="n">
+        <v>39.95</v>
+      </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
@@ -6478,18 +6472,18 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M103" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:54+00:00</t>
+          <t>2026-02-19T10:20:13+00:00</t>
         </is>
       </c>
       <c r="O103" t="inlineStr"/>
@@ -6497,34 +6491,36 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Guarantee &amp; Service</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="n">
-        <v>15</v>
-      </c>
+          <t>€ 54.95</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="G104" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6535,18 +6531,18 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M104" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:54+00:00</t>
+          <t>2026-02-19T10:20:13+00:00</t>
         </is>
       </c>
       <c r="O104" t="inlineStr"/>
@@ -6554,38 +6550,36 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
+          <t>Add to compare list</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.39</v>
+        <v>54.95</v>
       </c>
       <c r="G105" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H105" t="n">
-        <v>15</v>
-      </c>
+        <v>65.95</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6596,18 +6590,18 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M105" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:55+00:00</t>
+          <t>2026-02-19T10:20:13+00:00</t>
         </is>
       </c>
       <c r="O105" t="inlineStr"/>
@@ -6615,34 +6609,34 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>€ 799</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.39</v>
+        <v>799</v>
       </c>
       <c r="G106" t="n">
-        <v>1.59</v>
+        <v>849</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
@@ -6655,18 +6649,18 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M106" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:55+00:00</t>
+          <t>2026-02-19T10:20:13+00:00</t>
         </is>
       </c>
       <c r="O106" t="inlineStr"/>
@@ -6689,24 +6683,26 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://rocks.ie/collections/black-friday-picks</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.39</v>
+        <v>3.49</v>
       </c>
       <c r="G107" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H107" t="inlineStr"/>
+        <v>4.99</v>
+      </c>
+      <c r="H107" t="n">
+        <v>31</v>
+      </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J107" t="b">
@@ -6725,7 +6721,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:55+00:00</t>
+          <t>2026-02-19T10:20:16+00:00</t>
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
@@ -6748,19 +6744,23 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Rocks Diamond &amp; Gemstone Floral Necklace</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
+        <v>13.25</v>
+      </c>
+      <c r="G108" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="H108" t="n">
+        <v>15</v>
+      </c>
       <c r="I108" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:55+00:00</t>
+          <t>2026-02-19T10:20:18+00:00</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
@@ -6805,23 +6805,21 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>3.49</v>
+        <v>13.25</v>
       </c>
       <c r="G109" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H109" t="n">
-        <v>15</v>
-      </c>
+        <v>18.29</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6843,7 +6841,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:58+00:00</t>
+          <t>2026-02-19T10:20:18+00:00</t>
         </is>
       </c>
       <c r="O109" t="inlineStr"/>
@@ -6866,19 +6864,19 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>3.49</v>
+        <v>13.25</v>
       </c>
       <c r="G110" t="n">
-        <v>4.99</v>
+        <v>18.29</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
@@ -6902,7 +6900,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:58+00:00</t>
+          <t>2026-02-19T10:20:18+00:00</t>
         </is>
       </c>
       <c r="O110" t="inlineStr"/>
@@ -6925,20 +6923,18 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Oval Yellow Diamond Solitiatire Diamond Set Shoulders 1.16ct</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G111" t="n">
-        <v>4.99</v>
-      </c>
+        <v>13.25</v>
+      </c>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
@@ -6961,7 +6957,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:58+00:00</t>
+          <t>2026-02-19T10:20:18+00:00</t>
         </is>
       </c>
       <c r="O111" t="inlineStr"/>
@@ -6984,7 +6980,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6995,11 +6991,15 @@
       <c r="F112" t="n">
         <v>3.49</v>
       </c>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H112" t="n">
+        <v>31</v>
+      </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J112" t="b">
@@ -7018,7 +7018,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:58+00:00</t>
+          <t>2026-02-19T10:20:20+00:00</t>
         </is>
       </c>
       <c r="O112" t="inlineStr"/>
@@ -7041,16 +7041,20 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Guarantee &amp; Service</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
+          <t>Talk to a Diamond Expert</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G113" t="n">
+        <v>3.29</v>
+      </c>
       <c r="H113" t="n">
         <v>15</v>
       </c>
@@ -7075,7 +7079,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2026-02-18T10:20:58+00:00</t>
+          <t>2026-02-19T10:20:22+00:00</t>
         </is>
       </c>
       <c r="O113" t="inlineStr"/>
@@ -7098,26 +7102,24 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>3.49</v>
+        <v>2.25</v>
       </c>
       <c r="G114" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H114" t="n">
-        <v>31</v>
-      </c>
+        <v>3.29</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J114" t="b">
@@ -7136,7 +7138,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2026-02-18T10:21:00+00:00</t>
+          <t>2026-02-19T10:20:22+00:00</t>
         </is>
       </c>
       <c r="O114" t="inlineStr"/>
@@ -7159,26 +7161,24 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/black-friday-picks</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>3.49</v>
+        <v>2.25</v>
       </c>
       <c r="G115" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H115" t="n">
-        <v>31</v>
-      </c>
+        <v>3.29</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J115" t="b">
@@ -7197,7 +7197,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2026-02-18T10:21:03+00:00</t>
+          <t>2026-02-19T10:20:22+00:00</t>
         </is>
       </c>
       <c r="O115" t="inlineStr"/>
@@ -7220,23 +7220,19 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
+          <t>Damiani Round Brilliant Three Stone Diamond Ring 0.66ct</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="G116" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="H116" t="n">
-        <v>15</v>
-      </c>
+        <v>2.25</v>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -7258,7 +7254,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2026-02-18T10:21:04+00:00</t>
+          <t>2026-02-19T10:20:22+00:00</t>
         </is>
       </c>
       <c r="O116" t="inlineStr"/>
@@ -7281,21 +7277,19 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="G117" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="H117" t="inlineStr"/>
+          <t>Guarantee &amp; Service</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>15</v>
+      </c>
       <c r="I117" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -7317,7 +7311,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2026-02-18T10:21:04+00:00</t>
+          <t>2026-02-19T10:20:22+00:00</t>
         </is>
       </c>
       <c r="O117" t="inlineStr"/>
@@ -7340,21 +7334,23 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>13.25</v>
+        <v>1.39</v>
       </c>
       <c r="G118" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="H118" t="inlineStr"/>
+        <v>1.59</v>
+      </c>
+      <c r="H118" t="n">
+        <v>15</v>
+      </c>
       <c r="I118" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -7376,7 +7372,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2026-02-18T10:21:04+00:00</t>
+          <t>2026-02-19T10:20:24+00:00</t>
         </is>
       </c>
       <c r="O118" t="inlineStr"/>
@@ -7399,18 +7395,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Oval Yellow Diamond Solitiatire Diamond Set Shoulders 1.16ct</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="G119" t="inlineStr"/>
+        <v>1.39</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.59</v>
+      </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
@@ -7433,7 +7431,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2026-02-18T10:21:04+00:00</t>
+          <t>2026-02-19T10:20:24+00:00</t>
         </is>
       </c>
       <c r="O119" t="inlineStr"/>
@@ -7441,35 +7439,39 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SISU Clinic</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>perfumes/beauty</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>www.sisuclinic.com</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Explore our latest Blogs</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1.59</v>
+      </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J120" t="b">
@@ -7477,18 +7479,18 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>3, Fields Terrace, Dublin</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>53.3252812</v>
+        <v>53.2898373</v>
       </c>
       <c r="M120" t="n">
-        <v>-6.2554094</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2026-02-18T10:21:05+00:00</t>
+          <t>2026-02-19T10:20:24+00:00</t>
         </is>
       </c>
       <c r="O120" t="inlineStr"/>
@@ -7496,57 +7498,462 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SISU Clinic</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>perfumes/beauty</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>www.sisuclinic.com</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Explore our latest Blogs</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr"/>
+          <t>Rocks Diamond &amp; Gemstone Floral Necklace</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>1.39</v>
+      </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J121" t="b">
+        <v>1</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M121" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>2026-02-19T10:20:24+00:00</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Talk to a Diamond Expert</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="G122" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H122" t="n">
+        <v>15</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J122" t="b">
+        <v>1</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M122" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>2026-02-19T10:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Skip to product information</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="G123" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J123" t="b">
+        <v>1</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M123" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>2026-02-19T10:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="G124" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J124" t="b">
+        <v>1</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>2026-02-19T10:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J125" t="b">
+        <v>1</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>2026-02-19T10:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Guarantee &amp; Service</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="n">
+        <v>15</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J126" t="b">
+        <v>1</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M126" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>2026-02-19T10:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SISU Clinic</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>perfumes/beauty</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>www.sisuclinic.com</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Explore our latest Blogs</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
           <t>MEDIUM</t>
         </is>
       </c>
-      <c r="J121" t="b">
-        <v>1</v>
-      </c>
-      <c r="K121" t="inlineStr">
+      <c r="J127" t="b">
+        <v>1</v>
+      </c>
+      <c r="K127" t="inlineStr">
         <is>
           <t>3, Fields Terrace, Dublin</t>
         </is>
       </c>
-      <c r="L121" t="n">
+      <c r="L127" t="n">
         <v>53.3252812</v>
       </c>
-      <c r="M121" t="n">
+      <c r="M127" t="n">
         <v>-6.2554094</v>
       </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>2026-02-18T10:21:06+00:00</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr"/>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>2026-02-19T10:20:28+00:00</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SISU Clinic</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>perfumes/beauty</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>www.sisuclinic.com</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Explore our latest Blogs</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="J128" t="b">
+        <v>1</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>3, Fields Terrace, Dublin</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>53.3252812</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-6.2554094</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>2026-02-19T10:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/deals.xlsx
+++ b/deals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O128"/>
+  <dimension ref="A1:O108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2026-02-19T10:07:05+00:00</t>
+          <t>2026-02-20T09:59:36+00:00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2026-02-19T10:07:05+00:00</t>
+          <t>2026-02-20T09:59:36+00:00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -682,7 +682,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2026-02-19T10:07:05+00:00</t>
+          <t>2026-02-20T09:59:36+00:00</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -741,7 +741,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2026-02-19T10:07:05+00:00</t>
+          <t>2026-02-20T09:59:36+00:00</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -798,7 +798,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2026-02-19T10:07:05+00:00</t>
+          <t>2026-02-20T09:59:36+00:00</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -857,7 +857,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2026-02-19T10:07:05+00:00</t>
+          <t>2026-02-20T09:59:36+00:00</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -914,7 +914,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2026-02-19T10:07:05+00:00</t>
+          <t>2026-02-20T09:59:36+00:00</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -969,7 +969,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2026-02-19T10:08:43+00:00</t>
+          <t>2026-02-20T10:01:26+00:00</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2026-02-19T10:08:48+00:00</t>
+          <t>2026-02-20T10:01:33+00:00</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1058,17 +1058,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>25.5</v>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2026-02-19T10:08:48+00:00</t>
+          <t>2026-02-20T10:01:33+00:00</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1119,17 +1119,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>25.5</v>
+        <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2026-02-19T10:08:48+00:00</t>
+          <t>2026-02-20T10:01:33+00:00</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2026-02-19T10:08:48+00:00</t>
+          <t>2026-02-20T10:01:33+00:00</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:28+00:00</t>
+          <t>2026-02-20T10:02:19+00:00</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1297,12 +1297,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>NORDBERGET Mattress pad, Standard King</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:36+00:00</t>
+          <t>2026-02-20T10:02:26+00:00</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1358,22 +1358,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10779</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>127</v>
+        <v>25.5</v>
       </c>
       <c r="H16" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:38+00:00</t>
+          <t>2026-02-20T10:02:26+00:00</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1419,17 +1419,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Re-shop and Re-use</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>20</v>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -1451,7 +1457,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:41+00:00</t>
+          <t>2026-02-20T10:02:26+00:00</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1474,22 +1480,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>127</v>
+        <v>29.75</v>
       </c>
       <c r="H18" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1512,7 +1518,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:43+00:00</t>
+          <t>2026-02-20T10:02:26+00:00</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1535,7 +1541,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1573,7 +1579,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:45+00:00</t>
+          <t>2026-02-20T10:02:28+00:00</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1634,7 +1640,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:46+00:00</t>
+          <t>2026-02-20T10:02:29+00:00</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1662,17 +1668,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>25.5</v>
       </c>
       <c r="H21" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1695,7 +1701,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:46+00:00</t>
+          <t>2026-02-20T10:02:29+00:00</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1723,17 +1729,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>25.5</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1756,7 +1762,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:46+00:00</t>
+          <t>2026-02-20T10:02:29+00:00</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1817,7 +1823,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:46+00:00</t>
+          <t>2026-02-20T10:02:29+00:00</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1840,12 +1846,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, Standard King</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1878,7 +1884,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:48+00:00</t>
+          <t>2026-02-20T10:02:31+00:00</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1901,19 +1907,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="G25" t="n">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="H25" t="n">
         <v>20</v>
@@ -1939,7 +1945,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:48+00:00</t>
+          <t>2026-02-20T10:02:33+00:00</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1962,23 +1968,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>25</v>
-      </c>
-      <c r="G26" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="H26" t="n">
-        <v>15</v>
-      </c>
+          <t>Re-shop and Re-use</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:48+00:00</t>
+          <t>2026-02-20T10:02:35+00:00</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -2023,22 +2023,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="G27" t="n">
-        <v>29.75</v>
+        <v>127</v>
       </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:48+00:00</t>
+          <t>2026-02-20T10:02:37+00:00</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10779</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:50+00:00</t>
+          <t>2026-02-20T10:02:38+00:00</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2145,24 +2145,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/promotions.html</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>€ 449</t>
+          <t>Current sales and promotions</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>449</v>
-      </c>
-      <c r="G29" t="n">
-        <v>599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -2181,7 +2179,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:53+00:00</t>
+          <t>2026-02-20T10:02:40+00:00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2204,19 +2202,21 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/value-offers.html</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>€ 449</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>449</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>25</v>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:53+00:00</t>
+          <t>2026-02-20T10:02:42+00:00</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2261,18 +2261,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 1,799</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>449</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
+        <v>1.79</v>
+      </c>
+      <c r="G31" t="n">
+        <v>150</v>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
@@ -2295,7 +2297,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:53+00:00</t>
+          <t>2026-02-20T10:02:45+00:00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2318,16 +2320,16 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>LG 65" OLED Evo AI C5 4K Smart TV | OLED65C54LA.AEK</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>599</v>
+        <v>150</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -2352,7 +2354,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:53+00:00</t>
+          <t>2026-02-20T10:02:45+00:00</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2375,16 +2377,16 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>599</v>
+        <v>150</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -2409,7 +2411,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:53+00:00</t>
+          <t>2026-02-20T10:02:45+00:00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2432,22 +2434,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -2466,7 +2468,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:55+00:00</t>
+          <t>2026-02-20T10:02:45+00:00</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2489,22 +2491,24 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions.html</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Current sales and promotions</t>
+          <t>€ 1,299</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
+        <v>1.29</v>
+      </c>
+      <c r="G35" t="n">
+        <v>100</v>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -2523,7 +2527,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2026-02-19T10:09:57+00:00</t>
+          <t>2026-02-20T10:02:45+00:00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2551,15 +2555,13 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>€ 1,799</t>
+          <t>LG 55" OLED Evo AI C5 4K Smart TV | OLED55C54LA.AEK</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="G36" t="n">
-        <v>150</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
@@ -2582,7 +2584,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:01+00:00</t>
+          <t>2026-02-20T10:02:45+00:00</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2610,11 +2612,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>LG 65" OLED Evo AI C5 4K Smart TV | OLED65C54LA.AEK</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -2639,7 +2641,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:01+00:00</t>
+          <t>2026-02-20T10:02:45+00:00</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2667,11 +2669,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>150</v>
+        <v>1.29</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
@@ -2696,7 +2698,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:01+00:00</t>
+          <t>2026-02-20T10:02:45+00:00</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2724,13 +2726,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 2,599</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="G39" t="n">
+        <v>150</v>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
@@ -2753,7 +2757,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:01+00:00</t>
+          <t>2026-02-20T10:02:45+00:00</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2781,15 +2785,13 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>€ 1,299</t>
+          <t>LG 65" G5 OLED Evo 4K Smart TV | OLED65G54LW.AEK</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="G40" t="n">
-        <v>100</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
@@ -2812,7 +2814,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:01+00:00</t>
+          <t>2026-02-20T10:02:45+00:00</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2840,11 +2842,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>LG 55" OLED Evo AI C5 4K Smart TV | OLED55C54LA.AEK</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>2.59</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -2869,7 +2871,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:01+00:00</t>
+          <t>2026-02-20T10:02:45+00:00</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2897,13 +2899,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>€ 999</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="G42" t="n">
+        <v>999</v>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
@@ -2926,7 +2930,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:01+00:00</t>
+          <t>2026-02-20T10:02:45+00:00</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2949,18 +2953,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="G43" t="n">
+        <v>599</v>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
@@ -2983,7 +2989,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:01+00:00</t>
+          <t>2026-02-20T10:02:48+00:00</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3006,20 +3012,18 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>€ 2,599</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="G44" t="n">
-        <v>150</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
@@ -3042,7 +3046,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:01+00:00</t>
+          <t>2026-02-20T10:02:48+00:00</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -3065,16 +3069,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>LG 65" G5 OLED Evo 4K Smart TV | OLED65G54LW.AEK</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>150</v>
+        <v>599</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
@@ -3099,7 +3103,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:01+00:00</t>
+          <t>2026-02-20T10:02:48+00:00</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3122,16 +3126,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 499</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.59</v>
+        <v>499</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -3156,7 +3160,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:01+00:00</t>
+          <t>2026-02-20T10:02:48+00:00</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3179,20 +3183,18 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>50</v>
-      </c>
-      <c r="G47" t="n">
-        <v>599</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
@@ -3215,7 +3217,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:01+00:00</t>
+          <t>2026-02-20T10:02:48+00:00</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3243,15 +3245,13 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>€ 1,999</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>499</v>
-      </c>
-      <c r="G48" t="n">
-        <v>599</v>
-      </c>
+        <v>1.99</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:04+00:00</t>
+          <t>2026-02-20T10:02:48+00:00</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3302,11 +3302,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>599</v>
+        <v>1.99</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:04+00:00</t>
+          <t>2026-02-20T10:02:48+00:00</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3359,11 +3359,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 1,549</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>599</v>
+        <v>1.54</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:04+00:00</t>
+          <t>2026-02-20T10:02:48+00:00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3411,22 +3411,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>€ 499</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:04+00:00</t>
+          <t>2026-02-20T10:02:50+00:00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3468,18 +3468,20 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 998</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>499</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
+        <v>1.04</v>
+      </c>
+      <c r="G52" t="n">
+        <v>998</v>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
@@ -3502,7 +3504,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:04+00:00</t>
+          <t>2026-02-20T10:02:53+00:00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3525,18 +3527,20 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>€ 1,999</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G53" t="inlineStr"/>
+        <v>1.04</v>
+      </c>
+      <c r="G53" t="n">
+        <v>998</v>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
@@ -3559,7 +3563,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:04+00:00</t>
+          <t>2026-02-20T10:02:53+00:00</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3582,16 +3586,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 1,119</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.99</v>
+        <v>1.11</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -3616,7 +3620,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:04+00:00</t>
+          <t>2026-02-20T10:02:53+00:00</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3639,16 +3643,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>€ 1,549</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.54</v>
+        <v>1.11</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -3673,7 +3677,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:04+00:00</t>
+          <t>2026-02-20T10:02:53+00:00</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3696,18 +3700,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>€ 649</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>649</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
+        <v>449</v>
+      </c>
+      <c r="G56" t="n">
+        <v>599</v>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
@@ -3730,7 +3736,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:06+00:00</t>
+          <t>2026-02-20T10:02:56+00:00</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3753,16 +3759,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>649</v>
+        <v>599</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -3787,7 +3793,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:06+00:00</t>
+          <t>2026-02-20T10:02:56+00:00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3810,20 +3816,18 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>€ 998</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G58" t="n">
-        <v>998</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
@@ -3846,7 +3850,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:09+00:00</t>
+          <t>2026-02-20T10:02:56+00:00</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3869,20 +3873,18 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 449</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G59" t="n">
-        <v>998</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
@@ -3905,7 +3907,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:09+00:00</t>
+          <t>2026-02-20T10:02:56+00:00</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3928,16 +3930,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>€ 1,119</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.11</v>
+        <v>449</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
@@ -3962,7 +3964,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:09+00:00</t>
+          <t>2026-02-20T10:02:56+00:00</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3985,16 +3987,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 649</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.11</v>
+        <v>649</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -4019,7 +4021,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2026-02-19T10:10:09+00:00</t>
+          <t>2026-02-20T10:02:59+00:00</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -4027,39 +4029,37 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Weavers of Ireland</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>weaversofireland.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/outlet</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ladies Wool Peaky Blinders Hat</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>49.95</v>
-      </c>
-      <c r="G62" t="n">
-        <v>49.95</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -4067,18 +4067,18 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>9, Westmoreland Street, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>53.3459126</v>
+        <v>53.2523369</v>
       </c>
       <c r="M62" t="n">
-        <v>-6.2594181</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2026-02-19T10:14:07+00:00</t>
+          <t>2026-02-20T10:02:59+00:00</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4086,7 +4086,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ASHA</t>
+          <t>Weavers of Ireland</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4096,25 +4096,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>www.stephensgreen.com</t>
+          <t>weaversofireland.com</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.stephensgreen.com/dublin-shops/asha/offer</t>
+          <t>https://weaversofireland.com/outlet</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>OFFERS</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+          <t>Ladies Wool Peaky Blinders Hat</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="G63" t="n">
+        <v>49.95</v>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -4122,18 +4126,18 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>St. Stephen's Green, Dublin</t>
+          <t>9, Westmoreland Street, Dublin</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>53.3399449</v>
+        <v>53.3459126</v>
       </c>
       <c r="M63" t="n">
-        <v>-6.2614642</v>
+        <v>-6.2594181</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2026-02-19T10:16:53+00:00</t>
+          <t>2026-02-20T10:06:37+00:00</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4141,27 +4145,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>ASHA</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>www.stephensgreen.com</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/catalog</t>
+          <t>https://www.stephensgreen.com/dublin-shops/asha/offer</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Products</t>
+          <t>OFFERS</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4169,7 +4173,7 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -4177,18 +4181,18 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>St. Stephen's Green, Dublin</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>53.4071706</v>
+        <v>53.3399449</v>
       </c>
       <c r="M64" t="n">
-        <v>-6.2763987</v>
+        <v>-6.2614642</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2026-02-19T10:17:20+00:00</t>
+          <t>2026-02-20T10:09:16+00:00</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4196,7 +4200,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4206,28 +4210,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance</t>
+          <t>https://www.ikea.com/ie/en/catalog</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>€ 449</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>449</v>
-      </c>
-      <c r="G65" t="n">
-        <v>499</v>
-      </c>
-      <c r="H65" t="n">
-        <v>100</v>
-      </c>
+          <t>Products</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -4238,18 +4236,18 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M65" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2026-02-19T10:17:49+00:00</t>
+          <t>2026-02-20T10:09:45+00:00</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4277,14 +4275,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>€ 449</t>
+          <t>€ 36.95</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>449</v>
+        <v>36.95</v>
       </c>
       <c r="G66" t="n">
-        <v>499</v>
+        <v>39.95</v>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
@@ -4308,7 +4306,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2026-02-19T10:17:49+00:00</t>
+          <t>2026-02-20T10:10:12+00:00</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4340,10 +4338,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>449</v>
+        <v>36.95</v>
       </c>
       <c r="G67" t="n">
-        <v>499</v>
+        <v>39.95</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
@@ -4367,7 +4365,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2026-02-19T10:17:49+00:00</t>
+          <t>2026-02-20T10:10:12+00:00</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4395,14 +4393,14 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>€ 829</t>
+          <t>€ 29.95</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>829</v>
+        <v>29.95</v>
       </c>
       <c r="G68" t="n">
-        <v>929</v>
+        <v>34.95</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
@@ -4426,7 +4424,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2026-02-19T10:17:49+00:00</t>
+          <t>2026-02-20T10:10:12+00:00</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4458,10 +4456,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>829</v>
+        <v>29.95</v>
       </c>
       <c r="G69" t="n">
-        <v>929</v>
+        <v>34.95</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
@@ -4485,7 +4483,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2026-02-19T10:17:49+00:00</t>
+          <t>2026-02-20T10:10:12+00:00</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4513,14 +4511,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>€ 1,249</t>
+          <t>€ 449</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.24</v>
+        <v>449</v>
       </c>
       <c r="G70" t="n">
-        <v>1.29</v>
+        <v>499</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
@@ -4544,7 +4542,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2026-02-19T10:17:49+00:00</t>
+          <t>2026-02-20T10:10:12+00:00</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4576,10 +4574,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.24</v>
+        <v>449</v>
       </c>
       <c r="G71" t="n">
-        <v>1.29</v>
+        <v>499</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
@@ -4603,7 +4601,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2026-02-19T10:17:49+00:00</t>
+          <t>2026-02-20T10:10:12+00:00</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4631,14 +4629,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>€ 36.95</t>
+          <t>€ 1,249</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>36.95</v>
+        <v>1.24</v>
       </c>
       <c r="G72" t="n">
-        <v>39.95</v>
+        <v>1.29</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
@@ -4662,7 +4660,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2026-02-19T10:17:49+00:00</t>
+          <t>2026-02-20T10:10:12+00:00</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4723,7 +4721,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2026-02-19T10:19:29+00:00</t>
+          <t>2026-02-20T10:11:55+00:00</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4782,7 +4780,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2026-02-19T10:19:49+00:00</t>
+          <t>2026-02-20T10:12:15+00:00</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4839,7 +4837,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2026-02-19T10:19:51+00:00</t>
+          <t>2026-02-20T10:12:17+00:00</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4862,19 +4860,19 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
+          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Wool and Cashmere Throw</t>
+          <t>Ladies Boston Wool Felt Hat</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>279</v>
+        <v>79.95</v>
       </c>
       <c r="G76" t="n">
-        <v>279</v>
+        <v>79.95</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
@@ -4898,7 +4896,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2026-02-19T10:19:52+00:00</t>
+          <t>2026-02-20T10:12:19+00:00</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4957,7 +4955,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2026-02-19T10:19:54+00:00</t>
+          <t>2026-02-20T10:12:21+00:00</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4980,19 +4978,19 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
+          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Ladies Boston Wool Felt Hat</t>
+          <t>Wool and Cashmere Throw</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>79.95</v>
+        <v>279</v>
       </c>
       <c r="G78" t="n">
-        <v>79.95</v>
+        <v>279</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
@@ -5016,7 +5014,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2026-02-19T10:19:56+00:00</t>
+          <t>2026-02-20T10:12:23+00:00</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -5039,16 +5037,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
+          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Express Shipping Offer</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+          <t>Baby Shepley Aran Headband</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="G79" t="n">
+        <v>24.95</v>
+      </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
@@ -5071,7 +5073,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2026-02-19T10:19:58+00:00</t>
+          <t>2026-02-20T10:12:25+00:00</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -5094,23 +5096,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-him</t>
+          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Alpaca Scarf - Grey Herringbone</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>69.95</v>
-      </c>
-      <c r="G80" t="n">
-        <v>69.95</v>
-      </c>
-      <c r="H80" t="n">
-        <v>22</v>
-      </c>
+          <t>Express Shipping Offer</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -5132,7 +5128,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:00+00:00</t>
+          <t>2026-02-20T10:12:27+00:00</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -5155,21 +5151,23 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
+          <t>https://weaversofireland.com/collections/outlet-for-him</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Baby Shepley Aran Headband</t>
+          <t>Alpaca Scarf - Grey Herringbone</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>24.95</v>
+        <v>69.95</v>
       </c>
       <c r="G81" t="n">
-        <v>24.95</v>
-      </c>
-      <c r="H81" t="inlineStr"/>
+        <v>69.95</v>
+      </c>
+      <c r="H81" t="n">
+        <v>22</v>
+      </c>
       <c r="I81" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -5191,7 +5189,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:02+00:00</t>
+          <t>2026-02-20T10:12:29+00:00</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -5214,20 +5212,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
+          <t>https://www.ikea.com/ie/en/food/salesareas/restaurant/?categories=SC017</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ÅBÄCKEN Mist nozzle for mixer tap</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>6</v>
-      </c>
-      <c r="G82" t="n">
-        <v>6</v>
-      </c>
+          <t>Swedish Restaurant</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
@@ -5250,7 +5244,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:04+00:00</t>
+          <t>2026-02-20T10:12:30+00:00</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -5278,14 +5272,14 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>DALSKÄR Wash-basin mixer tap</t>
+          <t>ÅBÄCKEN Mist nozzle for mixer tap</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="G83" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
@@ -5309,7 +5303,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:04+00:00</t>
+          <t>2026-02-20T10:12:33+00:00</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -5337,18 +5331,16 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>LILLHAVET Washing-up bowl</t>
+          <t>DALSKÄR Wash-basin mixer tap</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="G84" t="n">
-        <v>6</v>
-      </c>
-      <c r="H84" t="n">
-        <v>50</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5370,7 +5362,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:04+00:00</t>
+          <t>2026-02-20T10:12:33+00:00</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
@@ -5398,16 +5390,18 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>IKEA PS 2002 Watering can, 1.2 l</t>
+          <t>LILLHAVET Washing-up bowl</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
-      </c>
-      <c r="H85" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H85" t="n">
+        <v>50</v>
+      </c>
       <c r="I85" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5429,7 +5423,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:04+00:00</t>
+          <t>2026-02-20T10:12:33+00:00</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
@@ -5452,19 +5446,19 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SOLHETTA LED bulb E27 470 lumen</t>
+          <t>IKEA PS 2002 Watering can, 1.2 l</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
@@ -5488,7 +5482,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:07+00:00</t>
+          <t>2026-02-20T10:12:33+00:00</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
@@ -5496,36 +5490,38 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SOLHETTA LED bulb E27 806 lumen</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="G87" t="n">
-        <v>5</v>
-      </c>
-      <c r="H87" t="inlineStr"/>
+        <v>3.29</v>
+      </c>
+      <c r="H87" t="n">
+        <v>15</v>
+      </c>
       <c r="I87" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5536,18 +5532,18 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>53.4071706</v>
+        <v>53.2898373</v>
       </c>
       <c r="M87" t="n">
-        <v>-6.2763987</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:07+00:00</t>
+          <t>2026-02-20T10:12:37+00:00</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -5555,34 +5551,34 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>DIRIGERA Hub for smart products</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>65</v>
+        <v>2.25</v>
       </c>
       <c r="G88" t="n">
-        <v>65</v>
+        <v>3.29</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
@@ -5595,18 +5591,18 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>53.4071706</v>
+        <v>53.2898373</v>
       </c>
       <c r="M88" t="n">
-        <v>-6.2763987</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:07+00:00</t>
+          <t>2026-02-20T10:12:37+00:00</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
@@ -5614,34 +5610,34 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/quick-tricks-to-save-energy-at-home-pubd7c144e0/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TILLREDA Portable induction hob</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>85</v>
+        <v>2.25</v>
       </c>
       <c r="G89" t="n">
-        <v>85</v>
+        <v>3.29</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
@@ -5654,18 +5650,18 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>53.4071706</v>
+        <v>53.2898373</v>
       </c>
       <c r="M89" t="n">
-        <v>-6.2763987</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:07+00:00</t>
+          <t>2026-02-20T10:12:37+00:00</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -5673,35 +5669,33 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/furniture-clearance/?mega-menu</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>€ 999</t>
+          <t>Damiani Round Brilliant Three Stone Diamond Ring 0.66ct</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="G90" t="n">
-        <v>999</v>
-      </c>
+        <v>2.25</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
@@ -5713,18 +5707,18 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M90" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:11+00:00</t>
+          <t>2026-02-20T10:12:37+00:00</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
@@ -5732,36 +5726,34 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/furniture-clearance/?mega-menu</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="G91" t="n">
-        <v>999</v>
-      </c>
-      <c r="H91" t="inlineStr"/>
+          <t>Guarantee &amp; Service</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="n">
+        <v>15</v>
+      </c>
       <c r="I91" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5772,18 +5764,18 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M91" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:11+00:00</t>
+          <t>2026-02-20T10:12:37+00:00</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
@@ -5791,39 +5783,41 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/furniture-clearance/?mega-menu</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>€ 399</t>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>399</v>
+        <v>3.49</v>
       </c>
       <c r="G92" t="n">
-        <v>499</v>
-      </c>
-      <c r="H92" t="inlineStr"/>
+        <v>4.99</v>
+      </c>
+      <c r="H92" t="n">
+        <v>31</v>
+      </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J92" t="b">
@@ -5831,18 +5825,18 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M92" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:11+00:00</t>
+          <t>2026-02-20T10:12:39+00:00</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
@@ -5850,34 +5844,38 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/furniture-clearance/?mega-menu</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Rayne Sideboard | 3 Doors | Natural</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>499</v>
-      </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
+        <v>1.39</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H93" t="n">
+        <v>15</v>
+      </c>
       <c r="I93" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5888,18 +5886,18 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M93" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:11+00:00</t>
+          <t>2026-02-20T10:12:41+00:00</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
@@ -5907,34 +5905,34 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/furniture-clearance/?mega-menu</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>399</v>
+        <v>1.39</v>
       </c>
       <c r="G94" t="n">
-        <v>999</v>
+        <v>1.59</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
@@ -5947,18 +5945,18 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M94" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:11+00:00</t>
+          <t>2026-02-20T10:12:41+00:00</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
@@ -5966,34 +5964,34 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/furniture-clearance/?mega-menu</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>€ 1,499</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="G95" t="n">
-        <v>1999</v>
+        <v>1.59</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
@@ -6006,18 +6004,18 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M95" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:11+00:00</t>
+          <t>2026-02-20T10:12:41+00:00</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
@@ -6025,31 +6023,31 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/furniture-clearance/?mega-menu</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Prince Corner Sofa</t>
+          <t>Rocks Diamond &amp; Gemstone Floral Necklace</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1999</v>
+        <v>1.39</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -6063,18 +6061,18 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M96" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:11+00:00</t>
+          <t>2026-02-20T10:12:41+00:00</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
@@ -6082,39 +6080,41 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/furniture-clearance/?mega-menu</t>
+          <t>https://rocks.ie/collections/black-friday-picks</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.49</v>
+        <v>3.49</v>
       </c>
       <c r="G97" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="H97" t="inlineStr"/>
+        <v>4.99</v>
+      </c>
+      <c r="H97" t="n">
+        <v>31</v>
+      </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J97" t="b">
@@ -6122,18 +6122,18 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M97" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:11+00:00</t>
+          <t>2026-02-20T10:12:43+00:00</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
@@ -6141,36 +6141,38 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/furniture-clearance/?mega-menu</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>€ 169</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>169</v>
+        <v>13.25</v>
       </c>
       <c r="G98" t="n">
-        <v>299</v>
-      </c>
-      <c r="H98" t="inlineStr"/>
+        <v>18.29</v>
+      </c>
+      <c r="H98" t="n">
+        <v>15</v>
+      </c>
       <c r="I98" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6181,18 +6183,18 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M98" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:11+00:00</t>
+          <t>2026-02-20T10:12:44+00:00</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
@@ -6200,34 +6202,34 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>€ 59.95</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>29.95</v>
+        <v>13.25</v>
       </c>
       <c r="G99" t="n">
-        <v>59.95</v>
+        <v>18.29</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
@@ -6240,18 +6242,18 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M99" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:13+00:00</t>
+          <t>2026-02-20T10:12:44+00:00</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
@@ -6259,33 +6261,35 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>€ 59.95</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>59.95</v>
-      </c>
-      <c r="G100" t="inlineStr"/>
+        <v>13.25</v>
+      </c>
+      <c r="G100" t="n">
+        <v>18.29</v>
+      </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
@@ -6297,18 +6301,18 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M100" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:13+00:00</t>
+          <t>2026-02-20T10:12:44+00:00</t>
         </is>
       </c>
       <c r="O100" t="inlineStr"/>
@@ -6316,31 +6320,31 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Add to compare list</t>
+          <t>Oval Yellow Diamond Solitiatire Diamond Set Shoulders 1.16ct</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>59.95</v>
+        <v>13.25</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
@@ -6354,18 +6358,18 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M101" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:13+00:00</t>
+          <t>2026-02-20T10:12:44+00:00</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
@@ -6373,36 +6377,38 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>€ 29.95</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>29.95</v>
+        <v>3.49</v>
       </c>
       <c r="G102" t="n">
-        <v>39.95</v>
-      </c>
-      <c r="H102" t="inlineStr"/>
+        <v>4.99</v>
+      </c>
+      <c r="H102" t="n">
+        <v>15</v>
+      </c>
       <c r="I102" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6413,18 +6419,18 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M102" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:13+00:00</t>
+          <t>2026-02-20T10:12:46+00:00</t>
         </is>
       </c>
       <c r="O102" t="inlineStr"/>
@@ -6432,34 +6438,34 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Add to compare list</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>29.95</v>
+        <v>3.49</v>
       </c>
       <c r="G103" t="n">
-        <v>39.95</v>
+        <v>4.99</v>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
@@ -6472,18 +6478,18 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M103" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:13+00:00</t>
+          <t>2026-02-20T10:12:46+00:00</t>
         </is>
       </c>
       <c r="O103" t="inlineStr"/>
@@ -6491,34 +6497,34 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>€ 54.95</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>54.95</v>
+        <v>3.49</v>
       </c>
       <c r="G104" t="n">
-        <v>65.95</v>
+        <v>4.99</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
@@ -6531,18 +6537,18 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M104" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:13+00:00</t>
+          <t>2026-02-20T10:12:46+00:00</t>
         </is>
       </c>
       <c r="O104" t="inlineStr"/>
@@ -6550,35 +6556,33 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Add to compare list</t>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="G105" t="n">
-        <v>65.95</v>
-      </c>
+        <v>3.49</v>
+      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
@@ -6590,18 +6594,18 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M105" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:13+00:00</t>
+          <t>2026-02-20T10:12:46+00:00</t>
         </is>
       </c>
       <c r="O105" t="inlineStr"/>
@@ -6609,36 +6613,34 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance/small-appliances-clearance/</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>€ 799</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>799</v>
-      </c>
-      <c r="G106" t="n">
-        <v>849</v>
-      </c>
-      <c r="H106" t="inlineStr"/>
+          <t>Guarantee &amp; Service</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="n">
+        <v>15</v>
+      </c>
       <c r="I106" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6649,18 +6651,18 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>53.2523369</v>
+        <v>53.2898373</v>
       </c>
       <c r="M106" t="n">
-        <v>-6.1860761</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:13+00:00</t>
+          <t>2026-02-20T10:12:46+00:00</t>
         </is>
       </c>
       <c r="O106" t="inlineStr"/>
@@ -6668,41 +6670,35 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>SISU Clinic</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>perfumes/beauty</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.sisuclinic.com</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/black-friday-picks</t>
+          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G107" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H107" t="n">
-        <v>31</v>
-      </c>
+          <t>Explore our latest Blogs</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="J107" t="b">
@@ -6710,18 +6706,18 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>3, Fields Terrace, Dublin</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>53.2898373</v>
+        <v>53.3252812</v>
       </c>
       <c r="M107" t="n">
-        <v>-6.1999596</v>
+        <v>-6.2554094</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:16+00:00</t>
+          <t>2026-02-20T10:12:48+00:00</t>
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
@@ -6729,41 +6725,35 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>SISU Clinic</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>perfumes/beauty</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.sisuclinic.com</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="G108" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="H108" t="n">
-        <v>15</v>
-      </c>
+          <t>Explore our latest Blogs</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="J108" t="b">
@@ -6771,1189 +6761,21 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>3, Fields Terrace, Dublin</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>53.2898373</v>
+        <v>53.3252812</v>
       </c>
       <c r="M108" t="n">
-        <v>-6.1999596</v>
+        <v>-6.2554094</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2026-02-19T10:20:18+00:00</t>
+          <t>2026-02-20T10:12:49+00:00</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Skip to product information</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="G109" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J109" t="b">
-        <v>1</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M109" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>2026-02-19T10:20:18+00:00</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="G110" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J110" t="b">
-        <v>1</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M110" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>2026-02-19T10:20:18+00:00</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Oval Yellow Diamond Solitiatire Diamond Set Shoulders 1.16ct</t>
-        </is>
-      </c>
-      <c r="F111" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J111" t="b">
-        <v>1</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M111" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>2026-02-19T10:20:18+00:00</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G112" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H112" t="n">
-        <v>31</v>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>LOW</t>
-        </is>
-      </c>
-      <c r="J112" t="b">
-        <v>1</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M112" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>2026-02-19T10:20:20+00:00</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Talk to a Diamond Expert</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G113" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="H113" t="n">
-        <v>15</v>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J113" t="b">
-        <v>1</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M113" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>2026-02-19T10:20:22+00:00</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Skip to product information</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G114" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J114" t="b">
-        <v>1</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M114" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>2026-02-19T10:20:22+00:00</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G115" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J115" t="b">
-        <v>1</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M115" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>2026-02-19T10:20:22+00:00</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Damiani Round Brilliant Three Stone Diamond Ring 0.66ct</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J116" t="b">
-        <v>1</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M116" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>2026-02-19T10:20:22+00:00</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Guarantee &amp; Service</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="n">
-        <v>15</v>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J117" t="b">
-        <v>1</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M117" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>2026-02-19T10:20:22+00:00</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Talk to a Diamond Expert</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H118" t="n">
-        <v>15</v>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J118" t="b">
-        <v>1</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M118" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>2026-02-19T10:20:24+00:00</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Skip to product information</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J119" t="b">
-        <v>1</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M119" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>2026-02-19T10:20:24+00:00</t>
-        </is>
-      </c>
-      <c r="O119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G120" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J120" t="b">
-        <v>1</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M120" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>2026-02-19T10:20:24+00:00</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Rocks Diamond &amp; Gemstone Floral Necklace</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J121" t="b">
-        <v>1</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M121" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>2026-02-19T10:20:24+00:00</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Talk to a Diamond Expert</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G122" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H122" t="n">
-        <v>15</v>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J122" t="b">
-        <v>1</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M122" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>2026-02-19T10:20:26+00:00</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Skip to product information</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G123" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J123" t="b">
-        <v>1</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M123" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>2026-02-19T10:20:26+00:00</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G124" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J124" t="b">
-        <v>1</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M124" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>2026-02-19T10:20:26+00:00</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J125" t="b">
-        <v>1</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M125" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>2026-02-19T10:20:26+00:00</t>
-        </is>
-      </c>
-      <c r="O125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Rocks</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>jewellery</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>rocks.ie</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Guarantee &amp; Service</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="n">
-        <v>15</v>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="J126" t="b">
-        <v>1</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>Old Dublin Road</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>53.2898373</v>
-      </c>
-      <c r="M126" t="n">
-        <v>-6.1999596</v>
-      </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>2026-02-19T10:20:26+00:00</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>SISU Clinic</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>perfumes/beauty</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>www.sisuclinic.com</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Explore our latest Blogs</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="J127" t="b">
-        <v>1</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>3, Fields Terrace, Dublin</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>53.3252812</v>
-      </c>
-      <c r="M127" t="n">
-        <v>-6.2554094</v>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>2026-02-19T10:20:28+00:00</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>SISU Clinic</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>perfumes/beauty</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>www.sisuclinic.com</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Explore our latest Blogs</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="J128" t="b">
-        <v>1</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>3, Fields Terrace, Dublin</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>53.3252812</v>
-      </c>
-      <c r="M128" t="n">
-        <v>-6.2554094</v>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>2026-02-19T10:20:30+00:00</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/deals.xlsx
+++ b/deals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O108"/>
+  <dimension ref="A1:O117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2026-02-20T09:59:36+00:00</t>
+          <t>2026-02-21T09:47:35+00:00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2026-02-20T09:59:36+00:00</t>
+          <t>2026-02-21T09:47:35+00:00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -682,7 +682,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2026-02-20T09:59:36+00:00</t>
+          <t>2026-02-21T09:47:35+00:00</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -741,7 +741,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2026-02-20T09:59:36+00:00</t>
+          <t>2026-02-21T09:47:35+00:00</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -798,7 +798,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2026-02-20T09:59:36+00:00</t>
+          <t>2026-02-21T09:47:35+00:00</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -857,7 +857,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2026-02-20T09:59:36+00:00</t>
+          <t>2026-02-21T09:47:35+00:00</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -914,7 +914,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2026-02-20T09:59:36+00:00</t>
+          <t>2026-02-21T09:47:35+00:00</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -969,7 +969,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2026-02-20T10:01:26+00:00</t>
+          <t>2026-02-21T09:49:12+00:00</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2026-02-20T10:01:33+00:00</t>
+          <t>2026-02-21T09:49:18+00:00</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2026-02-20T10:01:33+00:00</t>
+          <t>2026-02-21T09:49:18+00:00</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2026-02-20T10:01:33+00:00</t>
+          <t>2026-02-21T09:49:18+00:00</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2026-02-20T10:01:33+00:00</t>
+          <t>2026-02-21T09:49:18+00:00</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:19+00:00</t>
+          <t>2026-02-21T09:49:54+00:00</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1297,12 +1297,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, Standard King</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:26+00:00</t>
+          <t>2026-02-21T09:50:00+00:00</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1363,17 +1363,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, Standard King</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="G16" t="n">
-        <v>25.5</v>
+        <v>127</v>
       </c>
       <c r="H16" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:26+00:00</t>
+          <t>2026-02-21T09:50:02+00:00</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1424,17 +1424,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>25.5</v>
       </c>
       <c r="H17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:26+00:00</t>
+          <t>2026-02-21T09:50:02+00:00</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1485,17 +1485,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
+          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G18" t="n">
-        <v>29.75</v>
+        <v>8</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:26+00:00</t>
+          <t>2026-02-21T09:50:02+00:00</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1541,22 +1541,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
+          <t>https://www.ikea.com/ie/en/offers/?itm_campaign=footer</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="G19" t="n">
-        <v>127</v>
+        <v>29.75</v>
       </c>
       <c r="H19" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:28+00:00</t>
+          <t>2026-02-21T09:50:02+00:00</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1602,12 +1602,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, Standard King</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:29+00:00</t>
+          <t>2026-02-21T09:50:04+00:00</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1663,22 +1663,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:10680</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="G21" t="n">
-        <v>25.5</v>
+        <v>127</v>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:29+00:00</t>
+          <t>2026-02-21T09:50:05+00:00</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1724,19 +1724,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
+          <t>NORDBERGET Mattress pad, white, Standard King</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="H22" t="n">
         <v>20</v>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:29+00:00</t>
+          <t>2026-02-21T09:50:07+00:00</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1790,17 +1790,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
+          <t>NORDBERGET Mattress pad, Standard King</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="G23" t="n">
-        <v>29.75</v>
+        <v>127</v>
       </c>
       <c r="H23" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:29+00:00</t>
+          <t>2026-02-21T09:50:08+00:00</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1846,22 +1846,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 200x200/50x80 cm</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="G24" t="n">
-        <v>127</v>
+        <v>25.5</v>
       </c>
       <c r="H24" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:31+00:00</t>
+          <t>2026-02-21T09:50:08+00:00</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1907,19 +1907,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:20636</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
+          <t>SVARTABBORRE Baking sheet rack, 27x26x33 cm</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="G25" t="n">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="H25" t="n">
         <v>20</v>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:33+00:00</t>
+          <t>2026-02-21T09:50:08+00:00</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1968,17 +1968,23 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
+          <t>https://www.ikea.com/ie/en/offers/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Re-shop and Re-use</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+          <t>ÄNGSLILJA Duvet cover and 2 pillowcases, 240x220/50x80 cm</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>29</v>
+      </c>
+      <c r="G26" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="H26" t="n">
+        <v>15</v>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -2000,7 +2006,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:35+00:00</t>
+          <t>2026-02-21T09:50:08+00:00</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -2023,23 +2029,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/offers/family-offers/?filters=f-subcategories:24826</t>
+          <t>https://www.ikea.com/ie/en/offers/circular-hub-pub2eab7840/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NORDBERGET Mattress pad, white, Standard King</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>127</v>
-      </c>
-      <c r="G27" t="n">
-        <v>127</v>
-      </c>
-      <c r="H27" t="n">
-        <v>20</v>
-      </c>
+          <t>Re-shop and Re-use</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:37+00:00</t>
+          <t>2026-02-21T09:50:10+00:00</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:38+00:00</t>
+          <t>2026-02-21T09:50:11+00:00</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2145,22 +2145,24 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Current sales and promotions</t>
+          <t>€ 599</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="G29" t="n">
+        <v>599</v>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -2179,7 +2181,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:40+00:00</t>
+          <t>2026-02-21T09:50:17+00:00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2202,21 +2204,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/value-offers.html</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>Electrolux Built-in Electric Pyrolytic Oven | EOM6P46K</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
-        <v>25</v>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:42+00:00</t>
+          <t>2026-02-21T09:50:17+00:00</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2261,20 +2261,18 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>€ 1,799</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="G31" t="n">
-        <v>150</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
@@ -2297,7 +2295,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:45+00:00</t>
+          <t>2026-02-21T09:50:17+00:00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2320,16 +2318,16 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>LG 65" OLED Evo AI C5 4K Smart TV | OLED65C54LA.AEK</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>150</v>
+        <v>599</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -2354,7 +2352,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:45+00:00</t>
+          <t>2026-02-21T09:50:17+00:00</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2377,16 +2375,16 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>€ 499</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>150</v>
+        <v>499</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -2411,7 +2409,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:45+00:00</t>
+          <t>2026-02-21T09:50:17+00:00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2434,7 +2432,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2443,7 +2441,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.79</v>
+        <v>499</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -2468,7 +2466,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:45+00:00</t>
+          <t>2026-02-21T09:50:17+00:00</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2491,20 +2489,18 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>€ 1,299</t>
+          <t>€ 1,999</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="G35" t="n">
-        <v>100</v>
-      </c>
+        <v>1.99</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
@@ -2527,7 +2523,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:45+00:00</t>
+          <t>2026-02-21T09:50:17+00:00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2550,16 +2546,16 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>LG 55" OLED Evo AI C5 4K Smart TV | OLED55C54LA.AEK</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>1.99</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -2584,7 +2580,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:45+00:00</t>
+          <t>2026-02-21T09:50:17+00:00</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2607,16 +2603,16 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>€ 1,549</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>1.54</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -2641,7 +2637,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:45+00:00</t>
+          <t>2026-02-21T09:50:17+00:00</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2664,16 +2660,16 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 649</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.29</v>
+        <v>649</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
@@ -2698,7 +2694,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:45+00:00</t>
+          <t>2026-02-21T09:50:19+00:00</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2721,20 +2717,18 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>€ 2,599</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="G39" t="n">
-        <v>150</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
@@ -2757,7 +2751,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:45+00:00</t>
+          <t>2026-02-21T09:50:19+00:00</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2785,14 +2779,18 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>LG 65" G5 OLED Evo 4K Smart TV | OLED65G54LW.AEK</t>
+          <t>€ 1,169</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>150</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+        <v>1.16</v>
+      </c>
+      <c r="G40" t="n">
+        <v>100</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -2814,7 +2812,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:45+00:00</t>
+          <t>2026-02-21T09:50:22+00:00</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2842,14 +2840,16 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>LG 55" OLED Evo AI C5 4K Smart TV | OLED55C54LA.AEK</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.59</v>
+        <v>100</v>
       </c>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:45+00:00</t>
+          <t>2026-02-21T09:50:22+00:00</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2899,16 +2899,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>€ 999</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>50</v>
-      </c>
-      <c r="G42" t="n">
-        <v>999</v>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>Search Suggestions</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -2930,7 +2928,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:45+00:00</t>
+          <t>2026-02-21T09:50:22+00:00</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2953,20 +2951,18 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>499</v>
-      </c>
-      <c r="G43" t="n">
-        <v>599</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
@@ -2989,7 +2985,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:48+00:00</t>
+          <t>2026-02-21T09:50:22+00:00</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3012,18 +3008,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>599</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
+        <v>1.16</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.29</v>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
@@ -3046,7 +3044,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:48+00:00</t>
+          <t>2026-02-21T09:50:22+00:00</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -3069,19 +3067,23 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 1,619</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>599</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+        <v>1.61</v>
+      </c>
+      <c r="G45" t="n">
+        <v>150</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -3103,7 +3105,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:48+00:00</t>
+          <t>2026-02-21T09:50:22+00:00</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3126,19 +3128,21 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>€ 499</t>
+          <t>LG 65" OLED Evo AI C5 4K Smart TV | OLED65C54LA.AEK</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>499</v>
+        <v>150</v>
       </c>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -3160,7 +3164,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:48+00:00</t>
+          <t>2026-02-21T09:50:22+00:00</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3183,16 +3187,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>499</v>
+        <v>150</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -3217,7 +3221,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:48+00:00</t>
+          <t>2026-02-21T09:50:22+00:00</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3240,18 +3244,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>€ 1,999</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+        <v>1.61</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.79</v>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
@@ -3274,7 +3280,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:48+00:00</t>
+          <t>2026-02-21T09:50:22+00:00</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3297,19 +3303,23 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 2,339</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+        <v>2.33</v>
+      </c>
+      <c r="G49" t="n">
+        <v>150</v>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -3331,7 +3341,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:48+00:00</t>
+          <t>2026-02-21T09:50:22+00:00</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3354,19 +3364,21 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooking-en-2/</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>€ 1,549</t>
+          <t>LG 65" G5 OLED Evo 4K Smart TV | OLED65G54LW.AEK</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.54</v>
+        <v>150</v>
       </c>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -3388,7 +3400,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:48+00:00</t>
+          <t>2026-02-21T09:50:22+00:00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3411,22 +3423,24 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
+          <t>https://www.harveynorman.ie/promotions-en/lg-cashback-2026/</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Search Suggestions</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
+        <v>2.33</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.59</v>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -3445,7 +3459,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:50+00:00</t>
+          <t>2026-02-21T09:50:22+00:00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3468,24 +3482,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/promotions.html</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>€ 998</t>
+          <t>Current sales and promotions</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G52" t="n">
-        <v>998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -3504,7 +3516,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:53+00:00</t>
+          <t>2026-02-21T09:50:25+00:00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3527,19 +3539,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 449</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.04</v>
+        <v>449</v>
       </c>
       <c r="G53" t="n">
-        <v>998</v>
+        <v>599</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
@@ -3563,7 +3575,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:53+00:00</t>
+          <t>2026-02-21T09:50:27+00:00</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3586,16 +3598,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>€ 1,119</t>
+          <t>€ 449</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.11</v>
+        <v>449</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -3620,7 +3632,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:53+00:00</t>
+          <t>2026-02-21T09:50:27+00:00</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3643,7 +3655,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3652,7 +3664,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.11</v>
+        <v>449</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -3677,7 +3689,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:53+00:00</t>
+          <t>2026-02-21T09:50:27+00:00</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3709,11 +3721,9 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>449</v>
-      </c>
-      <c r="G56" t="n">
         <v>599</v>
       </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
@@ -3736,7 +3746,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:56+00:00</t>
+          <t>2026-02-21T09:50:27+00:00</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3764,7 +3774,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>€ 599</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -3793,7 +3803,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:56+00:00</t>
+          <t>2026-02-21T09:50:27+00:00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3816,22 +3826,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/latest-catalogues.html</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>599</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -3850,7 +3860,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:56+00:00</t>
+          <t>2026-02-21T09:50:29+00:00</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3873,18 +3883,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>€ 449</t>
+          <t>€ 998</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>449</v>
-      </c>
-      <c r="G59" t="inlineStr"/>
+        <v>1.04</v>
+      </c>
+      <c r="G59" t="n">
+        <v>998</v>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
@@ -3907,7 +3919,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:56+00:00</t>
+          <t>2026-02-21T09:50:31+00:00</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3930,7 +3942,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-dishwashing-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3939,9 +3951,11 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>449</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
+        <v>1.04</v>
+      </c>
+      <c r="G60" t="n">
+        <v>998</v>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
@@ -3964,7 +3978,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:56+00:00</t>
+          <t>2026-02-21T09:50:31+00:00</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3987,16 +4001,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>€ 649</t>
+          <t>€ 1,119</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>649</v>
+        <v>1.11</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -4021,7 +4035,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:59+00:00</t>
+          <t>2026-02-21T09:50:31+00:00</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -4044,7 +4058,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-cooling-en/</t>
+          <t>https://www.harveynorman.ie/big-sale/big-sale-deals-on-electrical/deals-on-home-appliances/deals-on-laundry-en/</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4053,7 +4067,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>649</v>
+        <v>1.11</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
@@ -4078,7 +4092,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2026-02-20T10:02:59+00:00</t>
+          <t>2026-02-21T09:50:31+00:00</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4086,39 +4100,39 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Weavers of Ireland</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>weaversofireland.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/outlet</t>
+          <t>https://www.harveynorman.ie/value-offers.html</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ladies Wool Peaky Blinders Hat</t>
+          <t>Search Suggestions</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>49.95</v>
-      </c>
-      <c r="G63" t="n">
-        <v>49.95</v>
-      </c>
-      <c r="H63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>25</v>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -4126,18 +4140,18 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>9, Westmoreland Street, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>53.3459126</v>
+        <v>53.2523369</v>
       </c>
       <c r="M63" t="n">
-        <v>-6.2594181</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2026-02-20T10:06:37+00:00</t>
+          <t>2026-02-21T09:50:33+00:00</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4145,7 +4159,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ASHA</t>
+          <t>Weavers of Ireland</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4155,25 +4169,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>www.stephensgreen.com</t>
+          <t>weaversofireland.com</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.stephensgreen.com/dublin-shops/asha/offer</t>
+          <t>https://weaversofireland.com/outlet</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>OFFERS</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+          <t>Ladies Wool Peaky Blinders Hat</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="G64" t="n">
+        <v>49.95</v>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -4181,18 +4199,18 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>St. Stephen's Green, Dublin</t>
+          <t>9, Westmoreland Street, Dublin</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>53.3399449</v>
+        <v>53.3459126</v>
       </c>
       <c r="M64" t="n">
-        <v>-6.2614642</v>
+        <v>-6.2594181</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2026-02-20T10:09:16+00:00</t>
+          <t>2026-02-21T09:53:55+00:00</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4200,27 +4218,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>ASHA</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>www.stephensgreen.com</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/catalog</t>
+          <t>https://www.stephensgreen.com/dublin-shops/asha/offer</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Products</t>
+          <t>OFFERS</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4228,7 +4246,7 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -4236,18 +4254,18 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>St. Stephen's Green, Dublin</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>53.4071706</v>
+        <v>53.3399449</v>
       </c>
       <c r="M65" t="n">
-        <v>-6.2763987</v>
+        <v>-6.2614642</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2026-02-20T10:09:45+00:00</t>
+          <t>2026-02-21T09:56:39+00:00</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4255,7 +4273,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Harvey Norman</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4265,25 +4283,21 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>www.harveynorman.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.harveynorman.ie/clearance</t>
+          <t>https://www.ikea.com/ie/en/catalog</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>€ 36.95</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>36.95</v>
-      </c>
-      <c r="G66" t="n">
-        <v>39.95</v>
-      </c>
+          <t>Products</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
@@ -4295,18 +4309,18 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>230, Carrickmines Park, D18 FH48</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>53.2523369</v>
+        <v>53.4071706</v>
       </c>
       <c r="M66" t="n">
-        <v>-6.1860761</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2026-02-20T10:10:12+00:00</t>
+          <t>2026-02-21T09:57:10+00:00</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4334,7 +4348,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 36.95</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -4365,7 +4379,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2026-02-20T10:10:12+00:00</t>
+          <t>2026-02-21T09:57:36+00:00</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4393,14 +4407,14 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>€ 29.95</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>29.95</v>
+        <v>36.95</v>
       </c>
       <c r="G68" t="n">
-        <v>34.95</v>
+        <v>39.95</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
@@ -4424,7 +4438,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2026-02-20T10:10:12+00:00</t>
+          <t>2026-02-21T09:57:36+00:00</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4452,7 +4466,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 29.95</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -4483,7 +4497,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2026-02-20T10:10:12+00:00</t>
+          <t>2026-02-21T09:57:36+00:00</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4511,14 +4525,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>€ 449</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>449</v>
+        <v>29.95</v>
       </c>
       <c r="G70" t="n">
-        <v>499</v>
+        <v>34.95</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
@@ -4542,7 +4556,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2026-02-20T10:10:12+00:00</t>
+          <t>2026-02-21T09:57:36+00:00</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4570,7 +4584,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FIND IN STORE</t>
+          <t>€ 449</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -4601,7 +4615,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2026-02-20T10:10:12+00:00</t>
+          <t>2026-02-21T09:57:36+00:00</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4629,14 +4643,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>€ 1,249</t>
+          <t>FIND IN STORE</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.24</v>
+        <v>449</v>
       </c>
       <c r="G72" t="n">
-        <v>1.29</v>
+        <v>499</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
@@ -4660,7 +4674,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2026-02-20T10:10:12+00:00</t>
+          <t>2026-02-21T09:57:36+00:00</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4668,41 +4682,39 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>R&amp;C McCormack</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>celticdublin.com</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://celticdublin.com/offer</t>
+          <t>https://www.harveynorman.ie/clearance</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Offers</t>
+          <t>€ 1,249</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>1.24</v>
       </c>
       <c r="G73" t="n">
-        <v>100</v>
-      </c>
-      <c r="H73" t="n">
-        <v>15</v>
-      </c>
+        <v>1.29</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -4710,18 +4722,18 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Grafton Street, Dublin</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>53.3400972</v>
+        <v>53.2523369</v>
       </c>
       <c r="M73" t="n">
-        <v>-6.2605276</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2026-02-20T10:11:55+00:00</t>
+          <t>2026-02-21T09:57:36+00:00</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4729,36 +4741,38 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Weavers of Ireland</t>
+          <t>R&amp;C McCormack</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>weaversofireland.com</t>
+          <t>celticdublin.com</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet</t>
+          <t>https://celticdublin.com/offer</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ladies Wool Peaky Blinders Hat</t>
+          <t>Offers</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>49.95</v>
+        <v>100</v>
       </c>
       <c r="G74" t="n">
-        <v>49.95</v>
-      </c>
-      <c r="H74" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="H74" t="n">
+        <v>15</v>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -4769,18 +4783,18 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>9, Westmoreland Street, Dublin</t>
+          <t>Grafton Street, Dublin</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>53.3459126</v>
+        <v>53.3400972</v>
       </c>
       <c r="M74" t="n">
-        <v>-6.2594181</v>
+        <v>-6.2605276</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:15+00:00</t>
+          <t>2026-02-21T09:59:17+00:00</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4803,19 +4817,21 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/blogs/blog/irish-wool-what-makes-it-special-and-why-it-s-perfect-for-march-weather</t>
+          <t>https://weaversofireland.com/collections/outlet</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Irish Wool: What Makes it Special and Why it’s Perfect for March Weather</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="n">
-        <v>100</v>
-      </c>
+          <t>Ladies Wool Peaky Blinders Hat</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="G75" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -4837,7 +4853,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:17+00:00</t>
+          <t>2026-02-21T09:59:36+00:00</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4860,20 +4876,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
+          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ladies Boston Wool Felt Hat</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>79.95</v>
-      </c>
-      <c r="G76" t="n">
-        <v>79.95</v>
-      </c>
+          <t>Express Shipping Offer</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
@@ -4896,7 +4908,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:19+00:00</t>
+          <t>2026-02-21T09:59:37+00:00</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4919,19 +4931,19 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-her</t>
+          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Cable Knit Crew Neck Aran Wool Sweater</t>
+          <t>Wool and Cashmere Throw</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>66.95</v>
+        <v>279</v>
       </c>
       <c r="G77" t="n">
-        <v>66.95</v>
+        <v>279</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
@@ -4955,7 +4967,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:21+00:00</t>
+          <t>2026-02-21T09:59:39+00:00</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4978,19 +4990,19 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-the-home</t>
+          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Wool and Cashmere Throw</t>
+          <t>Baby Shepley Aran Headband</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>279</v>
+        <v>24.95</v>
       </c>
       <c r="G78" t="n">
-        <v>279</v>
+        <v>24.95</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
@@ -5014,7 +5026,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:23+00:00</t>
+          <t>2026-02-21T09:59:40+00:00</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -5037,21 +5049,23 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-kids</t>
+          <t>https://weaversofireland.com/collections/outlet-for-him</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Baby Shepley Aran Headband</t>
+          <t>Alpaca Scarf - Grey Herringbone</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>24.95</v>
+        <v>69.95</v>
       </c>
       <c r="G79" t="n">
-        <v>24.95</v>
-      </c>
-      <c r="H79" t="inlineStr"/>
+        <v>69.95</v>
+      </c>
+      <c r="H79" t="n">
+        <v>22</v>
+      </c>
       <c r="I79" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -5073,7 +5087,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:25+00:00</t>
+          <t>2026-02-21T09:59:42+00:00</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -5096,16 +5110,20 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/pages/express-shipping-offer</t>
+          <t>https://weaversofireland.com/collections/jan-sale-2026</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Express Shipping Offer</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+          <t>Ladies Boston Wool Felt Hat</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>79.95</v>
+      </c>
+      <c r="G80" t="n">
+        <v>79.95</v>
+      </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
@@ -5128,7 +5146,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:27+00:00</t>
+          <t>2026-02-21T09:59:44+00:00</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -5151,22 +5169,18 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://weaversofireland.com/collections/outlet-for-him</t>
+          <t>https://weaversofireland.com/blogs/blog/irish-wool-what-makes-it-special-and-why-it-s-perfect-for-march-weather</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Alpaca Scarf - Grey Herringbone</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>69.95</v>
-      </c>
-      <c r="G81" t="n">
-        <v>69.95</v>
-      </c>
+          <t>Irish Wool: What Makes it Special and Why it’s Perfect for March Weather</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -5189,7 +5203,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:29+00:00</t>
+          <t>2026-02-21T09:59:46+00:00</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -5197,35 +5211,39 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>IKEA</t>
+          <t>Weavers of Ireland</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>home appliances</t>
+          <t>clothes</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>www.ikea.com</t>
+          <t>weaversofireland.com</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/food/salesareas/restaurant/?categories=SC017</t>
+          <t>https://weaversofireland.com/collections/outlet-for-her</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Swedish Restaurant</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
+          <t>Cable Knit Crew Neck Aran Wool Sweater</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>66.95</v>
+      </c>
+      <c r="G82" t="n">
+        <v>66.95</v>
+      </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -5233,18 +5251,18 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Saint Margaret's Road, Dublin</t>
+          <t>9, Westmoreland Street, Dublin</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>53.4071706</v>
+        <v>53.3459126</v>
       </c>
       <c r="M82" t="n">
-        <v>-6.2763987</v>
+        <v>-6.2594181</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:30+00:00</t>
+          <t>2026-02-21T09:59:48+00:00</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -5267,20 +5285,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
+          <t>https://www.ikea.com/ie/en/food/salesareas/restaurant/?categories=SC017</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ÅBÄCKEN Mist nozzle for mixer tap</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>6</v>
-      </c>
-      <c r="G83" t="n">
-        <v>6</v>
-      </c>
+          <t>Swedish Restaurant</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
@@ -5303,7 +5317,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:33+00:00</t>
+          <t>2026-02-21T09:59:49+00:00</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -5331,14 +5345,14 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>DALSKÄR Wash-basin mixer tap</t>
+          <t>ÅBÄCKEN Mist nozzle for mixer tap</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="G84" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
@@ -5362,7 +5376,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:33+00:00</t>
+          <t>2026-02-21T09:59:52+00:00</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
@@ -5390,18 +5404,16 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>LILLHAVET Washing-up bowl</t>
+          <t>DALSKÄR Wash-basin mixer tap</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="G85" t="n">
-        <v>6</v>
-      </c>
-      <c r="H85" t="n">
-        <v>50</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5423,7 +5435,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:33+00:00</t>
+          <t>2026-02-21T09:59:52+00:00</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
@@ -5451,16 +5463,18 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>IKEA PS 2002 Watering can, 1.2 l</t>
+          <t>LILLHAVET Washing-up bowl</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
-      </c>
-      <c r="H86" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H86" t="n">
+        <v>50</v>
+      </c>
       <c r="I86" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5482,7 +5496,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:33+00:00</t>
+          <t>2026-02-21T09:59:52+00:00</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
@@ -5490,38 +5504,36 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>IKEA</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.ikea.com</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.ikea.com/ie/en/ideas/tips-for-more-sustainable-living/smart-solutions-to-save-water-at-home-pub59724200/</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
+          <t>IKEA PS 2002 Watering can, 1.2 l</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="H87" t="n">
-        <v>15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -5532,18 +5544,18 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>Saint Margaret's Road, Dublin</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>53.2898373</v>
+        <v>53.4071706</v>
       </c>
       <c r="M87" t="n">
-        <v>-6.1999596</v>
+        <v>-6.2763987</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:37+00:00</t>
+          <t>2026-02-21T09:59:52+00:00</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -5551,39 +5563,39 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>€ 291.99</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.25</v>
+        <v>77.98999999999999</v>
       </c>
       <c r="G88" t="n">
-        <v>3.29</v>
+        <v>291.99</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J88" t="b">
@@ -5591,18 +5603,18 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M88" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:37+00:00</t>
+          <t>2026-02-21T09:59:55+00:00</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
@@ -5610,39 +5622,37 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>€ 291.99</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G89" t="n">
-        <v>3.29</v>
-      </c>
+        <v>291.99</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -5650,18 +5660,18 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M89" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:37+00:00</t>
+          <t>2026-02-21T09:59:55+00:00</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -5669,37 +5679,37 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Damiani Round Brilliant Three Stone Diamond Ring 0.66ct</t>
+          <t>Add to wish list</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.25</v>
+        <v>291.99</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -5707,18 +5717,18 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M90" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:37+00:00</t>
+          <t>2026-02-21T09:59:55+00:00</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
@@ -5726,37 +5736,37 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
+          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Guarantee &amp; Service</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
+          <t>€ 77.99</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>77.98999999999999</v>
+      </c>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="n">
-        <v>15</v>
-      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J91" t="b">
@@ -5764,18 +5774,18 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M91" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:37+00:00</t>
+          <t>2026-02-21T09:59:55+00:00</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
@@ -5783,38 +5793,34 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
+          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+          <t>Add to wish list</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G92" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H92" t="n">
-        <v>31</v>
-      </c>
+        <v>77.98999999999999</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
           <t>LOW</t>
@@ -5825,18 +5831,18 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M92" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:39+00:00</t>
+          <t>2026-02-21T09:59:55+00:00</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
@@ -5844,41 +5850,37 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
+          <t>€ 64.99</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H93" t="n">
-        <v>15</v>
-      </c>
+        <v>64.98999999999999</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J93" t="b">
@@ -5886,18 +5888,18 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M93" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:41+00:00</t>
+          <t>2026-02-21T09:59:55+00:00</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
@@ -5905,39 +5907,37 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>Add to wish list</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1.59</v>
-      </c>
+        <v>64.98999999999999</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J94" t="b">
@@ -5945,18 +5945,18 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M94" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:41+00:00</t>
+          <t>2026-02-21T09:59:55+00:00</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
@@ -5964,39 +5964,37 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Rocks</t>
+          <t>Harvey Norman</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>jewellery</t>
+          <t>home appliances</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>rocks.ie</t>
+          <t>www.harveynorman.ie</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://www.harveynorman.ie/online/diy/automotive-equipment/vehicle-repair-and-speciality-tools/</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>€ 41.99</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1.59</v>
-      </c>
+        <v>41.99</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J95" t="b">
@@ -6004,18 +6002,18 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Old Dublin Road</t>
+          <t>230, Carrickmines Park, D18 FH48</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>53.2898373</v>
+        <v>53.2523369</v>
       </c>
       <c r="M95" t="n">
-        <v>-6.1999596</v>
+        <v>-6.1860761</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:41+00:00</t>
+          <t>2026-02-21T09:59:55+00:00</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
@@ -6038,22 +6036,26 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
+          <t>https://rocks.ie/collections/black-friday-picks</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Rocks Diamond &amp; Gemstone Floral Necklace</t>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
+        <v>3.49</v>
+      </c>
+      <c r="G96" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H96" t="n">
+        <v>31</v>
+      </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="J96" t="b">
@@ -6072,7 +6074,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:41+00:00</t>
+          <t>2026-02-21T09:59:57+00:00</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
@@ -6095,7 +6097,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/black-friday-picks</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -6133,7 +6135,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:43+00:00</t>
+          <t>2026-02-21T09:59:59+00:00</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
@@ -6156,7 +6158,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -6165,10 +6167,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>13.25</v>
+        <v>2.25</v>
       </c>
       <c r="G98" t="n">
-        <v>18.29</v>
+        <v>3.29</v>
       </c>
       <c r="H98" t="n">
         <v>15</v>
@@ -6194,7 +6196,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:44+00:00</t>
+          <t>2026-02-21T10:00:00+00:00</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
@@ -6217,7 +6219,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -6226,10 +6228,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>13.25</v>
+        <v>2.25</v>
       </c>
       <c r="G99" t="n">
-        <v>18.29</v>
+        <v>3.29</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
@@ -6253,7 +6255,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:44+00:00</t>
+          <t>2026-02-21T10:00:00+00:00</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
@@ -6276,7 +6278,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -6285,10 +6287,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>13.25</v>
+        <v>2.25</v>
       </c>
       <c r="G100" t="n">
-        <v>18.29</v>
+        <v>3.29</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
@@ -6312,7 +6314,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:44+00:00</t>
+          <t>2026-02-21T10:00:00+00:00</t>
         </is>
       </c>
       <c r="O100" t="inlineStr"/>
@@ -6335,16 +6337,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Oval Yellow Diamond Solitiatire Diamond Set Shoulders 1.16ct</t>
+          <t>Damiani Round Brilliant Three Stone Diamond Ring 0.66ct</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>13.25</v>
+        <v>2.25</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
@@ -6369,7 +6371,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:44+00:00</t>
+          <t>2026-02-21T10:00:00+00:00</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
@@ -6392,20 +6394,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/damiani-round-brilliant-three-stone-diamond-ring-0-66ct</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Talk to a Diamond Expert</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G102" t="n">
-        <v>4.99</v>
-      </c>
+          <t>Guarantee &amp; Service</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
         <v>15</v>
       </c>
@@ -6430,7 +6428,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:46+00:00</t>
+          <t>2026-02-21T10:00:00+00:00</t>
         </is>
       </c>
       <c r="O102" t="inlineStr"/>
@@ -6453,21 +6451,23 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Skip to product information</t>
+          <t>Talk to a Diamond Expert</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3.49</v>
+        <v>1.39</v>
       </c>
       <c r="G103" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H103" t="inlineStr"/>
+        <v>1.59</v>
+      </c>
+      <c r="H103" t="n">
+        <v>15</v>
+      </c>
       <c r="I103" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6489,7 +6489,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:46+00:00</t>
+          <t>2026-02-21T10:00:02+00:00</t>
         </is>
       </c>
       <c r="O103" t="inlineStr"/>
@@ -6512,19 +6512,19 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Skip to product information</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>3.49</v>
+        <v>1.39</v>
       </c>
       <c r="G104" t="n">
-        <v>4.99</v>
+        <v>1.59</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:46+00:00</t>
+          <t>2026-02-21T10:00:02+00:00</t>
         </is>
       </c>
       <c r="O104" t="inlineStr"/>
@@ -6571,18 +6571,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="G105" t="inlineStr"/>
+        <v>1.39</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1.59</v>
+      </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
@@ -6605,7 +6607,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:46+00:00</t>
+          <t>2026-02-21T10:00:02+00:00</t>
         </is>
       </c>
       <c r="O105" t="inlineStr"/>
@@ -6628,19 +6630,19 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/rocks-diamond-gemstone-floral-necklace</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Guarantee &amp; Service</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr"/>
+          <t>Rocks Diamond &amp; Gemstone Floral Necklace</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>1.39</v>
+      </c>
       <c r="G106" t="inlineStr"/>
-      <c r="H106" t="n">
-        <v>15</v>
-      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
           <t>HIGH</t>
@@ -6662,7 +6664,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:46+00:00</t>
+          <t>2026-02-21T10:00:02+00:00</t>
         </is>
       </c>
       <c r="O106" t="inlineStr"/>
@@ -6670,35 +6672,41 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SISU Clinic</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>perfumes/beauty</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>www.sisuclinic.com</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Explore our latest Blogs</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
+          <t>Talk to a Diamond Expert</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="G107" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="H107" t="n">
+        <v>15</v>
+      </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="J107" t="b">
@@ -6706,18 +6714,18 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>3, Fields Terrace, Dublin</t>
+          <t>Old Dublin Road</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>53.3252812</v>
+        <v>53.2898373</v>
       </c>
       <c r="M107" t="n">
-        <v>-6.2554094</v>
+        <v>-6.1999596</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2026-02-20T10:12:48+00:00</t>
+          <t>2026-02-21T10:00:03+00:00</t>
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
@@ -6725,57 +6733,580 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SISU Clinic</t>
+          <t>Rocks</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>perfumes/beauty</t>
+          <t>jewellery</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>www.sisuclinic.com</t>
+          <t>rocks.ie</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Explore our latest Blogs</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
+          <t>Skip to product information</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="G108" t="n">
+        <v>18.29</v>
+      </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J108" t="b">
+        <v>1</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M108" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>2026-02-21T10:00:03+00:00</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="G109" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J109" t="b">
+        <v>1</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M109" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>2026-02-21T10:00:03+00:00</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/oval-yellow-diamond-solitiatire-diamond-set-shoulders-1-16ct</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Oval Yellow Diamond Solitiatire Diamond Set Shoulders 1.16ct</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J110" t="b">
+        <v>1</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M110" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>2026-02-21T10:00:03+00:00</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Talk to a Diamond Expert</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="G111" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H111" t="n">
+        <v>15</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J111" t="b">
+        <v>1</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M111" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>2026-02-21T10:00:05+00:00</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Skip to product information</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="G112" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J112" t="b">
+        <v>1</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M112" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>2026-02-21T10:00:05+00:00</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J113" t="b">
+        <v>1</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M113" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>2026-02-21T10:00:05+00:00</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Princess Cut Split Diamond Set Shoulders Engagement Ring 0.68ct</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J114" t="b">
+        <v>1</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M114" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>2026-02-21T10:00:05+00:00</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Rocks</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>jewellery</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>rocks.ie</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://rocks.ie/collections/jewellery-and-watches-sale-items/products/princess-cut-split-diamond-set-shoulders-engagement-ring-0-68ct</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Guarantee &amp; Service</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="n">
+        <v>15</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J115" t="b">
+        <v>1</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Old Dublin Road</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>53.2898373</v>
+      </c>
+      <c r="M115" t="n">
+        <v>-6.1999596</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>2026-02-21T10:00:05+00:00</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>SISU Clinic</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>perfumes/beauty</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>www.sisuclinic.com</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://www.sisuclinic.com/blogs/tech-driven-care-or-how-sisu-uses-smart-tech-to-make-every-patient-feel-special</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Explore our latest Blogs</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
           <t>MEDIUM</t>
         </is>
       </c>
-      <c r="J108" t="b">
-        <v>1</v>
-      </c>
-      <c r="K108" t="inlineStr">
+      <c r="J116" t="b">
+        <v>1</v>
+      </c>
+      <c r="K116" t="inlineStr">
         <is>
           <t>3, Fields Terrace, Dublin</t>
         </is>
       </c>
-      <c r="L108" t="n">
+      <c r="L116" t="n">
         <v>53.3252812</v>
       </c>
-      <c r="M108" t="n">
+      <c r="M116" t="n">
         <v>-6.2554094</v>
       </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>2026-02-20T10:12:49+00:00</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr"/>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>2026-02-21T10:00:07+00:00</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>SISU Clinic</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>perfumes/beauty</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>www.sisuclinic.com</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://www.sisuclinic.com/blogs/try-our-taylor-special-and-experience-the-ultimate-combo-of-botox-lip-filler-and-lip-flip</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Explore our latest Blogs</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="J117" t="b">
+        <v>1</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>3, Fields Terrace, Dublin</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>53.3252812</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-6.2554094</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>2026-02-21T10:00:08+00:00</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
